--- a/src/main/resources/script/db/init-data/hzero_file/hzero_platform/hzero-prompt.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_file/hzero_platform/hzero-prompt.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="350">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-04-21</t>
+    <t>2020-05-29</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2719,6 +2719,15 @@
   </si>
   <si>
     <t>默认</t>
+  </si>
+  <si>
+    <t>model.storage.endPointMeaning</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>区域</t>
   </si>
   <si>
     <t>model.storage.prefix</t>
@@ -3878,7 +3887,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J217"/>
+  <dimension ref="A1:J219"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7558,7 +7567,7 @@
         <v>64</v>
       </c>
       <c r="J188" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="189">
@@ -7572,13 +7581,13 @@
         <v>267</v>
       </c>
       <c r="H189" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I189" t="s">
         <v>68</v>
       </c>
       <c r="J189" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="190">
@@ -7592,7 +7601,7 @@
         <v>267</v>
       </c>
       <c r="H190" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I190" t="s">
         <v>64</v>
@@ -7638,7 +7647,7 @@
         <v>64</v>
       </c>
       <c r="J192" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="193">
@@ -7652,13 +7661,13 @@
         <v>267</v>
       </c>
       <c r="H193" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I193" t="s">
         <v>68</v>
       </c>
       <c r="J193" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="194">
@@ -7672,7 +7681,7 @@
         <v>267</v>
       </c>
       <c r="H194" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I194" t="s">
         <v>64</v>
@@ -7878,7 +7887,7 @@
         <v>64</v>
       </c>
       <c r="J204" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="205">
@@ -7892,13 +7901,13 @@
         <v>267</v>
       </c>
       <c r="H205" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I205" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J205" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="206">
@@ -7912,13 +7921,13 @@
         <v>267</v>
       </c>
       <c r="H206" t="s">
+        <v>329</v>
+      </c>
+      <c r="I206" t="s">
+        <v>64</v>
+      </c>
+      <c r="J206" t="s">
         <v>330</v>
-      </c>
-      <c r="I206" t="s">
-        <v>68</v>
-      </c>
-      <c r="J206" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="207">
@@ -7932,7 +7941,7 @@
         <v>267</v>
       </c>
       <c r="H207" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I207" t="s">
         <v>64</v>
@@ -7952,13 +7961,13 @@
         <v>267</v>
       </c>
       <c r="H208" t="s">
-        <v>89</v>
+        <v>333</v>
       </c>
       <c r="I208" t="s">
         <v>68</v>
       </c>
       <c r="J208" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="209">
@@ -7972,13 +7981,13 @@
         <v>267</v>
       </c>
       <c r="H209" t="s">
-        <v>89</v>
+        <v>333</v>
       </c>
       <c r="I209" t="s">
         <v>64</v>
       </c>
       <c r="J209" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="210">
@@ -7992,7 +8001,7 @@
         <v>267</v>
       </c>
       <c r="H210" t="s">
-        <v>335</v>
+        <v>89</v>
       </c>
       <c r="I210" t="s">
         <v>68</v>
@@ -8012,7 +8021,7 @@
         <v>267</v>
       </c>
       <c r="H211" t="s">
-        <v>335</v>
+        <v>89</v>
       </c>
       <c r="I211" t="s">
         <v>64</v>
@@ -8098,7 +8107,7 @@
         <v>64</v>
       </c>
       <c r="J215" t="s">
-        <v>65</v>
+        <v>343</v>
       </c>
     </row>
     <row r="216">
@@ -8109,7 +8118,7 @@
         <v>61</v>
       </c>
       <c r="G216" t="s">
-        <v>343</v>
+        <v>267</v>
       </c>
       <c r="H216" t="s">
         <v>344</v>
@@ -8129,7 +8138,7 @@
         <v>61</v>
       </c>
       <c r="G217" t="s">
-        <v>343</v>
+        <v>267</v>
       </c>
       <c r="H217" t="s">
         <v>344</v>
@@ -8138,7 +8147,47 @@
         <v>64</v>
       </c>
       <c r="J217" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="E218" t="s">
+        <v>60</v>
+      </c>
+      <c r="F218" t="s">
+        <v>61</v>
+      </c>
+      <c r="G218" t="s">
         <v>346</v>
+      </c>
+      <c r="H218" t="s">
+        <v>347</v>
+      </c>
+      <c r="I218" t="s">
+        <v>68</v>
+      </c>
+      <c r="J218" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="E219" t="s">
+        <v>60</v>
+      </c>
+      <c r="F219" t="s">
+        <v>61</v>
+      </c>
+      <c r="G219" t="s">
+        <v>346</v>
+      </c>
+      <c r="H219" t="s">
+        <v>347</v>
+      </c>
+      <c r="I219" t="s">
+        <v>64</v>
+      </c>
+      <c r="J219" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_file/hzero_platform/hzero-prompt.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_file/hzero_platform/hzero-prompt.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="401">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-05-29</t>
+    <t>2020-07-06</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2881,6 +2881,159 @@
   </si>
   <si>
     <t>Not changed</t>
+  </si>
+  <si>
+    <t>hfile.waterMark</t>
+  </si>
+  <si>
+    <t>model.waterMark.align</t>
+  </si>
+  <si>
+    <t>对齐方式</t>
+  </si>
+  <si>
+    <t>model.waterMark.code</t>
+  </si>
+  <si>
+    <t>编码</t>
+  </si>
+  <si>
+    <t>model.waterMark.color</t>
+  </si>
+  <si>
+    <t>色彩</t>
+  </si>
+  <si>
+    <t>model.waterMark.description</t>
+  </si>
+  <si>
+    <t>model.waterMark.detail</t>
+  </si>
+  <si>
+    <t>水印内容</t>
+  </si>
+  <si>
+    <t>model.waterMark.enabledFlag</t>
+  </si>
+  <si>
+    <t>启用标识</t>
+  </si>
+  <si>
+    <t>model.waterMark.fillOpacity</t>
+  </si>
+  <si>
+    <t>透明度</t>
+  </si>
+  <si>
+    <t>model.waterMark.fontSize</t>
+  </si>
+  <si>
+    <t>字体大小</t>
+  </si>
+  <si>
+    <t>model.waterMark.fontUrl</t>
+  </si>
+  <si>
+    <t>字体文件</t>
+  </si>
+  <si>
+    <t>model.waterMark.height</t>
+  </si>
+  <si>
+    <t>图片高度</t>
+  </si>
+  <si>
+    <t>model.waterMark.requireFont</t>
+  </si>
+  <si>
+    <t>水印内容包含中文时，需要指定字体文件</t>
+  </si>
+  <si>
+    <t>model.waterMark.rotation</t>
+  </si>
+  <si>
+    <t>倾斜角度</t>
+  </si>
+  <si>
+    <t>model.waterMark.tenantId</t>
+  </si>
+  <si>
+    <t>model.waterMark.watermarkCode</t>
+  </si>
+  <si>
+    <t>model.waterMark.watermarkType</t>
+  </si>
+  <si>
+    <t>水印类型</t>
+  </si>
+  <si>
+    <t>model.waterMark.weight</t>
+  </si>
+  <si>
+    <t>图片宽度</t>
+  </si>
+  <si>
+    <t>model.waterMark.xAxis</t>
+  </si>
+  <si>
+    <t>横坐标</t>
+  </si>
+  <si>
+    <t>model.waterMark.xMargin</t>
+  </si>
+  <si>
+    <t>横向间距</t>
+  </si>
+  <si>
+    <t>model.waterMark.yAxis</t>
+  </si>
+  <si>
+    <t>纵坐标</t>
+  </si>
+  <si>
+    <t>model.waterMark.yMargin</t>
+  </si>
+  <si>
+    <t>纵向间距</t>
+  </si>
+  <si>
+    <t>view.message.alert.contentRequired</t>
+  </si>
+  <si>
+    <t>请上传水印内容</t>
+  </si>
+  <si>
+    <t>view.message.crete</t>
+  </si>
+  <si>
+    <t>新建水印配置</t>
+  </si>
+  <si>
+    <t>编辑水印配置</t>
+  </si>
+  <si>
+    <t>view.message.waterMark</t>
+  </si>
+  <si>
+    <t>水印配置</t>
+  </si>
+  <si>
+    <t>view.waterMark.center</t>
+  </si>
+  <si>
+    <t>居中</t>
+  </si>
+  <si>
+    <t>view.waterMark.leftAlign</t>
+  </si>
+  <si>
+    <t>左对齐</t>
+  </si>
+  <si>
+    <t>view.waterMark.rightAlign</t>
+  </si>
+  <si>
+    <t>右对齐</t>
   </si>
   <si>
     <t>hfle.component</t>
@@ -3887,7 +4040,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J219"/>
+  <dimension ref="A1:J292"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4304,7 +4457,7 @@
         <v>93</v>
       </c>
       <c r="I25" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J25" t="s">
         <v>94</v>
@@ -4321,13 +4474,13 @@
         <v>92</v>
       </c>
       <c r="H26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I26" t="s">
         <v>64</v>
       </c>
       <c r="J26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27">
@@ -4341,13 +4494,13 @@
         <v>92</v>
       </c>
       <c r="H27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I27" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28">
@@ -4361,13 +4514,13 @@
         <v>92</v>
       </c>
       <c r="H28" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I28" t="s">
         <v>64</v>
       </c>
       <c r="J28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29">
@@ -4381,13 +4534,13 @@
         <v>92</v>
       </c>
       <c r="H29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I29" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30">
@@ -4401,13 +4554,13 @@
         <v>92</v>
       </c>
       <c r="H30" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I30" t="s">
         <v>64</v>
       </c>
       <c r="J30" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31">
@@ -4421,13 +4574,13 @@
         <v>92</v>
       </c>
       <c r="H31" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I31" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J31" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
@@ -4441,13 +4594,13 @@
         <v>92</v>
       </c>
       <c r="H32" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="I32" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J32" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -4461,13 +4614,13 @@
         <v>92</v>
       </c>
       <c r="H33" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I33" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J33" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34">
@@ -4481,13 +4634,13 @@
         <v>92</v>
       </c>
       <c r="H34" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="I34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J34" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35">
@@ -4501,13 +4654,13 @@
         <v>92</v>
       </c>
       <c r="H35" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I35" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J35" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36">
@@ -4521,13 +4674,13 @@
         <v>92</v>
       </c>
       <c r="H36" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J36" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37">
@@ -4541,13 +4694,13 @@
         <v>92</v>
       </c>
       <c r="H37" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I37" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J37" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38">
@@ -4561,13 +4714,13 @@
         <v>92</v>
       </c>
       <c r="H38" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="I38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J38" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39">
@@ -4581,13 +4734,13 @@
         <v>92</v>
       </c>
       <c r="H39" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="I39" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J39" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40">
@@ -4601,13 +4754,13 @@
         <v>92</v>
       </c>
       <c r="H40" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I40" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J40" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41">
@@ -4621,13 +4774,13 @@
         <v>92</v>
       </c>
       <c r="H41" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I41" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J41" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42">
@@ -4641,13 +4794,13 @@
         <v>92</v>
       </c>
       <c r="H42" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="I42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J42" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43">
@@ -4661,13 +4814,13 @@
         <v>92</v>
       </c>
       <c r="H43" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="I43" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J43" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44">
@@ -4681,13 +4834,13 @@
         <v>92</v>
       </c>
       <c r="H44" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I44" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J44" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45">
@@ -4701,13 +4854,13 @@
         <v>92</v>
       </c>
       <c r="H45" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I45" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J45" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46">
@@ -4721,13 +4874,13 @@
         <v>92</v>
       </c>
       <c r="H46" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="I46" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J46" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47">
@@ -4741,13 +4894,13 @@
         <v>92</v>
       </c>
       <c r="H47" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I47" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J47" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48">
@@ -4761,13 +4914,13 @@
         <v>92</v>
       </c>
       <c r="H48" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="I48" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J48" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49">
@@ -4781,13 +4934,13 @@
         <v>92</v>
       </c>
       <c r="H49" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I49" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J49" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50">
@@ -4801,13 +4954,13 @@
         <v>92</v>
       </c>
       <c r="H50" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="I50" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J50" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51">
@@ -4821,13 +4974,13 @@
         <v>92</v>
       </c>
       <c r="H51" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I51" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J51" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52">
@@ -4841,13 +4994,13 @@
         <v>92</v>
       </c>
       <c r="H52" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="I52" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J52" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53">
@@ -4861,13 +5014,13 @@
         <v>92</v>
       </c>
       <c r="H53" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I53" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J53" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54">
@@ -4881,13 +5034,13 @@
         <v>92</v>
       </c>
       <c r="H54" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="I54" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J54" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55">
@@ -4901,13 +5054,13 @@
         <v>92</v>
       </c>
       <c r="H55" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I55" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J55" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56">
@@ -4921,13 +5074,13 @@
         <v>92</v>
       </c>
       <c r="H56" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="I56" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J56" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57">
@@ -4941,13 +5094,13 @@
         <v>92</v>
       </c>
       <c r="H57" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="I57" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J57" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58">
@@ -4961,13 +5114,13 @@
         <v>92</v>
       </c>
       <c r="H58" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="I58" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J58" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59">
@@ -4981,13 +5134,13 @@
         <v>92</v>
       </c>
       <c r="H59" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="I59" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J59" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60">
@@ -5001,13 +5154,13 @@
         <v>92</v>
       </c>
       <c r="H60" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="I60" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J60" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61">
@@ -5021,13 +5174,13 @@
         <v>92</v>
       </c>
       <c r="H61" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="I61" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J61" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62">
@@ -5041,13 +5194,13 @@
         <v>92</v>
       </c>
       <c r="H62" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="I62" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J62" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63">
@@ -5061,13 +5214,13 @@
         <v>92</v>
       </c>
       <c r="H63" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="I63" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J63" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64">
@@ -5081,13 +5234,13 @@
         <v>92</v>
       </c>
       <c r="H64" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="I64" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J64" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65">
@@ -5101,13 +5254,13 @@
         <v>92</v>
       </c>
       <c r="H65" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I65" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J65" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66">
@@ -5121,13 +5274,13 @@
         <v>92</v>
       </c>
       <c r="H66" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I66" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J66" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67">
@@ -5141,13 +5294,13 @@
         <v>92</v>
       </c>
       <c r="H67" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I67" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J67" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68">
@@ -5161,13 +5314,13 @@
         <v>92</v>
       </c>
       <c r="H68" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I68" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J68" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69">
@@ -5181,13 +5334,13 @@
         <v>92</v>
       </c>
       <c r="H69" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I69" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J69" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70">
@@ -5201,13 +5354,13 @@
         <v>92</v>
       </c>
       <c r="H70" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="I70" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J70" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71">
@@ -5221,13 +5374,13 @@
         <v>92</v>
       </c>
       <c r="H71" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="I71" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J71" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72">
@@ -5241,13 +5394,13 @@
         <v>92</v>
       </c>
       <c r="H72" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="I72" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J72" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73">
@@ -5261,13 +5414,13 @@
         <v>92</v>
       </c>
       <c r="H73" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I73" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J73" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74">
@@ -5281,13 +5434,13 @@
         <v>92</v>
       </c>
       <c r="H74" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="I74" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J74" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75">
@@ -5301,13 +5454,13 @@
         <v>92</v>
       </c>
       <c r="H75" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I75" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J75" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76">
@@ -5321,13 +5474,13 @@
         <v>92</v>
       </c>
       <c r="H76" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="I76" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J76" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77">
@@ -5341,13 +5494,13 @@
         <v>92</v>
       </c>
       <c r="H77" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="I77" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J77" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78">
@@ -5361,13 +5514,13 @@
         <v>92</v>
       </c>
       <c r="H78" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="I78" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J78" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79">
@@ -5381,13 +5534,13 @@
         <v>92</v>
       </c>
       <c r="H79" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I79" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J79" t="s">
-        <v>165</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80">
@@ -5401,13 +5554,13 @@
         <v>92</v>
       </c>
       <c r="H80" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="I80" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J80" t="s">
-        <v>167</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81">
@@ -5421,13 +5574,13 @@
         <v>92</v>
       </c>
       <c r="H81" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="I81" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J81" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82">
@@ -5441,13 +5594,13 @@
         <v>92</v>
       </c>
       <c r="H82" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="I82" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J82" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83">
@@ -5461,13 +5614,13 @@
         <v>92</v>
       </c>
       <c r="H83" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="I83" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J83" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84">
@@ -5481,13 +5634,13 @@
         <v>92</v>
       </c>
       <c r="H84" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="I84" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J84" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85">
@@ -5501,13 +5654,13 @@
         <v>92</v>
       </c>
       <c r="H85" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="I85" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J85" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86">
@@ -5521,13 +5674,13 @@
         <v>92</v>
       </c>
       <c r="H86" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="I86" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J86" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="87">
@@ -5541,13 +5694,13 @@
         <v>92</v>
       </c>
       <c r="H87" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="I87" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J87" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88">
@@ -5561,13 +5714,13 @@
         <v>92</v>
       </c>
       <c r="H88" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="I88" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J88" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89">
@@ -5581,13 +5734,13 @@
         <v>92</v>
       </c>
       <c r="H89" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I89" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J89" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90">
@@ -5598,16 +5751,16 @@
         <v>61</v>
       </c>
       <c r="G90" t="s">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="H90" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="I90" t="s">
         <v>64</v>
       </c>
       <c r="J90" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91">
@@ -5618,16 +5771,16 @@
         <v>61</v>
       </c>
       <c r="G91" t="s">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="H91" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="I91" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J91" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92">
@@ -5638,16 +5791,16 @@
         <v>61</v>
       </c>
       <c r="G92" t="s">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="H92" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="I92" t="s">
         <v>64</v>
       </c>
       <c r="J92" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
     </row>
     <row r="93">
@@ -5658,16 +5811,16 @@
         <v>61</v>
       </c>
       <c r="G93" t="s">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="H93" t="s">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="I93" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J93" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="94">
@@ -5678,16 +5831,16 @@
         <v>61</v>
       </c>
       <c r="G94" t="s">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="H94" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="I94" t="s">
         <v>64</v>
       </c>
       <c r="J94" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="95">
@@ -5698,16 +5851,16 @@
         <v>61</v>
       </c>
       <c r="G95" t="s">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="H95" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="I95" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J95" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="96">
@@ -5718,16 +5871,16 @@
         <v>61</v>
       </c>
       <c r="G96" t="s">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="H96" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="I96" t="s">
         <v>64</v>
       </c>
       <c r="J96" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="97">
@@ -5741,13 +5894,13 @@
         <v>180</v>
       </c>
       <c r="H97" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="I97" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J97" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="98">
@@ -5761,13 +5914,13 @@
         <v>180</v>
       </c>
       <c r="H98" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="I98" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J98" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
     </row>
     <row r="99">
@@ -5781,13 +5934,13 @@
         <v>180</v>
       </c>
       <c r="H99" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="I99" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J99" t="s">
-        <v>96</v>
+        <v>184</v>
       </c>
     </row>
     <row r="100">
@@ -5801,13 +5954,13 @@
         <v>180</v>
       </c>
       <c r="H100" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="I100" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J100" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="101">
@@ -5821,13 +5974,13 @@
         <v>180</v>
       </c>
       <c r="H101" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="I101" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J101" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
     </row>
     <row r="102">
@@ -5841,13 +5994,13 @@
         <v>180</v>
       </c>
       <c r="H102" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="I102" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J102" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103">
@@ -5861,13 +6014,13 @@
         <v>180</v>
       </c>
       <c r="H103" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="I103" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J103" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
     </row>
     <row r="104">
@@ -5881,13 +6034,13 @@
         <v>180</v>
       </c>
       <c r="H104" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="I104" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J104" t="s">
-        <v>120</v>
+        <v>187</v>
       </c>
     </row>
     <row r="105">
@@ -5901,13 +6054,13 @@
         <v>180</v>
       </c>
       <c r="H105" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="I105" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J105" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
     </row>
     <row r="106">
@@ -5921,13 +6074,13 @@
         <v>180</v>
       </c>
       <c r="H106" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="I106" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J106" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="107">
@@ -5941,13 +6094,13 @@
         <v>180</v>
       </c>
       <c r="H107" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="I107" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J107" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="108">
@@ -5961,13 +6114,13 @@
         <v>180</v>
       </c>
       <c r="H108" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="I108" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J108" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="109">
@@ -5981,13 +6134,13 @@
         <v>180</v>
       </c>
       <c r="H109" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="I109" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J109" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="110">
@@ -6001,13 +6154,13 @@
         <v>180</v>
       </c>
       <c r="H110" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="I110" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J110" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="111">
@@ -6021,13 +6174,13 @@
         <v>180</v>
       </c>
       <c r="H111" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="I111" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J111" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="112">
@@ -6041,13 +6194,13 @@
         <v>180</v>
       </c>
       <c r="H112" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="I112" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J112" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="113">
@@ -6061,13 +6214,13 @@
         <v>180</v>
       </c>
       <c r="H113" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="I113" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J113" t="s">
-        <v>193</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114">
@@ -6081,13 +6234,13 @@
         <v>180</v>
       </c>
       <c r="H114" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="I114" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J114" t="s">
-        <v>211</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115">
@@ -6101,13 +6254,13 @@
         <v>180</v>
       </c>
       <c r="H115" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="I115" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J115" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="116">
@@ -6121,13 +6274,13 @@
         <v>180</v>
       </c>
       <c r="H116" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="I116" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J116" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
     </row>
     <row r="117">
@@ -6141,13 +6294,13 @@
         <v>180</v>
       </c>
       <c r="H117" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="I117" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J117" t="s">
-        <v>214</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118">
@@ -6161,13 +6314,13 @@
         <v>180</v>
       </c>
       <c r="H118" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="I118" t="s">
         <v>64</v>
       </c>
       <c r="J118" t="s">
-        <v>216</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119">
@@ -6181,13 +6334,13 @@
         <v>180</v>
       </c>
       <c r="H119" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="I119" t="s">
         <v>68</v>
       </c>
       <c r="J119" t="s">
-        <v>218</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120">
@@ -6201,13 +6354,13 @@
         <v>180</v>
       </c>
       <c r="H120" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="I120" t="s">
         <v>64</v>
       </c>
       <c r="J120" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121">
@@ -6221,13 +6374,13 @@
         <v>180</v>
       </c>
       <c r="H121" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="I121" t="s">
         <v>68</v>
       </c>
       <c r="J121" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
     </row>
     <row r="122">
@@ -6241,13 +6394,13 @@
         <v>180</v>
       </c>
       <c r="H122" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="I122" t="s">
         <v>64</v>
       </c>
       <c r="J122" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
     </row>
     <row r="123">
@@ -6261,13 +6414,13 @@
         <v>180</v>
       </c>
       <c r="H123" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="I123" t="s">
         <v>68</v>
       </c>
       <c r="J123" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
     </row>
     <row r="124">
@@ -6281,13 +6434,13 @@
         <v>180</v>
       </c>
       <c r="H124" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="I124" t="s">
         <v>64</v>
       </c>
       <c r="J124" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
     </row>
     <row r="125">
@@ -6301,13 +6454,13 @@
         <v>180</v>
       </c>
       <c r="H125" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="I125" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J125" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
     </row>
     <row r="126">
@@ -6321,13 +6474,13 @@
         <v>180</v>
       </c>
       <c r="H126" t="s">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="I126" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J126" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
     </row>
     <row r="127">
@@ -6341,13 +6494,13 @@
         <v>180</v>
       </c>
       <c r="H127" t="s">
-        <v>89</v>
+        <v>208</v>
       </c>
       <c r="I127" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J127" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="128">
@@ -6361,13 +6514,13 @@
         <v>180</v>
       </c>
       <c r="H128" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="I128" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J128" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
     </row>
     <row r="129">
@@ -6381,13 +6534,13 @@
         <v>180</v>
       </c>
       <c r="H129" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="I129" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J129" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
     </row>
     <row r="130">
@@ -6398,16 +6551,16 @@
         <v>61</v>
       </c>
       <c r="G130" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="H130" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="I130" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J130" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
     </row>
     <row r="131">
@@ -6418,16 +6571,16 @@
         <v>61</v>
       </c>
       <c r="G131" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="H131" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="I131" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J131" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="132">
@@ -6438,16 +6591,16 @@
         <v>61</v>
       </c>
       <c r="G132" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="H132" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="I132" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J132" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
     </row>
     <row r="133">
@@ -6458,16 +6611,16 @@
         <v>61</v>
       </c>
       <c r="G133" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="H133" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="I133" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J133" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
     </row>
     <row r="134">
@@ -6478,16 +6631,16 @@
         <v>61</v>
       </c>
       <c r="G134" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="H134" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="I134" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J134" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
     </row>
     <row r="135">
@@ -6498,16 +6651,16 @@
         <v>61</v>
       </c>
       <c r="G135" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="H135" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="I135" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J135" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="136">
@@ -6518,16 +6671,16 @@
         <v>61</v>
       </c>
       <c r="G136" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="H136" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="I136" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J136" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
     </row>
     <row r="137">
@@ -6538,16 +6691,16 @@
         <v>61</v>
       </c>
       <c r="G137" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="H137" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="I137" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J137" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
     </row>
     <row r="138">
@@ -6558,16 +6711,16 @@
         <v>61</v>
       </c>
       <c r="G138" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="H138" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="I138" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J138" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
     </row>
     <row r="139">
@@ -6578,16 +6731,16 @@
         <v>61</v>
       </c>
       <c r="G139" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="H139" t="s">
-        <v>241</v>
+        <v>172</v>
       </c>
       <c r="I139" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J139" t="s">
-        <v>243</v>
+        <v>173</v>
       </c>
     </row>
     <row r="140">
@@ -6598,16 +6751,16 @@
         <v>61</v>
       </c>
       <c r="G140" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="H140" t="s">
-        <v>244</v>
+        <v>172</v>
       </c>
       <c r="I140" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J140" t="s">
-        <v>245</v>
+        <v>174</v>
       </c>
     </row>
     <row r="141">
@@ -6618,16 +6771,16 @@
         <v>61</v>
       </c>
       <c r="G141" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="H141" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="I141" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J141" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
     </row>
     <row r="142">
@@ -6638,16 +6791,16 @@
         <v>61</v>
       </c>
       <c r="G142" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="H142" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="I142" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J142" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
     </row>
     <row r="143">
@@ -6658,16 +6811,16 @@
         <v>61</v>
       </c>
       <c r="G143" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="H143" t="s">
-        <v>247</v>
+        <v>89</v>
       </c>
       <c r="I143" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J143" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
     </row>
     <row r="144">
@@ -6678,16 +6831,16 @@
         <v>61</v>
       </c>
       <c r="G144" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="H144" t="s">
-        <v>250</v>
+        <v>89</v>
       </c>
       <c r="I144" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J144" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
     </row>
     <row r="145">
@@ -6698,16 +6851,16 @@
         <v>61</v>
       </c>
       <c r="G145" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="H145" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="I145" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J145" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="146">
@@ -6718,16 +6871,16 @@
         <v>61</v>
       </c>
       <c r="G146" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="H146" t="s">
-        <v>253</v>
+        <v>177</v>
       </c>
       <c r="I146" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J146" t="s">
-        <v>254</v>
+        <v>179</v>
       </c>
     </row>
     <row r="147">
@@ -6741,13 +6894,13 @@
         <v>228</v>
       </c>
       <c r="H147" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="I147" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J147" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="148">
@@ -6761,13 +6914,13 @@
         <v>228</v>
       </c>
       <c r="H148" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="I148" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J148" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
     </row>
     <row r="149">
@@ -6781,13 +6934,13 @@
         <v>228</v>
       </c>
       <c r="H149" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="I149" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J149" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
     </row>
     <row r="150">
@@ -6801,13 +6954,13 @@
         <v>228</v>
       </c>
       <c r="H150" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="I150" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J150" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
     </row>
     <row r="151">
@@ -6821,13 +6974,13 @@
         <v>228</v>
       </c>
       <c r="H151" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="I151" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J151" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
     </row>
     <row r="152">
@@ -6841,13 +6994,13 @@
         <v>228</v>
       </c>
       <c r="H152" t="s">
-        <v>89</v>
+        <v>235</v>
       </c>
       <c r="I152" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J152" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
     </row>
     <row r="153">
@@ -6861,13 +7014,13 @@
         <v>228</v>
       </c>
       <c r="H153" t="s">
-        <v>89</v>
+        <v>238</v>
       </c>
       <c r="I153" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J153" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="154">
@@ -6881,13 +7034,13 @@
         <v>228</v>
       </c>
       <c r="H154" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="I154" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J154" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
     <row r="155">
@@ -6901,13 +7054,13 @@
         <v>228</v>
       </c>
       <c r="H155" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="I155" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J155" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
     </row>
     <row r="156">
@@ -6921,13 +7074,13 @@
         <v>228</v>
       </c>
       <c r="H156" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="I156" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J156" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="157">
@@ -6941,13 +7094,13 @@
         <v>228</v>
       </c>
       <c r="H157" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="I157" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J157" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="158">
@@ -6961,13 +7114,13 @@
         <v>228</v>
       </c>
       <c r="H158" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="I158" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J158" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row r="159">
@@ -6981,13 +7134,13 @@
         <v>228</v>
       </c>
       <c r="H159" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="I159" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J159" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="160">
@@ -6998,16 +7151,16 @@
         <v>61</v>
       </c>
       <c r="G160" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="H160" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="I160" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J160" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
     </row>
     <row r="161">
@@ -7018,16 +7171,16 @@
         <v>61</v>
       </c>
       <c r="G161" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="H161" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="I161" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J161" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="162">
@@ -7038,16 +7191,16 @@
         <v>61</v>
       </c>
       <c r="G162" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="H162" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="I162" t="s">
         <v>64</v>
       </c>
       <c r="J162" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
     </row>
     <row r="163">
@@ -7058,16 +7211,16 @@
         <v>61</v>
       </c>
       <c r="G163" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="H163" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="I163" t="s">
         <v>68</v>
       </c>
       <c r="J163" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="164">
@@ -7078,16 +7231,16 @@
         <v>61</v>
       </c>
       <c r="G164" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="H164" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="I164" t="s">
         <v>64</v>
       </c>
       <c r="J164" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="165">
@@ -7098,16 +7251,16 @@
         <v>61</v>
       </c>
       <c r="G165" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="H165" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="I165" t="s">
         <v>68</v>
       </c>
       <c r="J165" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
     </row>
     <row r="166">
@@ -7118,16 +7271,16 @@
         <v>61</v>
       </c>
       <c r="G166" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="H166" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="I166" t="s">
         <v>64</v>
       </c>
       <c r="J166" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
     </row>
     <row r="167">
@@ -7138,16 +7291,16 @@
         <v>61</v>
       </c>
       <c r="G167" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="H167" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="I167" t="s">
         <v>68</v>
       </c>
       <c r="J167" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
     </row>
     <row r="168">
@@ -7158,16 +7311,16 @@
         <v>61</v>
       </c>
       <c r="G168" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="H168" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="I168" t="s">
         <v>64</v>
       </c>
       <c r="J168" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
     </row>
     <row r="169">
@@ -7178,16 +7331,16 @@
         <v>61</v>
       </c>
       <c r="G169" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="H169" t="s">
-        <v>280</v>
+        <v>89</v>
       </c>
       <c r="I169" t="s">
         <v>68</v>
       </c>
       <c r="J169" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
     </row>
     <row r="170">
@@ -7198,16 +7351,16 @@
         <v>61</v>
       </c>
       <c r="G170" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="H170" t="s">
-        <v>280</v>
+        <v>89</v>
       </c>
       <c r="I170" t="s">
         <v>64</v>
       </c>
       <c r="J170" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
     </row>
     <row r="171">
@@ -7218,16 +7371,16 @@
         <v>61</v>
       </c>
       <c r="G171" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="H171" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="I171" t="s">
         <v>68</v>
       </c>
       <c r="J171" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
     </row>
     <row r="172">
@@ -7238,16 +7391,16 @@
         <v>61</v>
       </c>
       <c r="G172" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="H172" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="I172" t="s">
         <v>64</v>
       </c>
       <c r="J172" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
     </row>
     <row r="173">
@@ -7258,16 +7411,16 @@
         <v>61</v>
       </c>
       <c r="G173" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="H173" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="I173" t="s">
         <v>68</v>
       </c>
       <c r="J173" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="174">
@@ -7278,16 +7431,16 @@
         <v>61</v>
       </c>
       <c r="G174" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="H174" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="I174" t="s">
         <v>64</v>
       </c>
       <c r="J174" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="175">
@@ -7298,16 +7451,16 @@
         <v>61</v>
       </c>
       <c r="G175" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="H175" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="I175" t="s">
         <v>68</v>
       </c>
       <c r="J175" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
     </row>
     <row r="176">
@@ -7318,16 +7471,16 @@
         <v>61</v>
       </c>
       <c r="G176" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="H176" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="I176" t="s">
         <v>64</v>
       </c>
       <c r="J176" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
     </row>
     <row r="177">
@@ -7341,13 +7494,13 @@
         <v>267</v>
       </c>
       <c r="H177" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="I177" t="s">
         <v>68</v>
       </c>
       <c r="J177" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
     </row>
     <row r="178">
@@ -7361,13 +7514,13 @@
         <v>267</v>
       </c>
       <c r="H178" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="I178" t="s">
         <v>64</v>
       </c>
       <c r="J178" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
     </row>
     <row r="179">
@@ -7381,13 +7534,13 @@
         <v>267</v>
       </c>
       <c r="H179" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="I179" t="s">
         <v>68</v>
       </c>
       <c r="J179" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
     </row>
     <row r="180">
@@ -7401,13 +7554,13 @@
         <v>267</v>
       </c>
       <c r="H180" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="I180" t="s">
         <v>64</v>
       </c>
       <c r="J180" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
     </row>
     <row r="181">
@@ -7421,13 +7574,13 @@
         <v>267</v>
       </c>
       <c r="H181" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="I181" t="s">
         <v>68</v>
       </c>
       <c r="J181" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
     </row>
     <row r="182">
@@ -7441,13 +7594,13 @@
         <v>267</v>
       </c>
       <c r="H182" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="I182" t="s">
         <v>64</v>
       </c>
       <c r="J182" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
     </row>
     <row r="183">
@@ -7461,13 +7614,13 @@
         <v>267</v>
       </c>
       <c r="H183" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="I183" t="s">
         <v>68</v>
       </c>
       <c r="J183" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
     </row>
     <row r="184">
@@ -7481,13 +7634,13 @@
         <v>267</v>
       </c>
       <c r="H184" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="I184" t="s">
         <v>64</v>
       </c>
       <c r="J184" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
     </row>
     <row r="185">
@@ -7501,13 +7654,13 @@
         <v>267</v>
       </c>
       <c r="H185" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="I185" t="s">
         <v>68</v>
       </c>
       <c r="J185" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
     </row>
     <row r="186">
@@ -7521,13 +7674,13 @@
         <v>267</v>
       </c>
       <c r="H186" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="I186" t="s">
         <v>64</v>
       </c>
       <c r="J186" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
     </row>
     <row r="187">
@@ -7541,13 +7694,13 @@
         <v>267</v>
       </c>
       <c r="H187" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="I187" t="s">
         <v>68</v>
       </c>
       <c r="J187" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
     </row>
     <row r="188">
@@ -7561,13 +7714,13 @@
         <v>267</v>
       </c>
       <c r="H188" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="I188" t="s">
         <v>64</v>
       </c>
       <c r="J188" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
     </row>
     <row r="189">
@@ -7581,13 +7734,13 @@
         <v>267</v>
       </c>
       <c r="H189" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="I189" t="s">
         <v>68</v>
       </c>
       <c r="J189" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
     </row>
     <row r="190">
@@ -7601,13 +7754,13 @@
         <v>267</v>
       </c>
       <c r="H190" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="I190" t="s">
         <v>64</v>
       </c>
       <c r="J190" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
     </row>
     <row r="191">
@@ -7621,13 +7774,13 @@
         <v>267</v>
       </c>
       <c r="H191" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="I191" t="s">
         <v>68</v>
       </c>
       <c r="J191" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
     </row>
     <row r="192">
@@ -7641,13 +7794,13 @@
         <v>267</v>
       </c>
       <c r="H192" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="I192" t="s">
         <v>64</v>
       </c>
       <c r="J192" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
     </row>
     <row r="193">
@@ -7661,13 +7814,13 @@
         <v>267</v>
       </c>
       <c r="H193" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="I193" t="s">
         <v>68</v>
       </c>
       <c r="J193" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
     </row>
     <row r="194">
@@ -7681,13 +7834,13 @@
         <v>267</v>
       </c>
       <c r="H194" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="I194" t="s">
         <v>64</v>
       </c>
       <c r="J194" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
     </row>
     <row r="195">
@@ -7701,13 +7854,13 @@
         <v>267</v>
       </c>
       <c r="H195" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="I195" t="s">
         <v>68</v>
       </c>
       <c r="J195" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
     </row>
     <row r="196">
@@ -7721,13 +7874,13 @@
         <v>267</v>
       </c>
       <c r="H196" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="I196" t="s">
         <v>64</v>
       </c>
       <c r="J196" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
     </row>
     <row r="197">
@@ -7741,13 +7894,13 @@
         <v>267</v>
       </c>
       <c r="H197" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="I197" t="s">
         <v>68</v>
       </c>
       <c r="J197" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
     </row>
     <row r="198">
@@ -7761,13 +7914,13 @@
         <v>267</v>
       </c>
       <c r="H198" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="I198" t="s">
         <v>64</v>
       </c>
       <c r="J198" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
     </row>
     <row r="199">
@@ -7781,13 +7934,13 @@
         <v>267</v>
       </c>
       <c r="H199" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="I199" t="s">
         <v>68</v>
       </c>
       <c r="J199" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
     </row>
     <row r="200">
@@ -7801,13 +7954,13 @@
         <v>267</v>
       </c>
       <c r="H200" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="I200" t="s">
         <v>64</v>
       </c>
       <c r="J200" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
     </row>
     <row r="201">
@@ -7821,13 +7974,13 @@
         <v>267</v>
       </c>
       <c r="H201" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="I201" t="s">
         <v>68</v>
       </c>
       <c r="J201" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
     </row>
     <row r="202">
@@ -7841,13 +7994,13 @@
         <v>267</v>
       </c>
       <c r="H202" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="I202" t="s">
         <v>64</v>
       </c>
       <c r="J202" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
     </row>
     <row r="203">
@@ -7861,13 +8014,13 @@
         <v>267</v>
       </c>
       <c r="H203" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="I203" t="s">
         <v>68</v>
       </c>
       <c r="J203" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
     </row>
     <row r="204">
@@ -7881,13 +8034,13 @@
         <v>267</v>
       </c>
       <c r="H204" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="I204" t="s">
         <v>64</v>
       </c>
       <c r="J204" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
     </row>
     <row r="205">
@@ -7901,13 +8054,13 @@
         <v>267</v>
       </c>
       <c r="H205" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="I205" t="s">
         <v>68</v>
       </c>
       <c r="J205" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
     </row>
     <row r="206">
@@ -7921,13 +8074,13 @@
         <v>267</v>
       </c>
       <c r="H206" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="I206" t="s">
         <v>64</v>
       </c>
       <c r="J206" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
     </row>
     <row r="207">
@@ -7941,13 +8094,13 @@
         <v>267</v>
       </c>
       <c r="H207" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="I207" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J207" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
     </row>
     <row r="208">
@@ -7961,13 +8114,13 @@
         <v>267</v>
       </c>
       <c r="H208" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="I208" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J208" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
     </row>
     <row r="209">
@@ -7981,13 +8134,13 @@
         <v>267</v>
       </c>
       <c r="H209" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="I209" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J209" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
     </row>
     <row r="210">
@@ -8001,13 +8154,13 @@
         <v>267</v>
       </c>
       <c r="H210" t="s">
-        <v>89</v>
+        <v>309</v>
       </c>
       <c r="I210" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J210" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
     </row>
     <row r="211">
@@ -8021,13 +8174,13 @@
         <v>267</v>
       </c>
       <c r="H211" t="s">
-        <v>89</v>
+        <v>312</v>
       </c>
       <c r="I211" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J211" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
     </row>
     <row r="212">
@@ -8041,13 +8194,13 @@
         <v>267</v>
       </c>
       <c r="H212" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="I212" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J212" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
     </row>
     <row r="213">
@@ -8061,13 +8214,13 @@
         <v>267</v>
       </c>
       <c r="H213" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="I213" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J213" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
     </row>
     <row r="214">
@@ -8081,13 +8234,13 @@
         <v>267</v>
       </c>
       <c r="H214" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="I214" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J214" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
     </row>
     <row r="215">
@@ -8101,13 +8254,13 @@
         <v>267</v>
       </c>
       <c r="H215" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="I215" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J215" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
     </row>
     <row r="216">
@@ -8121,13 +8274,13 @@
         <v>267</v>
       </c>
       <c r="H216" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="I216" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J216" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
     </row>
     <row r="217">
@@ -8141,13 +8294,13 @@
         <v>267</v>
       </c>
       <c r="H217" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="I217" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J217" t="s">
-        <v>65</v>
+        <v>321</v>
       </c>
     </row>
     <row r="218">
@@ -8158,16 +8311,16 @@
         <v>61</v>
       </c>
       <c r="G218" t="s">
-        <v>346</v>
+        <v>267</v>
       </c>
       <c r="H218" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="I218" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J218" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
     </row>
     <row r="219">
@@ -8178,16 +8331,1476 @@
         <v>61</v>
       </c>
       <c r="G219" t="s">
+        <v>267</v>
+      </c>
+      <c r="H219" t="s">
+        <v>323</v>
+      </c>
+      <c r="I219" t="s">
+        <v>68</v>
+      </c>
+      <c r="J219" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="E220" t="s">
+        <v>60</v>
+      </c>
+      <c r="F220" t="s">
+        <v>61</v>
+      </c>
+      <c r="G220" t="s">
+        <v>267</v>
+      </c>
+      <c r="H220" t="s">
+        <v>323</v>
+      </c>
+      <c r="I220" t="s">
+        <v>64</v>
+      </c>
+      <c r="J220" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="E221" t="s">
+        <v>60</v>
+      </c>
+      <c r="F221" t="s">
+        <v>61</v>
+      </c>
+      <c r="G221" t="s">
+        <v>267</v>
+      </c>
+      <c r="H221" t="s">
+        <v>326</v>
+      </c>
+      <c r="I221" t="s">
+        <v>68</v>
+      </c>
+      <c r="J221" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="E222" t="s">
+        <v>60</v>
+      </c>
+      <c r="F222" t="s">
+        <v>61</v>
+      </c>
+      <c r="G222" t="s">
+        <v>267</v>
+      </c>
+      <c r="H222" t="s">
+        <v>326</v>
+      </c>
+      <c r="I222" t="s">
+        <v>64</v>
+      </c>
+      <c r="J222" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="E223" t="s">
+        <v>60</v>
+      </c>
+      <c r="F223" t="s">
+        <v>61</v>
+      </c>
+      <c r="G223" t="s">
+        <v>267</v>
+      </c>
+      <c r="H223" t="s">
+        <v>329</v>
+      </c>
+      <c r="I223" t="s">
+        <v>68</v>
+      </c>
+      <c r="J223" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="E224" t="s">
+        <v>60</v>
+      </c>
+      <c r="F224" t="s">
+        <v>61</v>
+      </c>
+      <c r="G224" t="s">
+        <v>267</v>
+      </c>
+      <c r="H224" t="s">
+        <v>329</v>
+      </c>
+      <c r="I224" t="s">
+        <v>64</v>
+      </c>
+      <c r="J224" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="E225" t="s">
+        <v>60</v>
+      </c>
+      <c r="F225" t="s">
+        <v>61</v>
+      </c>
+      <c r="G225" t="s">
+        <v>267</v>
+      </c>
+      <c r="H225" t="s">
+        <v>331</v>
+      </c>
+      <c r="I225" t="s">
+        <v>68</v>
+      </c>
+      <c r="J225" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="E226" t="s">
+        <v>60</v>
+      </c>
+      <c r="F226" t="s">
+        <v>61</v>
+      </c>
+      <c r="G226" t="s">
+        <v>267</v>
+      </c>
+      <c r="H226" t="s">
+        <v>331</v>
+      </c>
+      <c r="I226" t="s">
+        <v>64</v>
+      </c>
+      <c r="J226" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="E227" t="s">
+        <v>60</v>
+      </c>
+      <c r="F227" t="s">
+        <v>61</v>
+      </c>
+      <c r="G227" t="s">
+        <v>267</v>
+      </c>
+      <c r="H227" t="s">
+        <v>333</v>
+      </c>
+      <c r="I227" t="s">
+        <v>68</v>
+      </c>
+      <c r="J227" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="E228" t="s">
+        <v>60</v>
+      </c>
+      <c r="F228" t="s">
+        <v>61</v>
+      </c>
+      <c r="G228" t="s">
+        <v>267</v>
+      </c>
+      <c r="H228" t="s">
+        <v>333</v>
+      </c>
+      <c r="I228" t="s">
+        <v>64</v>
+      </c>
+      <c r="J228" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="E229" t="s">
+        <v>60</v>
+      </c>
+      <c r="F229" t="s">
+        <v>61</v>
+      </c>
+      <c r="G229" t="s">
+        <v>267</v>
+      </c>
+      <c r="H229" t="s">
+        <v>89</v>
+      </c>
+      <c r="I229" t="s">
+        <v>68</v>
+      </c>
+      <c r="J229" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="E230" t="s">
+        <v>60</v>
+      </c>
+      <c r="F230" t="s">
+        <v>61</v>
+      </c>
+      <c r="G230" t="s">
+        <v>267</v>
+      </c>
+      <c r="H230" t="s">
+        <v>89</v>
+      </c>
+      <c r="I230" t="s">
+        <v>64</v>
+      </c>
+      <c r="J230" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="E231" t="s">
+        <v>60</v>
+      </c>
+      <c r="F231" t="s">
+        <v>61</v>
+      </c>
+      <c r="G231" t="s">
+        <v>267</v>
+      </c>
+      <c r="H231" t="s">
+        <v>338</v>
+      </c>
+      <c r="I231" t="s">
+        <v>68</v>
+      </c>
+      <c r="J231" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="E232" t="s">
+        <v>60</v>
+      </c>
+      <c r="F232" t="s">
+        <v>61</v>
+      </c>
+      <c r="G232" t="s">
+        <v>267</v>
+      </c>
+      <c r="H232" t="s">
+        <v>338</v>
+      </c>
+      <c r="I232" t="s">
+        <v>64</v>
+      </c>
+      <c r="J232" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="E233" t="s">
+        <v>60</v>
+      </c>
+      <c r="F233" t="s">
+        <v>61</v>
+      </c>
+      <c r="G233" t="s">
+        <v>267</v>
+      </c>
+      <c r="H233" t="s">
+        <v>341</v>
+      </c>
+      <c r="I233" t="s">
+        <v>68</v>
+      </c>
+      <c r="J233" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="E234" t="s">
+        <v>60</v>
+      </c>
+      <c r="F234" t="s">
+        <v>61</v>
+      </c>
+      <c r="G234" t="s">
+        <v>267</v>
+      </c>
+      <c r="H234" t="s">
+        <v>341</v>
+      </c>
+      <c r="I234" t="s">
+        <v>64</v>
+      </c>
+      <c r="J234" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="E235" t="s">
+        <v>60</v>
+      </c>
+      <c r="F235" t="s">
+        <v>61</v>
+      </c>
+      <c r="G235" t="s">
+        <v>267</v>
+      </c>
+      <c r="H235" t="s">
+        <v>344</v>
+      </c>
+      <c r="I235" t="s">
+        <v>68</v>
+      </c>
+      <c r="J235" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="E236" t="s">
+        <v>60</v>
+      </c>
+      <c r="F236" t="s">
+        <v>61</v>
+      </c>
+      <c r="G236" t="s">
+        <v>267</v>
+      </c>
+      <c r="H236" t="s">
+        <v>344</v>
+      </c>
+      <c r="I236" t="s">
+        <v>64</v>
+      </c>
+      <c r="J236" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="E237" t="s">
+        <v>60</v>
+      </c>
+      <c r="F237" t="s">
+        <v>61</v>
+      </c>
+      <c r="G237" t="s">
         <v>346</v>
       </c>
-      <c r="H219" t="s">
+      <c r="H237" t="s">
         <v>347</v>
       </c>
-      <c r="I219" t="s">
-        <v>64</v>
-      </c>
-      <c r="J219" t="s">
+      <c r="I237" t="s">
+        <v>68</v>
+      </c>
+      <c r="J237" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="E238" t="s">
+        <v>60</v>
+      </c>
+      <c r="F238" t="s">
+        <v>61</v>
+      </c>
+      <c r="G238" t="s">
+        <v>346</v>
+      </c>
+      <c r="H238" t="s">
+        <v>347</v>
+      </c>
+      <c r="I238" t="s">
+        <v>64</v>
+      </c>
+      <c r="J238" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="E239" t="s">
+        <v>60</v>
+      </c>
+      <c r="F239" t="s">
+        <v>61</v>
+      </c>
+      <c r="G239" t="s">
+        <v>346</v>
+      </c>
+      <c r="H239" t="s">
         <v>349</v>
+      </c>
+      <c r="I239" t="s">
+        <v>68</v>
+      </c>
+      <c r="J239" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="E240" t="s">
+        <v>60</v>
+      </c>
+      <c r="F240" t="s">
+        <v>61</v>
+      </c>
+      <c r="G240" t="s">
+        <v>346</v>
+      </c>
+      <c r="H240" t="s">
+        <v>349</v>
+      </c>
+      <c r="I240" t="s">
+        <v>64</v>
+      </c>
+      <c r="J240" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="E241" t="s">
+        <v>60</v>
+      </c>
+      <c r="F241" t="s">
+        <v>61</v>
+      </c>
+      <c r="G241" t="s">
+        <v>346</v>
+      </c>
+      <c r="H241" t="s">
+        <v>351</v>
+      </c>
+      <c r="I241" t="s">
+        <v>68</v>
+      </c>
+      <c r="J241" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="E242" t="s">
+        <v>60</v>
+      </c>
+      <c r="F242" t="s">
+        <v>61</v>
+      </c>
+      <c r="G242" t="s">
+        <v>346</v>
+      </c>
+      <c r="H242" t="s">
+        <v>351</v>
+      </c>
+      <c r="I242" t="s">
+        <v>64</v>
+      </c>
+      <c r="J242" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="E243" t="s">
+        <v>60</v>
+      </c>
+      <c r="F243" t="s">
+        <v>61</v>
+      </c>
+      <c r="G243" t="s">
+        <v>346</v>
+      </c>
+      <c r="H243" t="s">
+        <v>353</v>
+      </c>
+      <c r="I243" t="s">
+        <v>68</v>
+      </c>
+      <c r="J243" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="E244" t="s">
+        <v>60</v>
+      </c>
+      <c r="F244" t="s">
+        <v>61</v>
+      </c>
+      <c r="G244" t="s">
+        <v>346</v>
+      </c>
+      <c r="H244" t="s">
+        <v>353</v>
+      </c>
+      <c r="I244" t="s">
+        <v>64</v>
+      </c>
+      <c r="J244" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="E245" t="s">
+        <v>60</v>
+      </c>
+      <c r="F245" t="s">
+        <v>61</v>
+      </c>
+      <c r="G245" t="s">
+        <v>346</v>
+      </c>
+      <c r="H245" t="s">
+        <v>354</v>
+      </c>
+      <c r="I245" t="s">
+        <v>68</v>
+      </c>
+      <c r="J245" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="E246" t="s">
+        <v>60</v>
+      </c>
+      <c r="F246" t="s">
+        <v>61</v>
+      </c>
+      <c r="G246" t="s">
+        <v>346</v>
+      </c>
+      <c r="H246" t="s">
+        <v>354</v>
+      </c>
+      <c r="I246" t="s">
+        <v>64</v>
+      </c>
+      <c r="J246" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="E247" t="s">
+        <v>60</v>
+      </c>
+      <c r="F247" t="s">
+        <v>61</v>
+      </c>
+      <c r="G247" t="s">
+        <v>346</v>
+      </c>
+      <c r="H247" t="s">
+        <v>356</v>
+      </c>
+      <c r="I247" t="s">
+        <v>68</v>
+      </c>
+      <c r="J247" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="E248" t="s">
+        <v>60</v>
+      </c>
+      <c r="F248" t="s">
+        <v>61</v>
+      </c>
+      <c r="G248" t="s">
+        <v>346</v>
+      </c>
+      <c r="H248" t="s">
+        <v>356</v>
+      </c>
+      <c r="I248" t="s">
+        <v>64</v>
+      </c>
+      <c r="J248" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="E249" t="s">
+        <v>60</v>
+      </c>
+      <c r="F249" t="s">
+        <v>61</v>
+      </c>
+      <c r="G249" t="s">
+        <v>346</v>
+      </c>
+      <c r="H249" t="s">
+        <v>358</v>
+      </c>
+      <c r="I249" t="s">
+        <v>68</v>
+      </c>
+      <c r="J249" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="E250" t="s">
+        <v>60</v>
+      </c>
+      <c r="F250" t="s">
+        <v>61</v>
+      </c>
+      <c r="G250" t="s">
+        <v>346</v>
+      </c>
+      <c r="H250" t="s">
+        <v>358</v>
+      </c>
+      <c r="I250" t="s">
+        <v>64</v>
+      </c>
+      <c r="J250" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="E251" t="s">
+        <v>60</v>
+      </c>
+      <c r="F251" t="s">
+        <v>61</v>
+      </c>
+      <c r="G251" t="s">
+        <v>346</v>
+      </c>
+      <c r="H251" t="s">
+        <v>360</v>
+      </c>
+      <c r="I251" t="s">
+        <v>68</v>
+      </c>
+      <c r="J251" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="E252" t="s">
+        <v>60</v>
+      </c>
+      <c r="F252" t="s">
+        <v>61</v>
+      </c>
+      <c r="G252" t="s">
+        <v>346</v>
+      </c>
+      <c r="H252" t="s">
+        <v>360</v>
+      </c>
+      <c r="I252" t="s">
+        <v>64</v>
+      </c>
+      <c r="J252" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="E253" t="s">
+        <v>60</v>
+      </c>
+      <c r="F253" t="s">
+        <v>61</v>
+      </c>
+      <c r="G253" t="s">
+        <v>346</v>
+      </c>
+      <c r="H253" t="s">
+        <v>362</v>
+      </c>
+      <c r="I253" t="s">
+        <v>68</v>
+      </c>
+      <c r="J253" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="E254" t="s">
+        <v>60</v>
+      </c>
+      <c r="F254" t="s">
+        <v>61</v>
+      </c>
+      <c r="G254" t="s">
+        <v>346</v>
+      </c>
+      <c r="H254" t="s">
+        <v>362</v>
+      </c>
+      <c r="I254" t="s">
+        <v>64</v>
+      </c>
+      <c r="J254" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="E255" t="s">
+        <v>60</v>
+      </c>
+      <c r="F255" t="s">
+        <v>61</v>
+      </c>
+      <c r="G255" t="s">
+        <v>346</v>
+      </c>
+      <c r="H255" t="s">
+        <v>364</v>
+      </c>
+      <c r="I255" t="s">
+        <v>68</v>
+      </c>
+      <c r="J255" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="E256" t="s">
+        <v>60</v>
+      </c>
+      <c r="F256" t="s">
+        <v>61</v>
+      </c>
+      <c r="G256" t="s">
+        <v>346</v>
+      </c>
+      <c r="H256" t="s">
+        <v>364</v>
+      </c>
+      <c r="I256" t="s">
+        <v>64</v>
+      </c>
+      <c r="J256" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="E257" t="s">
+        <v>60</v>
+      </c>
+      <c r="F257" t="s">
+        <v>61</v>
+      </c>
+      <c r="G257" t="s">
+        <v>346</v>
+      </c>
+      <c r="H257" t="s">
+        <v>366</v>
+      </c>
+      <c r="I257" t="s">
+        <v>68</v>
+      </c>
+      <c r="J257" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="E258" t="s">
+        <v>60</v>
+      </c>
+      <c r="F258" t="s">
+        <v>61</v>
+      </c>
+      <c r="G258" t="s">
+        <v>346</v>
+      </c>
+      <c r="H258" t="s">
+        <v>366</v>
+      </c>
+      <c r="I258" t="s">
+        <v>64</v>
+      </c>
+      <c r="J258" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="E259" t="s">
+        <v>60</v>
+      </c>
+      <c r="F259" t="s">
+        <v>61</v>
+      </c>
+      <c r="G259" t="s">
+        <v>346</v>
+      </c>
+      <c r="H259" t="s">
+        <v>368</v>
+      </c>
+      <c r="I259" t="s">
+        <v>68</v>
+      </c>
+      <c r="J259" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="E260" t="s">
+        <v>60</v>
+      </c>
+      <c r="F260" t="s">
+        <v>61</v>
+      </c>
+      <c r="G260" t="s">
+        <v>346</v>
+      </c>
+      <c r="H260" t="s">
+        <v>368</v>
+      </c>
+      <c r="I260" t="s">
+        <v>64</v>
+      </c>
+      <c r="J260" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="E261" t="s">
+        <v>60</v>
+      </c>
+      <c r="F261" t="s">
+        <v>61</v>
+      </c>
+      <c r="G261" t="s">
+        <v>346</v>
+      </c>
+      <c r="H261" t="s">
+        <v>370</v>
+      </c>
+      <c r="I261" t="s">
+        <v>68</v>
+      </c>
+      <c r="J261" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="E262" t="s">
+        <v>60</v>
+      </c>
+      <c r="F262" t="s">
+        <v>61</v>
+      </c>
+      <c r="G262" t="s">
+        <v>346</v>
+      </c>
+      <c r="H262" t="s">
+        <v>370</v>
+      </c>
+      <c r="I262" t="s">
+        <v>64</v>
+      </c>
+      <c r="J262" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="E263" t="s">
+        <v>60</v>
+      </c>
+      <c r="F263" t="s">
+        <v>61</v>
+      </c>
+      <c r="G263" t="s">
+        <v>346</v>
+      </c>
+      <c r="H263" t="s">
+        <v>371</v>
+      </c>
+      <c r="I263" t="s">
+        <v>68</v>
+      </c>
+      <c r="J263" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="E264" t="s">
+        <v>60</v>
+      </c>
+      <c r="F264" t="s">
+        <v>61</v>
+      </c>
+      <c r="G264" t="s">
+        <v>346</v>
+      </c>
+      <c r="H264" t="s">
+        <v>371</v>
+      </c>
+      <c r="I264" t="s">
+        <v>64</v>
+      </c>
+      <c r="J264" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="E265" t="s">
+        <v>60</v>
+      </c>
+      <c r="F265" t="s">
+        <v>61</v>
+      </c>
+      <c r="G265" t="s">
+        <v>346</v>
+      </c>
+      <c r="H265" t="s">
+        <v>372</v>
+      </c>
+      <c r="I265" t="s">
+        <v>68</v>
+      </c>
+      <c r="J265" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="E266" t="s">
+        <v>60</v>
+      </c>
+      <c r="F266" t="s">
+        <v>61</v>
+      </c>
+      <c r="G266" t="s">
+        <v>346</v>
+      </c>
+      <c r="H266" t="s">
+        <v>372</v>
+      </c>
+      <c r="I266" t="s">
+        <v>64</v>
+      </c>
+      <c r="J266" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="E267" t="s">
+        <v>60</v>
+      </c>
+      <c r="F267" t="s">
+        <v>61</v>
+      </c>
+      <c r="G267" t="s">
+        <v>346</v>
+      </c>
+      <c r="H267" t="s">
+        <v>374</v>
+      </c>
+      <c r="I267" t="s">
+        <v>68</v>
+      </c>
+      <c r="J267" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="E268" t="s">
+        <v>60</v>
+      </c>
+      <c r="F268" t="s">
+        <v>61</v>
+      </c>
+      <c r="G268" t="s">
+        <v>346</v>
+      </c>
+      <c r="H268" t="s">
+        <v>374</v>
+      </c>
+      <c r="I268" t="s">
+        <v>64</v>
+      </c>
+      <c r="J268" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="E269" t="s">
+        <v>60</v>
+      </c>
+      <c r="F269" t="s">
+        <v>61</v>
+      </c>
+      <c r="G269" t="s">
+        <v>346</v>
+      </c>
+      <c r="H269" t="s">
+        <v>376</v>
+      </c>
+      <c r="I269" t="s">
+        <v>68</v>
+      </c>
+      <c r="J269" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="E270" t="s">
+        <v>60</v>
+      </c>
+      <c r="F270" t="s">
+        <v>61</v>
+      </c>
+      <c r="G270" t="s">
+        <v>346</v>
+      </c>
+      <c r="H270" t="s">
+        <v>376</v>
+      </c>
+      <c r="I270" t="s">
+        <v>64</v>
+      </c>
+      <c r="J270" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="E271" t="s">
+        <v>60</v>
+      </c>
+      <c r="F271" t="s">
+        <v>61</v>
+      </c>
+      <c r="G271" t="s">
+        <v>346</v>
+      </c>
+      <c r="H271" t="s">
+        <v>378</v>
+      </c>
+      <c r="I271" t="s">
+        <v>68</v>
+      </c>
+      <c r="J271" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="E272" t="s">
+        <v>60</v>
+      </c>
+      <c r="F272" t="s">
+        <v>61</v>
+      </c>
+      <c r="G272" t="s">
+        <v>346</v>
+      </c>
+      <c r="H272" t="s">
+        <v>378</v>
+      </c>
+      <c r="I272" t="s">
+        <v>64</v>
+      </c>
+      <c r="J272" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="E273" t="s">
+        <v>60</v>
+      </c>
+      <c r="F273" t="s">
+        <v>61</v>
+      </c>
+      <c r="G273" t="s">
+        <v>346</v>
+      </c>
+      <c r="H273" t="s">
+        <v>380</v>
+      </c>
+      <c r="I273" t="s">
+        <v>68</v>
+      </c>
+      <c r="J273" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="E274" t="s">
+        <v>60</v>
+      </c>
+      <c r="F274" t="s">
+        <v>61</v>
+      </c>
+      <c r="G274" t="s">
+        <v>346</v>
+      </c>
+      <c r="H274" t="s">
+        <v>380</v>
+      </c>
+      <c r="I274" t="s">
+        <v>64</v>
+      </c>
+      <c r="J274" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="E275" t="s">
+        <v>60</v>
+      </c>
+      <c r="F275" t="s">
+        <v>61</v>
+      </c>
+      <c r="G275" t="s">
+        <v>346</v>
+      </c>
+      <c r="H275" t="s">
+        <v>382</v>
+      </c>
+      <c r="I275" t="s">
+        <v>68</v>
+      </c>
+      <c r="J275" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="E276" t="s">
+        <v>60</v>
+      </c>
+      <c r="F276" t="s">
+        <v>61</v>
+      </c>
+      <c r="G276" t="s">
+        <v>346</v>
+      </c>
+      <c r="H276" t="s">
+        <v>382</v>
+      </c>
+      <c r="I276" t="s">
+        <v>64</v>
+      </c>
+      <c r="J276" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="E277" t="s">
+        <v>60</v>
+      </c>
+      <c r="F277" t="s">
+        <v>61</v>
+      </c>
+      <c r="G277" t="s">
+        <v>346</v>
+      </c>
+      <c r="H277" t="s">
+        <v>384</v>
+      </c>
+      <c r="I277" t="s">
+        <v>68</v>
+      </c>
+      <c r="J277" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="E278" t="s">
+        <v>60</v>
+      </c>
+      <c r="F278" t="s">
+        <v>61</v>
+      </c>
+      <c r="G278" t="s">
+        <v>346</v>
+      </c>
+      <c r="H278" t="s">
+        <v>384</v>
+      </c>
+      <c r="I278" t="s">
+        <v>64</v>
+      </c>
+      <c r="J278" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="E279" t="s">
+        <v>60</v>
+      </c>
+      <c r="F279" t="s">
+        <v>61</v>
+      </c>
+      <c r="G279" t="s">
+        <v>346</v>
+      </c>
+      <c r="H279" t="s">
+        <v>386</v>
+      </c>
+      <c r="I279" t="s">
+        <v>68</v>
+      </c>
+      <c r="J279" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="E280" t="s">
+        <v>60</v>
+      </c>
+      <c r="F280" t="s">
+        <v>61</v>
+      </c>
+      <c r="G280" t="s">
+        <v>346</v>
+      </c>
+      <c r="H280" t="s">
+        <v>386</v>
+      </c>
+      <c r="I280" t="s">
+        <v>64</v>
+      </c>
+      <c r="J280" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="E281" t="s">
+        <v>60</v>
+      </c>
+      <c r="F281" t="s">
+        <v>61</v>
+      </c>
+      <c r="G281" t="s">
+        <v>346</v>
+      </c>
+      <c r="H281" t="s">
+        <v>220</v>
+      </c>
+      <c r="I281" t="s">
+        <v>68</v>
+      </c>
+      <c r="J281" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="E282" t="s">
+        <v>60</v>
+      </c>
+      <c r="F282" t="s">
+        <v>61</v>
+      </c>
+      <c r="G282" t="s">
+        <v>346</v>
+      </c>
+      <c r="H282" t="s">
+        <v>220</v>
+      </c>
+      <c r="I282" t="s">
+        <v>64</v>
+      </c>
+      <c r="J282" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="E283" t="s">
+        <v>60</v>
+      </c>
+      <c r="F283" t="s">
+        <v>61</v>
+      </c>
+      <c r="G283" t="s">
+        <v>346</v>
+      </c>
+      <c r="H283" t="s">
+        <v>389</v>
+      </c>
+      <c r="I283" t="s">
+        <v>68</v>
+      </c>
+      <c r="J283" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="E284" t="s">
+        <v>60</v>
+      </c>
+      <c r="F284" t="s">
+        <v>61</v>
+      </c>
+      <c r="G284" t="s">
+        <v>346</v>
+      </c>
+      <c r="H284" t="s">
+        <v>389</v>
+      </c>
+      <c r="I284" t="s">
+        <v>64</v>
+      </c>
+      <c r="J284" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="E285" t="s">
+        <v>60</v>
+      </c>
+      <c r="F285" t="s">
+        <v>61</v>
+      </c>
+      <c r="G285" t="s">
+        <v>346</v>
+      </c>
+      <c r="H285" t="s">
+        <v>391</v>
+      </c>
+      <c r="I285" t="s">
+        <v>68</v>
+      </c>
+      <c r="J285" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="E286" t="s">
+        <v>60</v>
+      </c>
+      <c r="F286" t="s">
+        <v>61</v>
+      </c>
+      <c r="G286" t="s">
+        <v>346</v>
+      </c>
+      <c r="H286" t="s">
+        <v>391</v>
+      </c>
+      <c r="I286" t="s">
+        <v>64</v>
+      </c>
+      <c r="J286" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="E287" t="s">
+        <v>60</v>
+      </c>
+      <c r="F287" t="s">
+        <v>61</v>
+      </c>
+      <c r="G287" t="s">
+        <v>346</v>
+      </c>
+      <c r="H287" t="s">
+        <v>393</v>
+      </c>
+      <c r="I287" t="s">
+        <v>68</v>
+      </c>
+      <c r="J287" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="E288" t="s">
+        <v>60</v>
+      </c>
+      <c r="F288" t="s">
+        <v>61</v>
+      </c>
+      <c r="G288" t="s">
+        <v>346</v>
+      </c>
+      <c r="H288" t="s">
+        <v>393</v>
+      </c>
+      <c r="I288" t="s">
+        <v>64</v>
+      </c>
+      <c r="J288" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="E289" t="s">
+        <v>60</v>
+      </c>
+      <c r="F289" t="s">
+        <v>61</v>
+      </c>
+      <c r="G289" t="s">
+        <v>346</v>
+      </c>
+      <c r="H289" t="s">
+        <v>395</v>
+      </c>
+      <c r="I289" t="s">
+        <v>68</v>
+      </c>
+      <c r="J289" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="E290" t="s">
+        <v>60</v>
+      </c>
+      <c r="F290" t="s">
+        <v>61</v>
+      </c>
+      <c r="G290" t="s">
+        <v>346</v>
+      </c>
+      <c r="H290" t="s">
+        <v>395</v>
+      </c>
+      <c r="I290" t="s">
+        <v>64</v>
+      </c>
+      <c r="J290" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="E291" t="s">
+        <v>60</v>
+      </c>
+      <c r="F291" t="s">
+        <v>61</v>
+      </c>
+      <c r="G291" t="s">
+        <v>397</v>
+      </c>
+      <c r="H291" t="s">
+        <v>398</v>
+      </c>
+      <c r="I291" t="s">
+        <v>68</v>
+      </c>
+      <c r="J291" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="E292" t="s">
+        <v>60</v>
+      </c>
+      <c r="F292" t="s">
+        <v>61</v>
+      </c>
+      <c r="G292" t="s">
+        <v>397</v>
+      </c>
+      <c r="H292" t="s">
+        <v>398</v>
+      </c>
+      <c r="I292" t="s">
+        <v>64</v>
+      </c>
+      <c r="J292" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_file/hzero_platform/hzero-prompt.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_file/hzero_platform/hzero-prompt.xlsx
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-06</t>
+    <t>2020-09-11</t>
   </si>
   <si>
     <t>hzero</t>

--- a/src/main/resources/script/db/init-data/hzero_file/hzero_platform/hzero-prompt.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_file/hzero_platform/hzero-prompt.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2399" uniqueCount="450">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-11</t>
+    <t>2021-02-20</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2025,6 +2025,12 @@
     <t>description</t>
   </si>
   <si>
+    <t>last_update_date</t>
+  </si>
+  <si>
+    <t>last_updated_by</t>
+  </si>
+  <si>
     <t>*</t>
   </si>
   <si>
@@ -2037,6 +2043,18 @@
     <t>validation.notChange</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
+    <t>Not changed</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
     <t>zh_CN</t>
   </si>
   <si>
@@ -2049,9 +2067,6 @@
     <t>model.editLog.changeDate</t>
   </si>
   <si>
-    <t>en_US</t>
-  </si>
-  <si>
     <t>Submission time</t>
   </si>
   <si>
@@ -2127,36 +2142,54 @@
     <t>modal.fileAggregate.attachmentUuid</t>
   </si>
   <si>
+    <t>Batch number</t>
+  </si>
+  <si>
     <t>批号</t>
   </si>
   <si>
     <t>modal.fileAggregate.bucketName</t>
   </si>
   <si>
+    <t>grouping</t>
+  </si>
+  <si>
     <t>分组</t>
   </si>
   <si>
     <t>modal.fileAggregate.creationDate</t>
   </si>
   <si>
+    <t>Creation time</t>
+  </si>
+  <si>
     <t>创建时间</t>
   </si>
   <si>
     <t>modal.fileAggregate.fileName</t>
   </si>
   <si>
+    <t>File name</t>
+  </si>
+  <si>
     <t>文件名称</t>
   </si>
   <si>
     <t>modal.fileAggregate.fileSize</t>
   </si>
   <si>
+    <t>file size</t>
+  </si>
+  <si>
     <t>文件大小</t>
   </si>
   <si>
     <t>modal.fileAggregate.fileType</t>
   </si>
   <si>
+    <t>file type</t>
+  </si>
+  <si>
     <t>文件类型</t>
   </si>
   <si>
@@ -2166,9 +2199,6 @@
     <t>model.fileAggregate.attachmentUuid</t>
   </si>
   <si>
-    <t>Batch number</t>
-  </si>
-  <si>
     <t>model.fileAggregate.bucketName</t>
   </si>
   <si>
@@ -2235,15 +2265,9 @@
     <t>model.fileAggregate.fileSize</t>
   </si>
   <si>
-    <t>file size</t>
-  </si>
-  <si>
     <t>model.fileAggregate.fileType</t>
   </si>
   <si>
-    <t>file type</t>
-  </si>
-  <si>
     <t>model.fileAggregate.hrealName</t>
   </si>
   <si>
@@ -2391,12 +2415,18 @@
     <t>modal.fileUpload.bucketName</t>
   </si>
   <si>
+    <t>File directory</t>
+  </si>
+  <si>
     <t>文件目录</t>
   </si>
   <si>
     <t>modal.fileUpload.contentType</t>
   </si>
   <si>
+    <t>Document classification</t>
+  </si>
+  <si>
     <t>文件分类</t>
   </si>
   <si>
@@ -2406,30 +2436,45 @@
     <t>modal.fileUpload.multipleFileFlag</t>
   </si>
   <si>
+    <t>Upload multiple files</t>
+  </si>
+  <si>
     <t>上传多个文件</t>
   </si>
   <si>
     <t>modal.fileUpload.redisUsedCapacity</t>
   </si>
   <si>
+    <t>Used capacity</t>
+  </si>
+  <si>
     <t>已使用容量</t>
   </si>
   <si>
     <t>modal.fileUpload.storageSize</t>
   </si>
   <si>
+    <t>File size limit</t>
+  </si>
+  <si>
     <t>文件大小限制</t>
   </si>
   <si>
     <t>modal.fileUpload.storageUnit</t>
   </si>
   <si>
+    <t>File size unit</t>
+  </si>
+  <si>
     <t>文件大小单位</t>
   </si>
   <si>
     <t>modal.fileUpload.totalCapacity</t>
   </si>
   <si>
+    <t>Maximum capacity</t>
+  </si>
+  <si>
     <t>最大容量</t>
   </si>
   <si>
@@ -2439,9 +2484,6 @@
     <t>model.fileUpload.contentType</t>
   </si>
   <si>
-    <t>Document classification</t>
-  </si>
-  <si>
     <t>model.fileUpload.directory</t>
   </si>
   <si>
@@ -2460,9 +2502,6 @@
     <t>model.fileUpload.redisUsedCapacity</t>
   </si>
   <si>
-    <t>Used capacity</t>
-  </si>
-  <si>
     <t>model.fileUpload.storageSize</t>
   </si>
   <si>
@@ -2478,9 +2517,6 @@
     <t>model.fileUpload.totalCapacity</t>
   </si>
   <si>
-    <t>Maximum capacity</t>
-  </si>
-  <si>
     <t>view.button.add</t>
   </si>
   <si>
@@ -2493,6 +2529,9 @@
     <t>view.message.bucketName.validate</t>
   </si>
   <si>
+    <t>It consists of lowercase letters and underscores</t>
+  </si>
+  <si>
     <t>以小写字母和下划线组成</t>
   </si>
   <si>
@@ -2517,6 +2556,9 @@
     <t>view.message.removeFileUpload</t>
   </si>
   <si>
+    <t>Are you sure to delete this record?</t>
+  </si>
+  <si>
     <t>确认删除此条记录？</t>
   </si>
   <si>
@@ -2769,6 +2811,9 @@
     <t>model.storage.storageRoute</t>
   </si>
   <si>
+    <t>Storage path</t>
+  </si>
+  <si>
     <t>存储路径</t>
   </si>
   <si>
@@ -2841,6 +2886,9 @@
     <t>view.message.storageType.qiniu</t>
   </si>
   <si>
+    <t>Seven cattle cloud</t>
+  </si>
+  <si>
     <t>七牛云</t>
   </si>
   <si>
@@ -2880,157 +2928,256 @@
     <t>view.validation.notChange</t>
   </si>
   <si>
-    <t>Not changed</t>
-  </si>
-  <si>
     <t>hfile.waterMark</t>
   </si>
   <si>
     <t>model.waterMark.align</t>
   </si>
   <si>
+    <t>Alignment</t>
+  </si>
+  <si>
     <t>对齐方式</t>
   </si>
   <si>
     <t>model.waterMark.code</t>
   </si>
   <si>
+    <t>code</t>
+  </si>
+  <si>
     <t>编码</t>
   </si>
   <si>
     <t>model.waterMark.color</t>
   </si>
   <si>
+    <t>color</t>
+  </si>
+  <si>
     <t>色彩</t>
   </si>
   <si>
+    <t>model.waterMark.companyName</t>
+  </si>
+  <si>
+    <t>公司</t>
+  </si>
+  <si>
     <t>model.waterMark.description</t>
   </si>
   <si>
     <t>model.waterMark.detail</t>
   </si>
   <si>
+    <t>Watermark content</t>
+  </si>
+  <si>
     <t>水印内容</t>
   </si>
   <si>
     <t>model.waterMark.enabledFlag</t>
   </si>
   <si>
+    <t>Enable identity</t>
+  </si>
+  <si>
     <t>启用标识</t>
   </si>
   <si>
     <t>model.waterMark.fillOpacity</t>
   </si>
   <si>
+    <t>transparency</t>
+  </si>
+  <si>
     <t>透明度</t>
   </si>
   <si>
     <t>model.waterMark.fontSize</t>
   </si>
   <si>
+    <t>font size</t>
+  </si>
+  <si>
     <t>字体大小</t>
   </si>
   <si>
     <t>model.waterMark.fontUrl</t>
   </si>
   <si>
+    <t>Font file</t>
+  </si>
+  <si>
     <t>字体文件</t>
   </si>
   <si>
     <t>model.waterMark.height</t>
   </si>
   <si>
+    <t>Picture height</t>
+  </si>
+  <si>
     <t>图片高度</t>
   </si>
   <si>
+    <t>model.waterMark.preVariableFormat</t>
+  </si>
+  <si>
+    <t>Built-in variable format: {variable name}; supported variables: user name {userName}; mailbox {email}; mobile phone number {phone}; tenant {tenantName}; custom variable format {additionInfo.variable name}</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>内置变量格式：{变量名}；支持的变量：用户名{userName}；邮箱{email}；手机号{phone}；租户{tenantName}；自定义变量格式{additionInfo.变量名}</t>
+  </si>
+  <si>
     <t>model.waterMark.requireFont</t>
   </si>
   <si>
+    <t>When the watermark content contains Chinese, you need to specify a font file</t>
+  </si>
+  <si>
     <t>水印内容包含中文时，需要指定字体文件</t>
   </si>
   <si>
     <t>model.waterMark.rotation</t>
   </si>
   <si>
+    <t>Tilt angle</t>
+  </si>
+  <si>
     <t>倾斜角度</t>
   </si>
   <si>
     <t>model.waterMark.tenantId</t>
   </si>
   <si>
+    <t>tenant</t>
+  </si>
+  <si>
     <t>model.waterMark.watermarkCode</t>
   </si>
   <si>
     <t>model.waterMark.watermarkType</t>
   </si>
   <si>
+    <t>Watermark Type</t>
+  </si>
+  <si>
     <t>水印类型</t>
   </si>
   <si>
     <t>model.waterMark.weight</t>
   </si>
   <si>
+    <t>image width</t>
+  </si>
+  <si>
     <t>图片宽度</t>
   </si>
   <si>
     <t>model.waterMark.xAxis</t>
   </si>
   <si>
+    <t>Abscissa</t>
+  </si>
+  <si>
     <t>横坐标</t>
   </si>
   <si>
     <t>model.waterMark.xMargin</t>
   </si>
   <si>
+    <t>Lateral spacing</t>
+  </si>
+  <si>
     <t>横向间距</t>
   </si>
   <si>
     <t>model.waterMark.yAxis</t>
   </si>
   <si>
+    <t>Ordinate</t>
+  </si>
+  <si>
     <t>纵坐标</t>
   </si>
   <si>
     <t>model.waterMark.yMargin</t>
   </si>
   <si>
+    <t>Longitudinal spacing</t>
+  </si>
+  <si>
     <t>纵向间距</t>
   </si>
   <si>
     <t>view.message.alert.contentRequired</t>
   </si>
   <si>
+    <t>Please upload watermark content</t>
+  </si>
+  <si>
     <t>请上传水印内容</t>
   </si>
   <si>
     <t>view.message.crete</t>
   </si>
   <si>
+    <t>New watermark configuration</t>
+  </si>
+  <si>
     <t>新建水印配置</t>
   </si>
   <si>
+    <t>Edit watermark configuration</t>
+  </si>
+  <si>
     <t>编辑水印配置</t>
   </si>
   <si>
     <t>view.message.waterMark</t>
   </si>
   <si>
+    <t>Watermark configuration</t>
+  </si>
+  <si>
     <t>水印配置</t>
   </si>
   <si>
+    <t>view.message.waterMarkConfig</t>
+  </si>
+  <si>
+    <t>File watermark configuration</t>
+  </si>
+  <si>
+    <t>文件水印配置</t>
+  </si>
+  <si>
     <t>view.waterMark.center</t>
   </si>
   <si>
+    <t>Center</t>
+  </si>
+  <si>
     <t>居中</t>
   </si>
   <si>
     <t>view.waterMark.leftAlign</t>
   </si>
   <si>
+    <t>Align left</t>
+  </si>
+  <si>
     <t>左对齐</t>
   </si>
   <si>
     <t>view.waterMark.rightAlign</t>
+  </si>
+  <si>
+    <t>Right alignment</t>
   </si>
   <si>
     <t>右对齐</t>
@@ -4040,7 +4187,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J292"/>
+  <dimension ref="A1:L299"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4102,5705 +4249,7603 @@
       <c r="J7" t="s">
         <v>59</v>
       </c>
+      <c r="K7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="K8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="K10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="K11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="K12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J13" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="K13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J14" t="s">
-        <v>76</v>
+        <v>80</v>
+      </c>
+      <c r="K14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J15" t="s">
-        <v>78</v>
+        <v>81</v>
+      </c>
+      <c r="K15" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H16" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J16" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="K16" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G17" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J17" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="K17" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H18" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J18" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+      <c r="K18" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J19" t="s">
-        <v>84</v>
+        <v>87</v>
+      </c>
+      <c r="K19" t="s">
+        <v>68</v>
+      </c>
+      <c r="L19" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J20" t="s">
-        <v>85</v>
+        <v>89</v>
+      </c>
+      <c r="K20" t="s">
+        <v>68</v>
+      </c>
+      <c r="L20" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G21" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J21" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="K21" t="s">
+        <v>68</v>
+      </c>
+      <c r="L21" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H22" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J22" t="s">
-        <v>88</v>
+        <v>92</v>
+      </c>
+      <c r="K22" t="s">
+        <v>68</v>
+      </c>
+      <c r="L22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J23" t="s">
-        <v>90</v>
+        <v>93</v>
+      </c>
+      <c r="K23" t="s">
+        <v>68</v>
+      </c>
+      <c r="L23" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G24" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H24" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J24" t="s">
-        <v>91</v>
+        <v>95</v>
+      </c>
+      <c r="K24" t="s">
+        <v>68</v>
+      </c>
+      <c r="L24" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="H25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J25" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="K25" t="s">
+        <v>68</v>
+      </c>
+      <c r="L25" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G26" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H26" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J26" t="s">
-        <v>94</v>
+        <v>99</v>
+      </c>
+      <c r="K26" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G27" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H27" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J27" t="s">
-        <v>96</v>
+        <v>100</v>
+      </c>
+      <c r="K27" t="s">
+        <v>68</v>
+      </c>
+      <c r="L27" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H28" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="I28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J28" t="s">
-        <v>96</v>
+        <v>102</v>
+      </c>
+      <c r="K28" t="s">
+        <v>68</v>
+      </c>
+      <c r="L28" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G29" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H29" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J29" t="s">
-        <v>98</v>
+        <v>103</v>
+      </c>
+      <c r="K29" t="s">
+        <v>68</v>
+      </c>
+      <c r="L29" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G30" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H30" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J30" t="s">
-        <v>98</v>
+        <v>105</v>
+      </c>
+      <c r="K30" t="s">
+        <v>68</v>
+      </c>
+      <c r="L30" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G31" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H31" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J31" t="s">
-        <v>100</v>
+        <v>106</v>
+      </c>
+      <c r="K31" t="s">
+        <v>68</v>
+      </c>
+      <c r="L31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G32" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H32" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="I32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J32" t="s">
-        <v>100</v>
+        <v>108</v>
+      </c>
+      <c r="K32" t="s">
+        <v>68</v>
+      </c>
+      <c r="L32" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G33" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H33" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J33" t="s">
-        <v>102</v>
+        <v>109</v>
+      </c>
+      <c r="K33" t="s">
+        <v>68</v>
+      </c>
+      <c r="L33" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G34" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H34" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="I34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J34" t="s">
-        <v>102</v>
+        <v>111</v>
+      </c>
+      <c r="K34" t="s">
+        <v>68</v>
+      </c>
+      <c r="L34" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G35" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H35" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="I35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J35" t="s">
-        <v>104</v>
+        <v>112</v>
+      </c>
+      <c r="K35" t="s">
+        <v>68</v>
+      </c>
+      <c r="L35" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G36" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H36" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="I36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J36" t="s">
-        <v>104</v>
+        <v>114</v>
+      </c>
+      <c r="K36" t="s">
+        <v>68</v>
+      </c>
+      <c r="L36" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G37" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H37" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="I37" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J37" t="s">
-        <v>94</v>
+        <v>115</v>
+      </c>
+      <c r="K37" t="s">
+        <v>68</v>
+      </c>
+      <c r="L37" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G38" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H38" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="I38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J38" t="s">
-        <v>94</v>
+        <v>99</v>
+      </c>
+      <c r="K38" t="s">
+        <v>68</v>
+      </c>
+      <c r="L38" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G39" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H39" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="I39" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J39" t="s">
-        <v>107</v>
+        <v>100</v>
+      </c>
+      <c r="K39" t="s">
+        <v>68</v>
+      </c>
+      <c r="L39" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G40" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H40" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="I40" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J40" t="s">
-        <v>94</v>
+        <v>99</v>
+      </c>
+      <c r="K40" t="s">
+        <v>68</v>
+      </c>
+      <c r="L40" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G41" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H41" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="I41" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J41" t="s">
-        <v>109</v>
+        <v>100</v>
+      </c>
+      <c r="K41" t="s">
+        <v>68</v>
+      </c>
+      <c r="L41" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G42" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H42" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="I42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J42" t="s">
-        <v>96</v>
+        <v>119</v>
+      </c>
+      <c r="K42" t="s">
+        <v>68</v>
+      </c>
+      <c r="L42" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G43" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H43" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="I43" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J43" t="s">
-        <v>111</v>
+        <v>103</v>
+      </c>
+      <c r="K43" t="s">
+        <v>68</v>
+      </c>
+      <c r="L43" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G44" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H44" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="I44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J44" t="s">
-        <v>112</v>
+        <v>121</v>
+      </c>
+      <c r="K44" t="s">
+        <v>68</v>
+      </c>
+      <c r="L44" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G45" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H45" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="I45" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J45" t="s">
-        <v>114</v>
+        <v>122</v>
+      </c>
+      <c r="K45" t="s">
+        <v>68</v>
+      </c>
+      <c r="L45" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G46" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H46" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="I46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J46" t="s">
-        <v>115</v>
+        <v>124</v>
+      </c>
+      <c r="K46" t="s">
+        <v>68</v>
+      </c>
+      <c r="L46" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G47" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H47" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="I47" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J47" t="s">
-        <v>117</v>
+        <v>125</v>
+      </c>
+      <c r="K47" t="s">
+        <v>68</v>
+      </c>
+      <c r="L47" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G48" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H48" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="I48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J48" t="s">
-        <v>118</v>
+        <v>127</v>
+      </c>
+      <c r="K48" t="s">
+        <v>68</v>
+      </c>
+      <c r="L48" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G49" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H49" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="I49" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J49" t="s">
-        <v>120</v>
+        <v>128</v>
+      </c>
+      <c r="K49" t="s">
+        <v>68</v>
+      </c>
+      <c r="L49" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G50" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H50" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="I50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J50" t="s">
-        <v>121</v>
+        <v>130</v>
+      </c>
+      <c r="K50" t="s">
+        <v>68</v>
+      </c>
+      <c r="L50" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G51" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H51" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="I51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J51" t="s">
-        <v>123</v>
+        <v>131</v>
+      </c>
+      <c r="K51" t="s">
+        <v>68</v>
+      </c>
+      <c r="L51" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G52" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H52" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I52" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J52" t="s">
-        <v>124</v>
+        <v>133</v>
+      </c>
+      <c r="K52" t="s">
+        <v>68</v>
+      </c>
+      <c r="L52" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G53" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H53" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I53" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J53" t="s">
-        <v>126</v>
+        <v>134</v>
+      </c>
+      <c r="K53" t="s">
+        <v>68</v>
+      </c>
+      <c r="L53" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G54" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H54" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="I54" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J54" t="s">
-        <v>127</v>
+        <v>136</v>
+      </c>
+      <c r="K54" t="s">
+        <v>68</v>
+      </c>
+      <c r="L54" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F55" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G55" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H55" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I55" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J55" t="s">
-        <v>81</v>
+        <v>137</v>
+      </c>
+      <c r="K55" t="s">
+        <v>68</v>
+      </c>
+      <c r="L55" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F56" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G56" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H56" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="I56" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J56" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+      <c r="K56" t="s">
+        <v>68</v>
+      </c>
+      <c r="L56" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F57" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G57" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H57" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="I57" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J57" t="s">
-        <v>130</v>
+        <v>87</v>
+      </c>
+      <c r="K57" t="s">
+        <v>68</v>
+      </c>
+      <c r="L57" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F58" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G58" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H58" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="I58" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J58" t="s">
-        <v>102</v>
+        <v>111</v>
+      </c>
+      <c r="K58" t="s">
+        <v>68</v>
+      </c>
+      <c r="L58" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F59" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G59" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H59" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="I59" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J59" t="s">
-        <v>132</v>
+        <v>112</v>
+      </c>
+      <c r="K59" t="s">
+        <v>68</v>
+      </c>
+      <c r="L59" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F60" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G60" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H60" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="I60" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J60" t="s">
-        <v>104</v>
+        <v>114</v>
+      </c>
+      <c r="K60" t="s">
+        <v>68</v>
+      </c>
+      <c r="L60" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F61" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G61" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H61" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="I61" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J61" t="s">
-        <v>134</v>
+        <v>115</v>
+      </c>
+      <c r="K61" t="s">
+        <v>68</v>
+      </c>
+      <c r="L61" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F62" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G62" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H62" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="I62" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J62" t="s">
-        <v>135</v>
+        <v>142</v>
+      </c>
+      <c r="K62" t="s">
+        <v>68</v>
+      </c>
+      <c r="L62" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G63" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H63" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="I63" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J63" t="s">
-        <v>137</v>
+        <v>143</v>
+      </c>
+      <c r="K63" t="s">
+        <v>68</v>
+      </c>
+      <c r="L63" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F64" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G64" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H64" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="I64" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J64" t="s">
-        <v>138</v>
+        <v>145</v>
+      </c>
+      <c r="K64" t="s">
+        <v>68</v>
+      </c>
+      <c r="L64" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F65" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G65" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H65" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I65" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J65" t="s">
-        <v>140</v>
+        <v>146</v>
+      </c>
+      <c r="K65" t="s">
+        <v>68</v>
+      </c>
+      <c r="L65" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G66" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H66" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="I66" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J66" t="s">
-        <v>141</v>
+        <v>148</v>
+      </c>
+      <c r="K66" t="s">
+        <v>68</v>
+      </c>
+      <c r="L66" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F67" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G67" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H67" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I67" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J67" t="s">
-        <v>117</v>
+        <v>149</v>
+      </c>
+      <c r="K67" t="s">
+        <v>68</v>
+      </c>
+      <c r="L67" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G68" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H68" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="I68" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J68" t="s">
-        <v>118</v>
+        <v>127</v>
+      </c>
+      <c r="K68" t="s">
+        <v>68</v>
+      </c>
+      <c r="L68" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F69" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G69" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H69" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="I69" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J69" t="s">
-        <v>134</v>
+        <v>128</v>
+      </c>
+      <c r="K69" t="s">
+        <v>68</v>
+      </c>
+      <c r="L69" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F70" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G70" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H70" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="I70" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J70" t="s">
-        <v>135</v>
+        <v>142</v>
+      </c>
+      <c r="K70" t="s">
+        <v>68</v>
+      </c>
+      <c r="L70" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F71" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G71" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H71" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="I71" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J71" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="K71" t="s">
+        <v>68</v>
+      </c>
+      <c r="L71" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F72" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G72" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H72" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I72" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J72" t="s">
-        <v>146</v>
+        <v>153</v>
+      </c>
+      <c r="K72" t="s">
+        <v>68</v>
+      </c>
+      <c r="L72" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F73" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G73" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H73" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I73" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J73" t="s">
-        <v>148</v>
+        <v>154</v>
+      </c>
+      <c r="K73" t="s">
+        <v>68</v>
+      </c>
+      <c r="L73" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F74" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G74" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H74" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="I74" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J74" t="s">
-        <v>149</v>
+        <v>156</v>
+      </c>
+      <c r="K74" t="s">
+        <v>68</v>
+      </c>
+      <c r="L74" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F75" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G75" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H75" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I75" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J75" t="s">
-        <v>151</v>
+        <v>157</v>
+      </c>
+      <c r="K75" t="s">
+        <v>68</v>
+      </c>
+      <c r="L75" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F76" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G76" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H76" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="I76" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J76" t="s">
-        <v>152</v>
+        <v>159</v>
+      </c>
+      <c r="K76" t="s">
+        <v>68</v>
+      </c>
+      <c r="L76" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F77" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G77" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H77" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I77" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J77" t="s">
-        <v>154</v>
+        <v>160</v>
+      </c>
+      <c r="K77" t="s">
+        <v>68</v>
+      </c>
+      <c r="L77" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F78" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G78" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H78" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="I78" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J78" t="s">
-        <v>155</v>
+        <v>162</v>
+      </c>
+      <c r="K78" t="s">
+        <v>68</v>
+      </c>
+      <c r="L78" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F79" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G79" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H79" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="I79" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J79" t="s">
-        <v>87</v>
+        <v>163</v>
+      </c>
+      <c r="K79" t="s">
+        <v>68</v>
+      </c>
+      <c r="L79" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F80" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G80" t="s">
+        <v>97</v>
+      </c>
+      <c r="H80" t="s">
+        <v>164</v>
+      </c>
+      <c r="I80" t="s">
+        <v>66</v>
+      </c>
+      <c r="J80" t="s">
         <v>92</v>
       </c>
-      <c r="H80" t="s">
-        <v>156</v>
-      </c>
-      <c r="I80" t="s">
-        <v>64</v>
-      </c>
-      <c r="J80" t="s">
-        <v>88</v>
+      <c r="K80" t="s">
+        <v>68</v>
+      </c>
+      <c r="L80" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F81" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G81" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H81" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I81" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J81" t="s">
-        <v>158</v>
+        <v>93</v>
+      </c>
+      <c r="K81" t="s">
+        <v>68</v>
+      </c>
+      <c r="L81" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F82" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G82" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H82" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I82" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J82" t="s">
-        <v>159</v>
+        <v>166</v>
+      </c>
+      <c r="K82" t="s">
+        <v>68</v>
+      </c>
+      <c r="L82" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F83" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G83" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H83" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="I83" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J83" t="s">
-        <v>161</v>
+        <v>167</v>
+      </c>
+      <c r="K83" t="s">
+        <v>68</v>
+      </c>
+      <c r="L83" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F84" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G84" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H84" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="I84" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J84" t="s">
-        <v>162</v>
+        <v>169</v>
+      </c>
+      <c r="K84" t="s">
+        <v>68</v>
+      </c>
+      <c r="L84" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F85" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G85" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H85" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="I85" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J85" t="s">
-        <v>164</v>
+        <v>170</v>
+      </c>
+      <c r="K85" t="s">
+        <v>68</v>
+      </c>
+      <c r="L85" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F86" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G86" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H86" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="I86" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J86" t="s">
-        <v>165</v>
+        <v>172</v>
+      </c>
+      <c r="K86" t="s">
+        <v>68</v>
+      </c>
+      <c r="L86" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F87" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G87" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H87" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="I87" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J87" t="s">
-        <v>167</v>
+        <v>173</v>
+      </c>
+      <c r="K87" t="s">
+        <v>68</v>
+      </c>
+      <c r="L87" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F88" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G88" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H88" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="I88" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J88" t="s">
-        <v>168</v>
+        <v>175</v>
+      </c>
+      <c r="K88" t="s">
+        <v>68</v>
+      </c>
+      <c r="L88" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F89" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G89" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H89" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="I89" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J89" t="s">
-        <v>170</v>
+        <v>176</v>
+      </c>
+      <c r="K89" t="s">
+        <v>68</v>
+      </c>
+      <c r="L89" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F90" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G90" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H90" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="I90" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J90" t="s">
-        <v>171</v>
+        <v>178</v>
+      </c>
+      <c r="K90" t="s">
+        <v>68</v>
+      </c>
+      <c r="L90" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F91" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G91" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H91" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I91" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J91" t="s">
-        <v>173</v>
+        <v>179</v>
+      </c>
+      <c r="K91" t="s">
+        <v>68</v>
+      </c>
+      <c r="L91" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="92">
       <c r="E92" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F92" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G92" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H92" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="I92" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J92" t="s">
-        <v>174</v>
+        <v>181</v>
+      </c>
+      <c r="K92" t="s">
+        <v>68</v>
+      </c>
+      <c r="L92" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="93">
       <c r="E93" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F93" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G93" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H93" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="I93" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J93" t="s">
-        <v>175</v>
+        <v>182</v>
+      </c>
+      <c r="K93" t="s">
+        <v>68</v>
+      </c>
+      <c r="L93" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="94">
       <c r="E94" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F94" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G94" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H94" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I94" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J94" t="s">
-        <v>176</v>
+        <v>183</v>
+      </c>
+      <c r="K94" t="s">
+        <v>68</v>
+      </c>
+      <c r="L94" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="95">
       <c r="E95" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F95" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G95" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H95" t="s">
-        <v>177</v>
+        <v>94</v>
       </c>
       <c r="I95" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J95" t="s">
-        <v>178</v>
+        <v>184</v>
+      </c>
+      <c r="K95" t="s">
+        <v>68</v>
+      </c>
+      <c r="L95" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="96">
       <c r="E96" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F96" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G96" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H96" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="I96" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J96" t="s">
-        <v>179</v>
+        <v>186</v>
+      </c>
+      <c r="K96" t="s">
+        <v>68</v>
+      </c>
+      <c r="L96" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="97">
       <c r="E97" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F97" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G97" t="s">
-        <v>180</v>
+        <v>97</v>
       </c>
       <c r="H97" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="I97" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J97" t="s">
-        <v>182</v>
+        <v>187</v>
+      </c>
+      <c r="K97" t="s">
+        <v>68</v>
+      </c>
+      <c r="L97" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="98">
       <c r="E98" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F98" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G98" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H98" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="I98" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J98" t="s">
-        <v>182</v>
+        <v>190</v>
+      </c>
+      <c r="K98" t="s">
+        <v>68</v>
+      </c>
+      <c r="L98" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="99">
       <c r="E99" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F99" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G99" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H99" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="I99" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J99" t="s">
-        <v>184</v>
+        <v>191</v>
+      </c>
+      <c r="K99" t="s">
+        <v>68</v>
+      </c>
+      <c r="L99" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="100">
       <c r="E100" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F100" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G100" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H100" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="I100" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J100" t="s">
-        <v>184</v>
+        <v>193</v>
+      </c>
+      <c r="K100" t="s">
+        <v>68</v>
+      </c>
+      <c r="L100" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="101">
       <c r="E101" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F101" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G101" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H101" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="I101" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J101" t="s">
-        <v>121</v>
+        <v>194</v>
+      </c>
+      <c r="K101" t="s">
+        <v>68</v>
+      </c>
+      <c r="L101" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="102">
       <c r="E102" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F102" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G102" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H102" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="I102" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J102" t="s">
-        <v>121</v>
+        <v>130</v>
+      </c>
+      <c r="K102" t="s">
+        <v>68</v>
+      </c>
+      <c r="L102" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="103">
       <c r="E103" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F103" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G103" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H103" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="I103" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J103" t="s">
-        <v>187</v>
+        <v>131</v>
+      </c>
+      <c r="K103" t="s">
+        <v>68</v>
+      </c>
+      <c r="L103" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="104">
       <c r="E104" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F104" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G104" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H104" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="I104" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J104" t="s">
-        <v>187</v>
+        <v>197</v>
+      </c>
+      <c r="K104" t="s">
+        <v>68</v>
+      </c>
+      <c r="L104" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="105">
       <c r="E105" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F105" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G105" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H105" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="I105" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J105" t="s">
-        <v>189</v>
+        <v>198</v>
+      </c>
+      <c r="K105" t="s">
+        <v>68</v>
+      </c>
+      <c r="L105" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="106">
       <c r="E106" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F106" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G106" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H106" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="I106" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J106" t="s">
-        <v>189</v>
+        <v>200</v>
+      </c>
+      <c r="K106" t="s">
+        <v>68</v>
+      </c>
+      <c r="L106" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="107">
       <c r="E107" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F107" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G107" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H107" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="I107" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J107" t="s">
-        <v>191</v>
+        <v>201</v>
+      </c>
+      <c r="K107" t="s">
+        <v>68</v>
+      </c>
+      <c r="L107" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="108">
       <c r="E108" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F108" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G108" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H108" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="I108" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J108" t="s">
-        <v>191</v>
+        <v>203</v>
+      </c>
+      <c r="K108" t="s">
+        <v>68</v>
+      </c>
+      <c r="L108" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="109">
       <c r="E109" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F109" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G109" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H109" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="I109" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J109" t="s">
-        <v>193</v>
+        <v>204</v>
+      </c>
+      <c r="K109" t="s">
+        <v>68</v>
+      </c>
+      <c r="L109" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="110">
       <c r="E110" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F110" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G110" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H110" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="I110" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J110" t="s">
-        <v>193</v>
+        <v>206</v>
+      </c>
+      <c r="K110" t="s">
+        <v>68</v>
+      </c>
+      <c r="L110" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="111">
       <c r="E111" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F111" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G111" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H111" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="I111" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J111" t="s">
-        <v>195</v>
+        <v>207</v>
+      </c>
+      <c r="K111" t="s">
+        <v>68</v>
+      </c>
+      <c r="L111" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="112">
       <c r="E112" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F112" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G112" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H112" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="I112" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J112" t="s">
-        <v>195</v>
+        <v>209</v>
+      </c>
+      <c r="K112" t="s">
+        <v>68</v>
+      </c>
+      <c r="L112" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="113">
       <c r="E113" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F113" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G113" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H113" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="I113" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J113" t="s">
-        <v>109</v>
+        <v>210</v>
+      </c>
+      <c r="K113" t="s">
+        <v>68</v>
+      </c>
+      <c r="L113" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="114">
       <c r="E114" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F114" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G114" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H114" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="I114" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J114" t="s">
-        <v>96</v>
+        <v>119</v>
+      </c>
+      <c r="K114" t="s">
+        <v>68</v>
+      </c>
+      <c r="L114" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="115">
       <c r="E115" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F115" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G115" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H115" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="I115" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J115" t="s">
-        <v>198</v>
+        <v>103</v>
+      </c>
+      <c r="K115" t="s">
+        <v>68</v>
+      </c>
+      <c r="L115" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="116">
       <c r="E116" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F116" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G116" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H116" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="I116" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J116" t="s">
-        <v>184</v>
+        <v>193</v>
+      </c>
+      <c r="K116" t="s">
+        <v>68</v>
+      </c>
+      <c r="L116" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="117">
       <c r="E117" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F117" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G117" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H117" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="I117" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J117" t="s">
-        <v>117</v>
+        <v>194</v>
+      </c>
+      <c r="K117" t="s">
+        <v>68</v>
+      </c>
+      <c r="L117" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="118">
       <c r="E118" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F118" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G118" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H118" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="I118" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J118" t="s">
-        <v>118</v>
+        <v>127</v>
+      </c>
+      <c r="K118" t="s">
+        <v>68</v>
+      </c>
+      <c r="L118" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="119">
       <c r="E119" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F119" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G119" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H119" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="I119" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J119" t="s">
-        <v>120</v>
+        <v>128</v>
+      </c>
+      <c r="K119" t="s">
+        <v>68</v>
+      </c>
+      <c r="L119" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="120">
       <c r="E120" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F120" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G120" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H120" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="I120" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J120" t="s">
-        <v>121</v>
+        <v>130</v>
+      </c>
+      <c r="K120" t="s">
+        <v>68</v>
+      </c>
+      <c r="L120" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="121">
       <c r="E121" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F121" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G121" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H121" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="I121" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J121" t="s">
-        <v>202</v>
+        <v>131</v>
+      </c>
+      <c r="K121" t="s">
+        <v>68</v>
+      </c>
+      <c r="L121" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="122">
       <c r="E122" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F122" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G122" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H122" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="I122" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J122" t="s">
-        <v>203</v>
+        <v>216</v>
+      </c>
+      <c r="K122" t="s">
+        <v>68</v>
+      </c>
+      <c r="L122" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="123">
       <c r="E123" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F123" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G123" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H123" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="I123" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J123" t="s">
-        <v>205</v>
+        <v>217</v>
+      </c>
+      <c r="K123" t="s">
+        <v>68</v>
+      </c>
+      <c r="L123" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="124">
       <c r="E124" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F124" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G124" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H124" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="I124" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J124" t="s">
-        <v>189</v>
+        <v>200</v>
+      </c>
+      <c r="K124" t="s">
+        <v>68</v>
+      </c>
+      <c r="L124" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="125">
       <c r="E125" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F125" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G125" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H125" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I125" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J125" t="s">
-        <v>207</v>
+        <v>201</v>
+      </c>
+      <c r="K125" t="s">
+        <v>68</v>
+      </c>
+      <c r="L125" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="126">
       <c r="E126" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F126" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G126" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H126" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="I126" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J126" t="s">
-        <v>191</v>
+        <v>220</v>
+      </c>
+      <c r="K126" t="s">
+        <v>68</v>
+      </c>
+      <c r="L126" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="127">
       <c r="E127" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F127" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G127" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H127" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="I127" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J127" t="s">
-        <v>209</v>
+        <v>204</v>
+      </c>
+      <c r="K127" t="s">
+        <v>68</v>
+      </c>
+      <c r="L127" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="128">
       <c r="E128" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F128" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G128" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H128" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="I128" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J128" t="s">
-        <v>193</v>
+        <v>222</v>
+      </c>
+      <c r="K128" t="s">
+        <v>68</v>
+      </c>
+      <c r="L128" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="129">
       <c r="E129" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F129" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G129" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H129" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="I129" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J129" t="s">
-        <v>211</v>
+        <v>207</v>
+      </c>
+      <c r="K129" t="s">
+        <v>68</v>
+      </c>
+      <c r="L129" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="130">
       <c r="E130" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F130" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G130" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H130" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="I130" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J130" t="s">
-        <v>195</v>
+        <v>209</v>
+      </c>
+      <c r="K130" t="s">
+        <v>68</v>
+      </c>
+      <c r="L130" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="131">
       <c r="E131" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F131" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G131" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H131" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="I131" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J131" t="s">
-        <v>213</v>
+        <v>210</v>
+      </c>
+      <c r="K131" t="s">
+        <v>68</v>
+      </c>
+      <c r="L131" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="132">
       <c r="E132" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F132" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G132" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H132" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="I132" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J132" t="s">
-        <v>214</v>
+        <v>225</v>
+      </c>
+      <c r="K132" t="s">
+        <v>68</v>
+      </c>
+      <c r="L132" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="133">
       <c r="E133" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F133" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G133" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H133" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="I133" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J133" t="s">
-        <v>216</v>
+        <v>226</v>
+      </c>
+      <c r="K133" t="s">
+        <v>68</v>
+      </c>
+      <c r="L133" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="134">
       <c r="E134" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F134" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G134" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H134" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="I134" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J134" t="s">
-        <v>216</v>
+        <v>228</v>
+      </c>
+      <c r="K134" t="s">
+        <v>68</v>
+      </c>
+      <c r="L134" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="135">
       <c r="E135" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F135" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G135" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H135" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="I135" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J135" t="s">
-        <v>218</v>
+        <v>229</v>
+      </c>
+      <c r="K135" t="s">
+        <v>68</v>
+      </c>
+      <c r="L135" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="136">
       <c r="E136" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F136" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G136" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H136" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="I136" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J136" t="s">
-        <v>219</v>
+        <v>231</v>
+      </c>
+      <c r="K136" t="s">
+        <v>68</v>
+      </c>
+      <c r="L136" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="137">
       <c r="E137" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F137" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G137" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H137" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="I137" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J137" t="s">
-        <v>221</v>
+        <v>232</v>
+      </c>
+      <c r="K137" t="s">
+        <v>68</v>
+      </c>
+      <c r="L137" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="138">
       <c r="E138" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F138" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G138" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H138" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="I138" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J138" t="s">
-        <v>222</v>
+        <v>234</v>
+      </c>
+      <c r="K138" t="s">
+        <v>68</v>
+      </c>
+      <c r="L138" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="139">
       <c r="E139" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F139" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G139" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H139" t="s">
-        <v>172</v>
+        <v>233</v>
       </c>
       <c r="I139" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J139" t="s">
-        <v>173</v>
+        <v>235</v>
+      </c>
+      <c r="K139" t="s">
+        <v>68</v>
+      </c>
+      <c r="L139" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="140">
       <c r="E140" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F140" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G140" t="s">
+        <v>188</v>
+      </c>
+      <c r="H140" t="s">
         <v>180</v>
       </c>
-      <c r="H140" t="s">
-        <v>172</v>
-      </c>
       <c r="I140" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J140" t="s">
-        <v>174</v>
+        <v>181</v>
+      </c>
+      <c r="K140" t="s">
+        <v>68</v>
+      </c>
+      <c r="L140" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="141">
       <c r="E141" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F141" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G141" t="s">
+        <v>188</v>
+      </c>
+      <c r="H141" t="s">
         <v>180</v>
       </c>
-      <c r="H141" t="s">
-        <v>223</v>
-      </c>
       <c r="I141" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J141" t="s">
-        <v>224</v>
+        <v>182</v>
+      </c>
+      <c r="K141" t="s">
+        <v>68</v>
+      </c>
+      <c r="L141" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="142">
       <c r="E142" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F142" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G142" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H142" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="I142" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J142" t="s">
-        <v>224</v>
+        <v>237</v>
+      </c>
+      <c r="K142" t="s">
+        <v>68</v>
+      </c>
+      <c r="L142" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="143">
       <c r="E143" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F143" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G143" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H143" t="s">
-        <v>89</v>
+        <v>236</v>
       </c>
       <c r="I143" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J143" t="s">
-        <v>225</v>
+        <v>238</v>
+      </c>
+      <c r="K143" t="s">
+        <v>68</v>
+      </c>
+      <c r="L143" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="144">
       <c r="E144" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F144" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G144" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H144" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I144" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J144" t="s">
-        <v>226</v>
+        <v>239</v>
+      </c>
+      <c r="K144" t="s">
+        <v>68</v>
+      </c>
+      <c r="L144" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="145">
       <c r="E145" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F145" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G145" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H145" t="s">
-        <v>177</v>
+        <v>94</v>
       </c>
       <c r="I145" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J145" t="s">
-        <v>227</v>
+        <v>240</v>
+      </c>
+      <c r="K145" t="s">
+        <v>68</v>
+      </c>
+      <c r="L145" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="146">
       <c r="E146" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F146" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G146" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H146" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="I146" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J146" t="s">
-        <v>179</v>
+        <v>241</v>
+      </c>
+      <c r="K146" t="s">
+        <v>68</v>
+      </c>
+      <c r="L146" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="147">
       <c r="E147" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F147" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G147" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="H147" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="I147" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J147" t="s">
-        <v>230</v>
+        <v>187</v>
+      </c>
+      <c r="K147" t="s">
+        <v>68</v>
+      </c>
+      <c r="L147" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="148">
       <c r="E148" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F148" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G148" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="H148" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="I148" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J148" t="s">
-        <v>231</v>
+        <v>244</v>
+      </c>
+      <c r="K148" t="s">
+        <v>68</v>
+      </c>
+      <c r="L148" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="149">
       <c r="E149" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F149" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G149" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="H149" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="I149" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J149" t="s">
-        <v>233</v>
+        <v>245</v>
+      </c>
+      <c r="K149" t="s">
+        <v>68</v>
+      </c>
+      <c r="L149" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="150">
       <c r="E150" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F150" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G150" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="H150" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="I150" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J150" t="s">
-        <v>234</v>
+        <v>247</v>
+      </c>
+      <c r="K150" t="s">
+        <v>68</v>
+      </c>
+      <c r="L150" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="151">
       <c r="E151" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F151" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G151" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="H151" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="I151" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J151" t="s">
-        <v>236</v>
+        <v>248</v>
+      </c>
+      <c r="K151" t="s">
+        <v>68</v>
+      </c>
+      <c r="L151" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="152">
       <c r="E152" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F152" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G152" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="H152" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="I152" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J152" t="s">
-        <v>237</v>
+        <v>250</v>
+      </c>
+      <c r="K152" t="s">
+        <v>68</v>
+      </c>
+      <c r="L152" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="153">
       <c r="E153" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F153" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G153" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="H153" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="I153" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J153" t="s">
-        <v>239</v>
+        <v>251</v>
+      </c>
+      <c r="K153" t="s">
+        <v>68</v>
+      </c>
+      <c r="L153" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="154">
       <c r="E154" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F154" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G154" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="H154" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="I154" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J154" t="s">
-        <v>240</v>
+        <v>253</v>
+      </c>
+      <c r="K154" t="s">
+        <v>68</v>
+      </c>
+      <c r="L154" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="155">
       <c r="E155" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F155" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G155" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="H155" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="I155" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J155" t="s">
-        <v>242</v>
+        <v>254</v>
+      </c>
+      <c r="K155" t="s">
+        <v>68</v>
+      </c>
+      <c r="L155" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="156">
       <c r="E156" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F156" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G156" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="H156" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="I156" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J156" t="s">
-        <v>243</v>
+        <v>256</v>
+      </c>
+      <c r="K156" t="s">
+        <v>68</v>
+      </c>
+      <c r="L156" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="157">
       <c r="E157" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F157" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G157" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="H157" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="I157" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J157" t="s">
-        <v>245</v>
+        <v>257</v>
+      </c>
+      <c r="K157" t="s">
+        <v>68</v>
+      </c>
+      <c r="L157" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="158">
       <c r="E158" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F158" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G158" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="H158" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="I158" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J158" t="s">
-        <v>246</v>
+        <v>259</v>
+      </c>
+      <c r="K158" t="s">
+        <v>68</v>
+      </c>
+      <c r="L158" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="159">
       <c r="E159" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F159" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G159" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="H159" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="I159" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J159" t="s">
-        <v>248</v>
+        <v>260</v>
+      </c>
+      <c r="K159" t="s">
+        <v>68</v>
+      </c>
+      <c r="L159" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="160">
       <c r="E160" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F160" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G160" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="H160" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="I160" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J160" t="s">
-        <v>249</v>
+        <v>262</v>
+      </c>
+      <c r="K160" t="s">
+        <v>68</v>
+      </c>
+      <c r="L160" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="161">
       <c r="E161" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F161" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G161" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="H161" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="I161" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J161" t="s">
-        <v>251</v>
+        <v>263</v>
+      </c>
+      <c r="K161" t="s">
+        <v>68</v>
+      </c>
+      <c r="L161" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="162">
       <c r="E162" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F162" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G162" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="H162" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="I162" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J162" t="s">
-        <v>252</v>
+        <v>265</v>
+      </c>
+      <c r="K162" t="s">
+        <v>68</v>
+      </c>
+      <c r="L162" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="163">
       <c r="E163" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F163" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G163" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="H163" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="I163" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J163" t="s">
-        <v>254</v>
+        <v>266</v>
+      </c>
+      <c r="K163" t="s">
+        <v>68</v>
+      </c>
+      <c r="L163" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="164">
       <c r="E164" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F164" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G164" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="H164" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="I164" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J164" t="s">
-        <v>255</v>
+        <v>268</v>
+      </c>
+      <c r="K164" t="s">
+        <v>68</v>
+      </c>
+      <c r="L164" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="165">
       <c r="E165" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F165" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G165" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="H165" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="I165" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J165" t="s">
-        <v>254</v>
+        <v>269</v>
+      </c>
+      <c r="K165" t="s">
+        <v>68</v>
+      </c>
+      <c r="L165" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="166">
       <c r="E166" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F166" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G166" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="H166" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="I166" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J166" t="s">
-        <v>255</v>
+        <v>268</v>
+      </c>
+      <c r="K166" t="s">
+        <v>68</v>
+      </c>
+      <c r="L166" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="167">
       <c r="E167" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F167" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G167" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="H167" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I167" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J167" t="s">
-        <v>258</v>
+        <v>269</v>
+      </c>
+      <c r="K167" t="s">
+        <v>68</v>
+      </c>
+      <c r="L167" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="168">
       <c r="E168" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F168" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G168" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="H168" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="I168" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J168" t="s">
-        <v>259</v>
+        <v>272</v>
+      </c>
+      <c r="K168" t="s">
+        <v>68</v>
+      </c>
+      <c r="L168" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="169">
       <c r="E169" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F169" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G169" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="H169" t="s">
-        <v>89</v>
+        <v>271</v>
       </c>
       <c r="I169" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J169" t="s">
-        <v>260</v>
+        <v>273</v>
+      </c>
+      <c r="K169" t="s">
+        <v>68</v>
+      </c>
+      <c r="L169" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="170">
       <c r="E170" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F170" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G170" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="H170" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I170" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J170" t="s">
-        <v>261</v>
+        <v>274</v>
+      </c>
+      <c r="K170" t="s">
+        <v>68</v>
+      </c>
+      <c r="L170" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="171">
       <c r="E171" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F171" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G171" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="H171" t="s">
-        <v>262</v>
+        <v>94</v>
       </c>
       <c r="I171" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J171" t="s">
-        <v>260</v>
+        <v>275</v>
+      </c>
+      <c r="K171" t="s">
+        <v>68</v>
+      </c>
+      <c r="L171" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="172">
       <c r="E172" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F172" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G172" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="H172" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="I172" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J172" t="s">
-        <v>261</v>
+        <v>274</v>
+      </c>
+      <c r="K172" t="s">
+        <v>68</v>
+      </c>
+      <c r="L172" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="173">
       <c r="E173" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F173" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G173" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="H173" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="I173" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J173" t="s">
-        <v>260</v>
+        <v>275</v>
+      </c>
+      <c r="K173" t="s">
+        <v>68</v>
+      </c>
+      <c r="L173" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="174">
       <c r="E174" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F174" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G174" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="H174" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="I174" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J174" t="s">
-        <v>261</v>
+        <v>274</v>
+      </c>
+      <c r="K174" t="s">
+        <v>68</v>
+      </c>
+      <c r="L174" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="175">
       <c r="E175" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F175" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G175" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="H175" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="I175" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J175" t="s">
-        <v>265</v>
+        <v>275</v>
+      </c>
+      <c r="K175" t="s">
+        <v>68</v>
+      </c>
+      <c r="L175" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="176">
       <c r="E176" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F176" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G176" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="H176" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="I176" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J176" t="s">
-        <v>266</v>
+        <v>279</v>
+      </c>
+      <c r="K176" t="s">
+        <v>68</v>
+      </c>
+      <c r="L176" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="177">
       <c r="E177" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F177" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G177" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="H177" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="I177" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J177" t="s">
-        <v>269</v>
+        <v>280</v>
+      </c>
+      <c r="K177" t="s">
+        <v>68</v>
+      </c>
+      <c r="L177" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="178">
       <c r="E178" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F178" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G178" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H178" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="I178" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J178" t="s">
-        <v>269</v>
+        <v>283</v>
+      </c>
+      <c r="K178" t="s">
+        <v>68</v>
+      </c>
+      <c r="L178" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="179">
       <c r="E179" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F179" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G179" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H179" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="I179" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J179" t="s">
-        <v>271</v>
+        <v>283</v>
+      </c>
+      <c r="K179" t="s">
+        <v>68</v>
+      </c>
+      <c r="L179" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="180">
       <c r="E180" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F180" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G180" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H180" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="I180" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J180" t="s">
-        <v>271</v>
+        <v>285</v>
+      </c>
+      <c r="K180" t="s">
+        <v>68</v>
+      </c>
+      <c r="L180" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="181">
       <c r="E181" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F181" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G181" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H181" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="I181" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J181" t="s">
-        <v>273</v>
+        <v>285</v>
+      </c>
+      <c r="K181" t="s">
+        <v>68</v>
+      </c>
+      <c r="L181" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="182">
       <c r="E182" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F182" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G182" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H182" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="I182" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J182" t="s">
-        <v>273</v>
+        <v>287</v>
+      </c>
+      <c r="K182" t="s">
+        <v>68</v>
+      </c>
+      <c r="L182" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="183">
       <c r="E183" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F183" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G183" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H183" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="I183" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J183" t="s">
-        <v>275</v>
+        <v>287</v>
+      </c>
+      <c r="K183" t="s">
+        <v>68</v>
+      </c>
+      <c r="L183" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="184">
       <c r="E184" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F184" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G184" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H184" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="I184" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J184" t="s">
-        <v>276</v>
+        <v>289</v>
+      </c>
+      <c r="K184" t="s">
+        <v>68</v>
+      </c>
+      <c r="L184" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="185">
       <c r="E185" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F185" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G185" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H185" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="I185" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J185" t="s">
-        <v>278</v>
+        <v>290</v>
+      </c>
+      <c r="K185" t="s">
+        <v>68</v>
+      </c>
+      <c r="L185" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="186">
       <c r="E186" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F186" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G186" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H186" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="I186" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J186" t="s">
-        <v>279</v>
+        <v>292</v>
+      </c>
+      <c r="K186" t="s">
+        <v>68</v>
+      </c>
+      <c r="L186" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="187">
       <c r="E187" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F187" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G187" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H187" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="I187" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J187" t="s">
-        <v>281</v>
+        <v>293</v>
+      </c>
+      <c r="K187" t="s">
+        <v>68</v>
+      </c>
+      <c r="L187" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="188">
       <c r="E188" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F188" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G188" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H188" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="I188" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J188" t="s">
-        <v>281</v>
+        <v>295</v>
+      </c>
+      <c r="K188" t="s">
+        <v>68</v>
+      </c>
+      <c r="L188" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="189">
       <c r="E189" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F189" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G189" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H189" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="I189" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J189" t="s">
-        <v>283</v>
+        <v>295</v>
+      </c>
+      <c r="K189" t="s">
+        <v>68</v>
+      </c>
+      <c r="L189" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="190">
       <c r="E190" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F190" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G190" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H190" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="I190" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J190" t="s">
-        <v>284</v>
+        <v>297</v>
+      </c>
+      <c r="K190" t="s">
+        <v>68</v>
+      </c>
+      <c r="L190" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="191">
       <c r="E191" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F191" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G191" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H191" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="I191" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J191" t="s">
-        <v>271</v>
+        <v>298</v>
+      </c>
+      <c r="K191" t="s">
+        <v>68</v>
+      </c>
+      <c r="L191" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="192">
       <c r="E192" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F192" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G192" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H192" t="s">
+        <v>299</v>
+      </c>
+      <c r="I192" t="s">
+        <v>66</v>
+      </c>
+      <c r="J192" t="s">
         <v>285</v>
       </c>
-      <c r="I192" t="s">
-        <v>64</v>
-      </c>
-      <c r="J192" t="s">
-        <v>271</v>
+      <c r="K192" t="s">
+        <v>68</v>
+      </c>
+      <c r="L192" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="193">
       <c r="E193" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F193" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G193" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H193" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="I193" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J193" t="s">
-        <v>287</v>
+        <v>285</v>
+      </c>
+      <c r="K193" t="s">
+        <v>68</v>
+      </c>
+      <c r="L193" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="194">
       <c r="E194" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F194" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G194" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H194" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="I194" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J194" t="s">
-        <v>288</v>
+        <v>301</v>
+      </c>
+      <c r="K194" t="s">
+        <v>68</v>
+      </c>
+      <c r="L194" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="195">
       <c r="E195" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F195" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G195" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H195" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="I195" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J195" t="s">
-        <v>290</v>
+        <v>302</v>
+      </c>
+      <c r="K195" t="s">
+        <v>68</v>
+      </c>
+      <c r="L195" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="196">
       <c r="E196" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F196" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G196" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H196" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="I196" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J196" t="s">
-        <v>291</v>
+        <v>304</v>
+      </c>
+      <c r="K196" t="s">
+        <v>68</v>
+      </c>
+      <c r="L196" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="197">
       <c r="E197" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F197" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G197" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H197" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="I197" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J197" t="s">
-        <v>293</v>
+        <v>305</v>
+      </c>
+      <c r="K197" t="s">
+        <v>68</v>
+      </c>
+      <c r="L197" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="198">
       <c r="E198" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F198" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G198" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H198" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="I198" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J198" t="s">
-        <v>294</v>
+        <v>307</v>
+      </c>
+      <c r="K198" t="s">
+        <v>68</v>
+      </c>
+      <c r="L198" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="199">
       <c r="E199" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F199" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G199" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H199" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="I199" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J199" t="s">
-        <v>296</v>
+        <v>308</v>
+      </c>
+      <c r="K199" t="s">
+        <v>68</v>
+      </c>
+      <c r="L199" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="200">
       <c r="E200" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F200" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G200" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H200" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="I200" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J200" t="s">
-        <v>297</v>
+        <v>310</v>
+      </c>
+      <c r="K200" t="s">
+        <v>68</v>
+      </c>
+      <c r="L200" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="201">
       <c r="E201" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F201" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G201" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H201" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="I201" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J201" t="s">
-        <v>299</v>
+        <v>311</v>
+      </c>
+      <c r="K201" t="s">
+        <v>68</v>
+      </c>
+      <c r="L201" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="202">
       <c r="E202" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F202" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G202" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H202" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="I202" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J202" t="s">
-        <v>300</v>
+        <v>313</v>
+      </c>
+      <c r="K202" t="s">
+        <v>68</v>
+      </c>
+      <c r="L202" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="203">
       <c r="E203" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F203" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G203" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H203" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="I203" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J203" t="s">
-        <v>302</v>
+        <v>314</v>
+      </c>
+      <c r="K203" t="s">
+        <v>68</v>
+      </c>
+      <c r="L203" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="204">
       <c r="E204" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F204" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G204" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H204" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="I204" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J204" t="s">
-        <v>303</v>
+        <v>316</v>
+      </c>
+      <c r="K204" t="s">
+        <v>68</v>
+      </c>
+      <c r="L204" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="205">
       <c r="E205" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F205" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G205" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H205" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="I205" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J205" t="s">
-        <v>305</v>
+        <v>317</v>
+      </c>
+      <c r="K205" t="s">
+        <v>68</v>
+      </c>
+      <c r="L205" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="206">
       <c r="E206" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F206" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G206" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H206" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="I206" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J206" t="s">
-        <v>306</v>
+        <v>319</v>
+      </c>
+      <c r="K206" t="s">
+        <v>68</v>
+      </c>
+      <c r="L206" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="207">
       <c r="E207" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F207" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G207" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H207" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="I207" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J207" t="s">
-        <v>308</v>
+        <v>320</v>
+      </c>
+      <c r="K207" t="s">
+        <v>68</v>
+      </c>
+      <c r="L207" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="208">
       <c r="E208" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F208" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G208" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H208" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="I208" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J208" t="s">
-        <v>308</v>
+        <v>322</v>
+      </c>
+      <c r="K208" t="s">
+        <v>68</v>
+      </c>
+      <c r="L208" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="209">
       <c r="E209" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F209" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G209" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H209" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="I209" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J209" t="s">
-        <v>310</v>
+        <v>323</v>
+      </c>
+      <c r="K209" t="s">
+        <v>68</v>
+      </c>
+      <c r="L209" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="210">
       <c r="E210" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F210" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G210" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H210" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="I210" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J210" t="s">
-        <v>311</v>
+        <v>325</v>
+      </c>
+      <c r="K210" t="s">
+        <v>68</v>
+      </c>
+      <c r="L210" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="211">
       <c r="E211" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F211" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G211" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H211" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="I211" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J211" t="s">
-        <v>313</v>
+        <v>326</v>
+      </c>
+      <c r="K211" t="s">
+        <v>68</v>
+      </c>
+      <c r="L211" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="212">
       <c r="E212" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F212" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G212" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H212" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="I212" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J212" t="s">
-        <v>313</v>
+        <v>328</v>
+      </c>
+      <c r="K212" t="s">
+        <v>68</v>
+      </c>
+      <c r="L212" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="213">
       <c r="E213" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F213" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G213" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H213" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="I213" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J213" t="s">
-        <v>315</v>
+        <v>328</v>
+      </c>
+      <c r="K213" t="s">
+        <v>68</v>
+      </c>
+      <c r="L213" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="214">
       <c r="E214" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F214" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G214" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H214" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="I214" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J214" t="s">
-        <v>316</v>
+        <v>330</v>
+      </c>
+      <c r="K214" t="s">
+        <v>68</v>
+      </c>
+      <c r="L214" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="215">
       <c r="E215" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F215" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G215" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H215" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I215" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J215" t="s">
-        <v>318</v>
+        <v>331</v>
+      </c>
+      <c r="K215" t="s">
+        <v>68</v>
+      </c>
+      <c r="L215" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="216">
       <c r="E216" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F216" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G216" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H216" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="I216" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J216" t="s">
-        <v>319</v>
+        <v>333</v>
+      </c>
+      <c r="K216" t="s">
+        <v>68</v>
+      </c>
+      <c r="L216" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="217">
       <c r="E217" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F217" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G217" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H217" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="I217" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J217" t="s">
-        <v>321</v>
+        <v>334</v>
+      </c>
+      <c r="K217" t="s">
+        <v>68</v>
+      </c>
+      <c r="L217" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="218">
       <c r="E218" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F218" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G218" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H218" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="I218" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J218" t="s">
-        <v>322</v>
+        <v>336</v>
+      </c>
+      <c r="K218" t="s">
+        <v>68</v>
+      </c>
+      <c r="L218" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="219">
       <c r="E219" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F219" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G219" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H219" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="I219" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J219" t="s">
-        <v>324</v>
+        <v>337</v>
+      </c>
+      <c r="K219" t="s">
+        <v>68</v>
+      </c>
+      <c r="L219" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="220">
       <c r="E220" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F220" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G220" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H220" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="I220" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J220" t="s">
-        <v>325</v>
+        <v>339</v>
+      </c>
+      <c r="K220" t="s">
+        <v>68</v>
+      </c>
+      <c r="L220" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="221">
       <c r="E221" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F221" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G221" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H221" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="I221" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J221" t="s">
-        <v>327</v>
+        <v>340</v>
+      </c>
+      <c r="K221" t="s">
+        <v>68</v>
+      </c>
+      <c r="L221" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="222">
       <c r="E222" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F222" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G222" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H222" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="I222" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J222" t="s">
-        <v>328</v>
+        <v>342</v>
+      </c>
+      <c r="K222" t="s">
+        <v>68</v>
+      </c>
+      <c r="L222" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="223">
       <c r="E223" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F223" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G223" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H223" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="I223" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J223" t="s">
-        <v>330</v>
+        <v>343</v>
+      </c>
+      <c r="K223" t="s">
+        <v>68</v>
+      </c>
+      <c r="L223" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="224">
       <c r="E224" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F224" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G224" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H224" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="I224" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J224" t="s">
-        <v>330</v>
+        <v>345</v>
+      </c>
+      <c r="K224" t="s">
+        <v>68</v>
+      </c>
+      <c r="L224" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="225">
       <c r="E225" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F225" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G225" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H225" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="I225" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J225" t="s">
-        <v>332</v>
+        <v>345</v>
+      </c>
+      <c r="K225" t="s">
+        <v>68</v>
+      </c>
+      <c r="L225" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="226">
       <c r="E226" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F226" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G226" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H226" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="I226" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J226" t="s">
-        <v>332</v>
+        <v>347</v>
+      </c>
+      <c r="K226" t="s">
+        <v>68</v>
+      </c>
+      <c r="L226" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="227">
       <c r="E227" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F227" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G227" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H227" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="I227" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J227" t="s">
-        <v>334</v>
+        <v>348</v>
+      </c>
+      <c r="K227" t="s">
+        <v>68</v>
+      </c>
+      <c r="L227" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="228">
       <c r="E228" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F228" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G228" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H228" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="I228" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J228" t="s">
-        <v>335</v>
+        <v>350</v>
+      </c>
+      <c r="K228" t="s">
+        <v>68</v>
+      </c>
+      <c r="L228" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="229">
       <c r="E229" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F229" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G229" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H229" t="s">
-        <v>89</v>
+        <v>349</v>
       </c>
       <c r="I229" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J229" t="s">
-        <v>336</v>
+        <v>351</v>
+      </c>
+      <c r="K229" t="s">
+        <v>68</v>
+      </c>
+      <c r="L229" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="230">
       <c r="E230" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F230" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G230" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H230" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I230" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J230" t="s">
-        <v>337</v>
+        <v>352</v>
+      </c>
+      <c r="K230" t="s">
+        <v>68</v>
+      </c>
+      <c r="L230" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="231">
       <c r="E231" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F231" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G231" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H231" t="s">
-        <v>338</v>
+        <v>94</v>
       </c>
       <c r="I231" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J231" t="s">
-        <v>339</v>
+        <v>353</v>
+      </c>
+      <c r="K231" t="s">
+        <v>68</v>
+      </c>
+      <c r="L231" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="232">
       <c r="E232" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F232" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G232" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H232" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="I232" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J232" t="s">
-        <v>340</v>
+        <v>355</v>
+      </c>
+      <c r="K232" t="s">
+        <v>68</v>
+      </c>
+      <c r="L232" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="233">
       <c r="E233" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F233" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G233" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H233" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="I233" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J233" t="s">
-        <v>342</v>
+        <v>356</v>
+      </c>
+      <c r="K233" t="s">
+        <v>68</v>
+      </c>
+      <c r="L233" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="234">
       <c r="E234" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F234" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G234" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H234" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="I234" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J234" t="s">
-        <v>343</v>
+        <v>358</v>
+      </c>
+      <c r="K234" t="s">
+        <v>68</v>
+      </c>
+      <c r="L234" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="235">
       <c r="E235" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F235" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G235" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H235" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="I235" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J235" t="s">
-        <v>345</v>
+        <v>359</v>
+      </c>
+      <c r="K235" t="s">
+        <v>68</v>
+      </c>
+      <c r="L235" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="236">
       <c r="E236" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F236" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G236" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H236" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="I236" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J236" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="K236" t="s">
+        <v>68</v>
+      </c>
+      <c r="L236" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="237">
       <c r="E237" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F237" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G237" t="s">
-        <v>346</v>
+        <v>281</v>
       </c>
       <c r="H237" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="I237" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J237" t="s">
-        <v>348</v>
+        <v>71</v>
+      </c>
+      <c r="K237" t="s">
+        <v>68</v>
+      </c>
+      <c r="L237" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="238">
       <c r="E238" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F238" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G238" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H238" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="I238" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J238" t="s">
-        <v>348</v>
+        <v>363</v>
+      </c>
+      <c r="K238" t="s">
+        <v>68</v>
+      </c>
+      <c r="L238" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="239">
       <c r="E239" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F239" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G239" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H239" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="I239" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J239" t="s">
-        <v>350</v>
+        <v>364</v>
+      </c>
+      <c r="K239" t="s">
+        <v>68</v>
+      </c>
+      <c r="L239" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="240">
       <c r="E240" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F240" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G240" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H240" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="I240" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J240" t="s">
-        <v>350</v>
+        <v>366</v>
+      </c>
+      <c r="K240" t="s">
+        <v>68</v>
+      </c>
+      <c r="L240" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="241">
       <c r="E241" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F241" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G241" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H241" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="I241" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J241" t="s">
-        <v>352</v>
+        <v>367</v>
+      </c>
+      <c r="K241" t="s">
+        <v>68</v>
+      </c>
+      <c r="L241" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="242">
       <c r="E242" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F242" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G242" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H242" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="I242" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J242" t="s">
-        <v>352</v>
+        <v>369</v>
+      </c>
+      <c r="K242" t="s">
+        <v>68</v>
+      </c>
+      <c r="L242" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="243">
       <c r="E243" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F243" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G243" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H243" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="I243" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J243" t="s">
-        <v>237</v>
+        <v>370</v>
+      </c>
+      <c r="K243" t="s">
+        <v>68</v>
+      </c>
+      <c r="L243" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="244">
       <c r="E244" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F244" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G244" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H244" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="I244" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J244" t="s">
-        <v>237</v>
+        <v>372</v>
+      </c>
+      <c r="K244" t="s">
+        <v>68</v>
+      </c>
+      <c r="L244" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="245">
       <c r="E245" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F245" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G245" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H245" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="I245" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J245" t="s">
-        <v>355</v>
+        <v>372</v>
+      </c>
+      <c r="K245" t="s">
+        <v>68</v>
+      </c>
+      <c r="L245" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="246">
       <c r="E246" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F246" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G246" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H246" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="I246" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J246" t="s">
-        <v>355</v>
+        <v>250</v>
+      </c>
+      <c r="K246" t="s">
+        <v>68</v>
+      </c>
+      <c r="L246" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="247">
       <c r="E247" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F247" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G247" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H247" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="I247" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J247" t="s">
-        <v>357</v>
+        <v>251</v>
+      </c>
+      <c r="K247" t="s">
+        <v>68</v>
+      </c>
+      <c r="L247" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="248">
       <c r="E248" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F248" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G248" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H248" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="I248" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J248" t="s">
-        <v>357</v>
+        <v>375</v>
+      </c>
+      <c r="K248" t="s">
+        <v>68</v>
+      </c>
+      <c r="L248" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="249">
       <c r="E249" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F249" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G249" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H249" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="I249" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J249" t="s">
-        <v>359</v>
+        <v>376</v>
+      </c>
+      <c r="K249" t="s">
+        <v>68</v>
+      </c>
+      <c r="L249" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="250">
       <c r="E250" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F250" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G250" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H250" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="I250" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J250" t="s">
-        <v>359</v>
+        <v>378</v>
+      </c>
+      <c r="K250" t="s">
+        <v>68</v>
+      </c>
+      <c r="L250" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="251">
       <c r="E251" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F251" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G251" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H251" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="I251" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J251" t="s">
-        <v>361</v>
+        <v>379</v>
+      </c>
+      <c r="K251" t="s">
+        <v>68</v>
+      </c>
+      <c r="L251" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="252">
       <c r="E252" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F252" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G252" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H252" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="I252" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J252" t="s">
-        <v>361</v>
+        <v>381</v>
+      </c>
+      <c r="K252" t="s">
+        <v>68</v>
+      </c>
+      <c r="L252" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="253">
       <c r="E253" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F253" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G253" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H253" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="I253" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J253" t="s">
-        <v>363</v>
+        <v>382</v>
+      </c>
+      <c r="K253" t="s">
+        <v>68</v>
+      </c>
+      <c r="L253" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="254">
       <c r="E254" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F254" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G254" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H254" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="I254" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J254" t="s">
-        <v>363</v>
+        <v>384</v>
+      </c>
+      <c r="K254" t="s">
+        <v>68</v>
+      </c>
+      <c r="L254" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="255">
       <c r="E255" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F255" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G255" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H255" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="I255" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J255" t="s">
-        <v>365</v>
+        <v>385</v>
+      </c>
+      <c r="K255" t="s">
+        <v>68</v>
+      </c>
+      <c r="L255" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="256">
       <c r="E256" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F256" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G256" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H256" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="I256" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J256" t="s">
-        <v>365</v>
+        <v>387</v>
+      </c>
+      <c r="K256" t="s">
+        <v>68</v>
+      </c>
+      <c r="L256" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="257">
       <c r="E257" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F257" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G257" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H257" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="I257" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J257" t="s">
-        <v>367</v>
+        <v>388</v>
+      </c>
+      <c r="K257" t="s">
+        <v>68</v>
+      </c>
+      <c r="L257" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="258">
       <c r="E258" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F258" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G258" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H258" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="I258" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J258" t="s">
-        <v>367</v>
+        <v>390</v>
+      </c>
+      <c r="K258" t="s">
+        <v>68</v>
+      </c>
+      <c r="L258" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="259">
       <c r="E259" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F259" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G259" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H259" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="I259" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J259" t="s">
-        <v>369</v>
+        <v>391</v>
+      </c>
+      <c r="K259" t="s">
+        <v>68</v>
+      </c>
+      <c r="L259" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="260">
       <c r="E260" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F260" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G260" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H260" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="I260" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J260" t="s">
-        <v>369</v>
+        <v>393</v>
+      </c>
+      <c r="K260" t="s">
+        <v>68</v>
+      </c>
+      <c r="L260" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="261">
       <c r="E261" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F261" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G261" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H261" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="I261" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J261" t="s">
-        <v>88</v>
+        <v>395</v>
+      </c>
+      <c r="K261" t="s">
+        <v>68</v>
+      </c>
+      <c r="L261" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="262">
       <c r="E262" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F262" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G262" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H262" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="I262" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J262" t="s">
-        <v>88</v>
+        <v>397</v>
+      </c>
+      <c r="K262" t="s">
+        <v>68</v>
+      </c>
+      <c r="L262" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="263">
       <c r="E263" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F263" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G263" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H263" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="I263" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J263" t="s">
-        <v>350</v>
+        <v>398</v>
+      </c>
+      <c r="K263" t="s">
+        <v>68</v>
+      </c>
+      <c r="L263" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="264">
       <c r="E264" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F264" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G264" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H264" t="s">
-        <v>371</v>
+        <v>399</v>
       </c>
       <c r="I264" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J264" t="s">
-        <v>350</v>
+        <v>400</v>
+      </c>
+      <c r="K264" t="s">
+        <v>68</v>
+      </c>
+      <c r="L264" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="265">
       <c r="E265" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F265" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G265" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H265" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="I265" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J265" t="s">
-        <v>373</v>
+        <v>401</v>
+      </c>
+      <c r="K265" t="s">
+        <v>68</v>
+      </c>
+      <c r="L265" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="266">
       <c r="E266" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F266" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G266" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H266" t="s">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="I266" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J266" t="s">
-        <v>373</v>
+        <v>403</v>
+      </c>
+      <c r="K266" t="s">
+        <v>68</v>
+      </c>
+      <c r="L266" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="267">
       <c r="E267" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F267" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G267" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H267" t="s">
-        <v>374</v>
+        <v>402</v>
       </c>
       <c r="I267" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J267" t="s">
-        <v>375</v>
+        <v>93</v>
+      </c>
+      <c r="K267" t="s">
+        <v>68</v>
+      </c>
+      <c r="L267" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="268">
       <c r="E268" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F268" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G268" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H268" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="I268" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J268" t="s">
-        <v>375</v>
+        <v>366</v>
+      </c>
+      <c r="K268" t="s">
+        <v>68</v>
+      </c>
+      <c r="L268" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="269">
       <c r="E269" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F269" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G269" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H269" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="I269" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J269" t="s">
-        <v>377</v>
+        <v>367</v>
+      </c>
+      <c r="K269" t="s">
+        <v>68</v>
+      </c>
+      <c r="L269" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="270">
       <c r="E270" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F270" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G270" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H270" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="I270" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J270" t="s">
-        <v>377</v>
+        <v>406</v>
+      </c>
+      <c r="K270" t="s">
+        <v>68</v>
+      </c>
+      <c r="L270" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="271">
       <c r="E271" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F271" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G271" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H271" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="I271" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J271" t="s">
-        <v>379</v>
+        <v>407</v>
+      </c>
+      <c r="K271" t="s">
+        <v>68</v>
+      </c>
+      <c r="L271" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="272">
       <c r="E272" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F272" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G272" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H272" t="s">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="I272" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J272" t="s">
-        <v>379</v>
+        <v>409</v>
+      </c>
+      <c r="K272" t="s">
+        <v>68</v>
+      </c>
+      <c r="L272" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="273">
       <c r="E273" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F273" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G273" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H273" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="I273" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J273" t="s">
-        <v>381</v>
+        <v>410</v>
+      </c>
+      <c r="K273" t="s">
+        <v>68</v>
+      </c>
+      <c r="L273" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="274">
       <c r="E274" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F274" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G274" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H274" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="I274" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J274" t="s">
-        <v>381</v>
+        <v>412</v>
+      </c>
+      <c r="K274" t="s">
+        <v>68</v>
+      </c>
+      <c r="L274" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="275">
       <c r="E275" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F275" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G275" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H275" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="I275" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J275" t="s">
-        <v>383</v>
+        <v>413</v>
+      </c>
+      <c r="K275" t="s">
+        <v>68</v>
+      </c>
+      <c r="L275" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="276">
       <c r="E276" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F276" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G276" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H276" t="s">
-        <v>382</v>
+        <v>414</v>
       </c>
       <c r="I276" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J276" t="s">
-        <v>383</v>
+        <v>415</v>
+      </c>
+      <c r="K276" t="s">
+        <v>68</v>
+      </c>
+      <c r="L276" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="277">
       <c r="E277" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F277" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G277" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H277" t="s">
-        <v>384</v>
+        <v>414</v>
       </c>
       <c r="I277" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J277" t="s">
-        <v>385</v>
+        <v>416</v>
+      </c>
+      <c r="K277" t="s">
+        <v>68</v>
+      </c>
+      <c r="L277" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="278">
       <c r="E278" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F278" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G278" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H278" t="s">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="I278" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J278" t="s">
-        <v>385</v>
+        <v>418</v>
+      </c>
+      <c r="K278" t="s">
+        <v>68</v>
+      </c>
+      <c r="L278" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="279">
       <c r="E279" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F279" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G279" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H279" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
       <c r="I279" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J279" t="s">
-        <v>387</v>
+        <v>419</v>
+      </c>
+      <c r="K279" t="s">
+        <v>68</v>
+      </c>
+      <c r="L279" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="280">
       <c r="E280" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F280" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G280" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H280" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="I280" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J280" t="s">
-        <v>387</v>
+        <v>421</v>
+      </c>
+      <c r="K280" t="s">
+        <v>68</v>
+      </c>
+      <c r="L280" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="281">
       <c r="E281" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F281" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G281" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H281" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="I281" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J281" t="s">
-        <v>388</v>
+        <v>422</v>
+      </c>
+      <c r="K281" t="s">
+        <v>68</v>
+      </c>
+      <c r="L281" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="282">
       <c r="E282" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F282" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G282" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H282" t="s">
-        <v>220</v>
+        <v>423</v>
       </c>
       <c r="I282" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J282" t="s">
-        <v>388</v>
+        <v>424</v>
+      </c>
+      <c r="K282" t="s">
+        <v>68</v>
+      </c>
+      <c r="L282" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="283">
       <c r="E283" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F283" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G283" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H283" t="s">
-        <v>389</v>
+        <v>423</v>
       </c>
       <c r="I283" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J283" t="s">
-        <v>390</v>
+        <v>425</v>
+      </c>
+      <c r="K283" t="s">
+        <v>68</v>
+      </c>
+      <c r="L283" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="284">
       <c r="E284" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F284" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G284" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H284" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="I284" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J284" t="s">
-        <v>390</v>
+        <v>427</v>
+      </c>
+      <c r="K284" t="s">
+        <v>68</v>
+      </c>
+      <c r="L284" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="285">
       <c r="E285" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F285" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G285" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H285" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="I285" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J285" t="s">
-        <v>392</v>
+        <v>428</v>
+      </c>
+      <c r="K285" t="s">
+        <v>68</v>
+      </c>
+      <c r="L285" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="286">
       <c r="E286" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F286" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G286" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H286" t="s">
-        <v>391</v>
+        <v>233</v>
       </c>
       <c r="I286" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J286" t="s">
-        <v>392</v>
+        <v>429</v>
+      </c>
+      <c r="K286" t="s">
+        <v>68</v>
+      </c>
+      <c r="L286" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="287">
       <c r="E287" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F287" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G287" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H287" t="s">
-        <v>393</v>
+        <v>233</v>
       </c>
       <c r="I287" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J287" t="s">
-        <v>394</v>
+        <v>430</v>
+      </c>
+      <c r="K287" t="s">
+        <v>68</v>
+      </c>
+      <c r="L287" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="288">
       <c r="E288" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F288" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G288" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H288" t="s">
-        <v>393</v>
+        <v>431</v>
       </c>
       <c r="I288" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J288" t="s">
-        <v>394</v>
+        <v>432</v>
+      </c>
+      <c r="K288" t="s">
+        <v>68</v>
+      </c>
+      <c r="L288" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="289">
       <c r="E289" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F289" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G289" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H289" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="I289" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J289" t="s">
-        <v>396</v>
+        <v>433</v>
+      </c>
+      <c r="K289" t="s">
+        <v>68</v>
+      </c>
+      <c r="L289" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="290">
       <c r="E290" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F290" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G290" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H290" t="s">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="I290" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J290" t="s">
-        <v>396</v>
+        <v>435</v>
+      </c>
+      <c r="K290" t="s">
+        <v>68</v>
+      </c>
+      <c r="L290" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="291">
       <c r="E291" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F291" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G291" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="H291" t="s">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="I291" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J291" t="s">
-        <v>399</v>
+        <v>436</v>
+      </c>
+      <c r="K291" t="s">
+        <v>68</v>
+      </c>
+      <c r="L291" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="292">
       <c r="E292" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F292" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G292" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="H292" t="s">
-        <v>398</v>
+        <v>437</v>
       </c>
       <c r="I292" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J292" t="s">
-        <v>400</v>
+        <v>438</v>
+      </c>
+      <c r="K292" t="s">
+        <v>68</v>
+      </c>
+      <c r="L292" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="E293" t="s">
+        <v>62</v>
+      </c>
+      <c r="F293" t="s">
+        <v>63</v>
+      </c>
+      <c r="G293" t="s">
+        <v>361</v>
+      </c>
+      <c r="H293" t="s">
+        <v>437</v>
+      </c>
+      <c r="I293" t="s">
+        <v>70</v>
+      </c>
+      <c r="J293" t="s">
+        <v>439</v>
+      </c>
+      <c r="K293" t="s">
+        <v>68</v>
+      </c>
+      <c r="L293" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="E294" t="s">
+        <v>62</v>
+      </c>
+      <c r="F294" t="s">
+        <v>63</v>
+      </c>
+      <c r="G294" t="s">
+        <v>361</v>
+      </c>
+      <c r="H294" t="s">
+        <v>440</v>
+      </c>
+      <c r="I294" t="s">
+        <v>66</v>
+      </c>
+      <c r="J294" t="s">
+        <v>441</v>
+      </c>
+      <c r="K294" t="s">
+        <v>68</v>
+      </c>
+      <c r="L294" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="E295" t="s">
+        <v>62</v>
+      </c>
+      <c r="F295" t="s">
+        <v>63</v>
+      </c>
+      <c r="G295" t="s">
+        <v>361</v>
+      </c>
+      <c r="H295" t="s">
+        <v>440</v>
+      </c>
+      <c r="I295" t="s">
+        <v>70</v>
+      </c>
+      <c r="J295" t="s">
+        <v>442</v>
+      </c>
+      <c r="K295" t="s">
+        <v>68</v>
+      </c>
+      <c r="L295" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="E296" t="s">
+        <v>62</v>
+      </c>
+      <c r="F296" t="s">
+        <v>63</v>
+      </c>
+      <c r="G296" t="s">
+        <v>361</v>
+      </c>
+      <c r="H296" t="s">
+        <v>443</v>
+      </c>
+      <c r="I296" t="s">
+        <v>66</v>
+      </c>
+      <c r="J296" t="s">
+        <v>444</v>
+      </c>
+      <c r="K296" t="s">
+        <v>68</v>
+      </c>
+      <c r="L296" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="E297" t="s">
+        <v>62</v>
+      </c>
+      <c r="F297" t="s">
+        <v>63</v>
+      </c>
+      <c r="G297" t="s">
+        <v>361</v>
+      </c>
+      <c r="H297" t="s">
+        <v>443</v>
+      </c>
+      <c r="I297" t="s">
+        <v>70</v>
+      </c>
+      <c r="J297" t="s">
+        <v>445</v>
+      </c>
+      <c r="K297" t="s">
+        <v>68</v>
+      </c>
+      <c r="L297" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="E298" t="s">
+        <v>62</v>
+      </c>
+      <c r="F298" t="s">
+        <v>63</v>
+      </c>
+      <c r="G298" t="s">
+        <v>446</v>
+      </c>
+      <c r="H298" t="s">
+        <v>447</v>
+      </c>
+      <c r="I298" t="s">
+        <v>66</v>
+      </c>
+      <c r="J298" t="s">
+        <v>448</v>
+      </c>
+      <c r="K298" t="s">
+        <v>68</v>
+      </c>
+      <c r="L298" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="E299" t="s">
+        <v>62</v>
+      </c>
+      <c r="F299" t="s">
+        <v>63</v>
+      </c>
+      <c r="G299" t="s">
+        <v>446</v>
+      </c>
+      <c r="H299" t="s">
+        <v>447</v>
+      </c>
+      <c r="I299" t="s">
+        <v>70</v>
+      </c>
+      <c r="J299" t="s">
+        <v>449</v>
+      </c>
+      <c r="K299" t="s">
+        <v>68</v>
+      </c>
+      <c r="L299" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_file/hzero_platform/hzero-prompt.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_file/hzero_platform/hzero-prompt.xlsx
@@ -21,12 +21,12 @@
     <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
     <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2399" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="457">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2021-02-20</t>
+    <t>2021-10-11</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2367,6 +2367,12 @@
     <t>对象存储</t>
   </si>
   <si>
+    <t>notification.download.error</t>
+  </si>
+  <si>
+    <t>下载异常</t>
+  </si>
+  <si>
     <t>view.button.saveAndClose</t>
   </si>
   <si>
@@ -2406,6 +2412,9 @@
     <t>It can only be composed of lowercase letters、numbers, "-"</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>只能由小写字母、数字，"-"组成</t>
   </si>
   <si>
@@ -2778,6 +2787,9 @@
     <t>Bucket prefix</t>
   </si>
   <si>
+    <t>417</t>
+  </si>
+  <si>
     <t>bucket前缀</t>
   </si>
   <si>
@@ -2826,6 +2838,12 @@
     <t>存储类型</t>
   </si>
   <si>
+    <t>validation.codeUpper</t>
+  </si>
+  <si>
+    <t>全大写及数字，必须以字母、数字开头，可包含“-”、“_”、“.”</t>
+  </si>
+  <si>
     <t>view.message.storageType.AWS</t>
   </si>
   <si>
@@ -3027,7 +3045,7 @@
     <t>Built-in variable format: {variable name}; supported variables: user name {userName}; mailbox {email}; mobile phone number {phone}; tenant {tenantName}; custom variable format {additionInfo.variable name}</t>
   </si>
   <si>
-    <t>1</t>
+    <t>468</t>
   </si>
   <si>
     <t>内置变量格式：{变量名}；支持的变量：用户名{userName}；邮箱{email}；手机号{phone}；租户{tenantName}；自定义变量格式{additionInfo.变量名}</t>
@@ -3064,6 +3082,9 @@
   </si>
   <si>
     <t>Watermark Type</t>
+  </si>
+  <si>
+    <t>448</t>
   </si>
   <si>
     <t>水印类型</t>
@@ -4187,7 +4208,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L299"/>
+  <dimension ref="A1:L303"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6379,7 +6400,7 @@
         <v>70</v>
       </c>
       <c r="J89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K89" t="s">
         <v>68</v>
@@ -6399,13 +6420,13 @@
         <v>97</v>
       </c>
       <c r="H90" t="s">
+        <v>176</v>
+      </c>
+      <c r="I90" t="s">
+        <v>66</v>
+      </c>
+      <c r="J90" t="s">
         <v>177</v>
-      </c>
-      <c r="I90" t="s">
-        <v>66</v>
-      </c>
-      <c r="J90" t="s">
-        <v>178</v>
       </c>
       <c r="K90" t="s">
         <v>68</v>
@@ -6425,13 +6446,13 @@
         <v>97</v>
       </c>
       <c r="H91" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I91" t="s">
         <v>70</v>
       </c>
       <c r="J91" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K91" t="s">
         <v>68</v>
@@ -6451,13 +6472,13 @@
         <v>97</v>
       </c>
       <c r="H92" t="s">
+        <v>179</v>
+      </c>
+      <c r="I92" t="s">
+        <v>66</v>
+      </c>
+      <c r="J92" t="s">
         <v>180</v>
-      </c>
-      <c r="I92" t="s">
-        <v>66</v>
-      </c>
-      <c r="J92" t="s">
-        <v>181</v>
       </c>
       <c r="K92" t="s">
         <v>68</v>
@@ -6477,13 +6498,13 @@
         <v>97</v>
       </c>
       <c r="H93" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I93" t="s">
         <v>70</v>
       </c>
       <c r="J93" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K93" t="s">
         <v>68</v>
@@ -6503,7 +6524,7 @@
         <v>97</v>
       </c>
       <c r="H94" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="I94" t="s">
         <v>66</v>
@@ -6529,7 +6550,7 @@
         <v>97</v>
       </c>
       <c r="H95" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="I95" t="s">
         <v>70</v>
@@ -6555,13 +6576,13 @@
         <v>97</v>
       </c>
       <c r="H96" t="s">
+        <v>94</v>
+      </c>
+      <c r="I96" t="s">
+        <v>66</v>
+      </c>
+      <c r="J96" t="s">
         <v>185</v>
-      </c>
-      <c r="I96" t="s">
-        <v>66</v>
-      </c>
-      <c r="J96" t="s">
-        <v>186</v>
       </c>
       <c r="K96" t="s">
         <v>68</v>
@@ -6581,13 +6602,13 @@
         <v>97</v>
       </c>
       <c r="H97" t="s">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="I97" t="s">
         <v>70</v>
       </c>
       <c r="J97" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K97" t="s">
         <v>68</v>
@@ -6604,22 +6625,22 @@
         <v>63</v>
       </c>
       <c r="G98" t="s">
+        <v>97</v>
+      </c>
+      <c r="H98" t="s">
+        <v>187</v>
+      </c>
+      <c r="I98" t="s">
+        <v>66</v>
+      </c>
+      <c r="J98" t="s">
         <v>188</v>
       </c>
-      <c r="H98" t="s">
+      <c r="K98" t="s">
+        <v>68</v>
+      </c>
+      <c r="L98" t="s">
         <v>189</v>
-      </c>
-      <c r="I98" t="s">
-        <v>66</v>
-      </c>
-      <c r="J98" t="s">
-        <v>190</v>
-      </c>
-      <c r="K98" t="s">
-        <v>68</v>
-      </c>
-      <c r="L98" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="99">
@@ -6630,22 +6651,22 @@
         <v>63</v>
       </c>
       <c r="G99" t="s">
-        <v>188</v>
+        <v>97</v>
       </c>
       <c r="H99" t="s">
+        <v>187</v>
+      </c>
+      <c r="I99" t="s">
+        <v>70</v>
+      </c>
+      <c r="J99" t="s">
+        <v>190</v>
+      </c>
+      <c r="K99" t="s">
+        <v>68</v>
+      </c>
+      <c r="L99" t="s">
         <v>189</v>
-      </c>
-      <c r="I99" t="s">
-        <v>70</v>
-      </c>
-      <c r="J99" t="s">
-        <v>191</v>
-      </c>
-      <c r="K99" t="s">
-        <v>68</v>
-      </c>
-      <c r="L99" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="100">
@@ -6656,7 +6677,7 @@
         <v>63</v>
       </c>
       <c r="G100" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H100" t="s">
         <v>192</v>
@@ -6682,7 +6703,7 @@
         <v>63</v>
       </c>
       <c r="G101" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H101" t="s">
         <v>192</v>
@@ -6708,7 +6729,7 @@
         <v>63</v>
       </c>
       <c r="G102" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H102" t="s">
         <v>195</v>
@@ -6717,7 +6738,7 @@
         <v>66</v>
       </c>
       <c r="J102" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="K102" t="s">
         <v>68</v>
@@ -6734,7 +6755,7 @@
         <v>63</v>
       </c>
       <c r="G103" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H103" t="s">
         <v>195</v>
@@ -6743,7 +6764,7 @@
         <v>70</v>
       </c>
       <c r="J103" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="K103" t="s">
         <v>68</v>
@@ -6760,16 +6781,16 @@
         <v>63</v>
       </c>
       <c r="G104" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H104" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I104" t="s">
         <v>66</v>
       </c>
       <c r="J104" t="s">
-        <v>197</v>
+        <v>130</v>
       </c>
       <c r="K104" t="s">
         <v>68</v>
@@ -6786,16 +6807,16 @@
         <v>63</v>
       </c>
       <c r="G105" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H105" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I105" t="s">
         <v>70</v>
       </c>
       <c r="J105" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="K105" t="s">
         <v>68</v>
@@ -6812,7 +6833,7 @@
         <v>63</v>
       </c>
       <c r="G106" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H106" t="s">
         <v>199</v>
@@ -6838,7 +6859,7 @@
         <v>63</v>
       </c>
       <c r="G107" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H107" t="s">
         <v>199</v>
@@ -6864,7 +6885,7 @@
         <v>63</v>
       </c>
       <c r="G108" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H108" t="s">
         <v>202</v>
@@ -6890,7 +6911,7 @@
         <v>63</v>
       </c>
       <c r="G109" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H109" t="s">
         <v>202</v>
@@ -6916,7 +6937,7 @@
         <v>63</v>
       </c>
       <c r="G110" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H110" t="s">
         <v>205</v>
@@ -6942,7 +6963,7 @@
         <v>63</v>
       </c>
       <c r="G111" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H111" t="s">
         <v>205</v>
@@ -6968,7 +6989,7 @@
         <v>63</v>
       </c>
       <c r="G112" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H112" t="s">
         <v>208</v>
@@ -6994,7 +7015,7 @@
         <v>63</v>
       </c>
       <c r="G113" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H113" t="s">
         <v>208</v>
@@ -7020,7 +7041,7 @@
         <v>63</v>
       </c>
       <c r="G114" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H114" t="s">
         <v>211</v>
@@ -7029,7 +7050,7 @@
         <v>66</v>
       </c>
       <c r="J114" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="K114" t="s">
         <v>68</v>
@@ -7046,7 +7067,7 @@
         <v>63</v>
       </c>
       <c r="G115" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H115" t="s">
         <v>211</v>
@@ -7055,7 +7076,7 @@
         <v>70</v>
       </c>
       <c r="J115" t="s">
-        <v>103</v>
+        <v>213</v>
       </c>
       <c r="K115" t="s">
         <v>68</v>
@@ -7072,16 +7093,16 @@
         <v>63</v>
       </c>
       <c r="G116" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H116" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I116" t="s">
         <v>66</v>
       </c>
       <c r="J116" t="s">
-        <v>193</v>
+        <v>119</v>
       </c>
       <c r="K116" t="s">
         <v>68</v>
@@ -7098,16 +7119,16 @@
         <v>63</v>
       </c>
       <c r="G117" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H117" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I117" t="s">
         <v>70</v>
       </c>
       <c r="J117" t="s">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c r="K117" t="s">
         <v>68</v>
@@ -7124,16 +7145,16 @@
         <v>63</v>
       </c>
       <c r="G118" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H118" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I118" t="s">
         <v>66</v>
       </c>
       <c r="J118" t="s">
-        <v>127</v>
+        <v>196</v>
       </c>
       <c r="K118" t="s">
         <v>68</v>
@@ -7150,16 +7171,16 @@
         <v>63</v>
       </c>
       <c r="G119" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H119" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I119" t="s">
         <v>70</v>
       </c>
       <c r="J119" t="s">
-        <v>128</v>
+        <v>197</v>
       </c>
       <c r="K119" t="s">
         <v>68</v>
@@ -7176,16 +7197,16 @@
         <v>63</v>
       </c>
       <c r="G120" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H120" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I120" t="s">
         <v>66</v>
       </c>
       <c r="J120" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K120" t="s">
         <v>68</v>
@@ -7202,16 +7223,16 @@
         <v>63</v>
       </c>
       <c r="G121" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H121" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I121" t="s">
         <v>70</v>
       </c>
       <c r="J121" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K121" t="s">
         <v>68</v>
@@ -7228,16 +7249,16 @@
         <v>63</v>
       </c>
       <c r="G122" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H122" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I122" t="s">
         <v>66</v>
       </c>
       <c r="J122" t="s">
-        <v>216</v>
+        <v>130</v>
       </c>
       <c r="K122" t="s">
         <v>68</v>
@@ -7254,16 +7275,16 @@
         <v>63</v>
       </c>
       <c r="G123" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H123" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I123" t="s">
         <v>70</v>
       </c>
       <c r="J123" t="s">
-        <v>217</v>
+        <v>131</v>
       </c>
       <c r="K123" t="s">
         <v>68</v>
@@ -7280,7 +7301,7 @@
         <v>63</v>
       </c>
       <c r="G124" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H124" t="s">
         <v>218</v>
@@ -7289,7 +7310,7 @@
         <v>66</v>
       </c>
       <c r="J124" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="K124" t="s">
         <v>68</v>
@@ -7306,7 +7327,7 @@
         <v>63</v>
       </c>
       <c r="G125" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H125" t="s">
         <v>218</v>
@@ -7315,7 +7336,7 @@
         <v>70</v>
       </c>
       <c r="J125" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="K125" t="s">
         <v>68</v>
@@ -7332,16 +7353,16 @@
         <v>63</v>
       </c>
       <c r="G126" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H126" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I126" t="s">
         <v>66</v>
       </c>
       <c r="J126" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="K126" t="s">
         <v>68</v>
@@ -7358,10 +7379,10 @@
         <v>63</v>
       </c>
       <c r="G127" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H127" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I127" t="s">
         <v>70</v>
@@ -7384,16 +7405,16 @@
         <v>63</v>
       </c>
       <c r="G128" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H128" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I128" t="s">
         <v>66</v>
       </c>
       <c r="J128" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K128" t="s">
         <v>68</v>
@@ -7410,10 +7431,10 @@
         <v>63</v>
       </c>
       <c r="G129" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H129" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I129" t="s">
         <v>70</v>
@@ -7436,16 +7457,16 @@
         <v>63</v>
       </c>
       <c r="G130" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H130" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I130" t="s">
         <v>66</v>
       </c>
       <c r="J130" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="K130" t="s">
         <v>68</v>
@@ -7462,10 +7483,10 @@
         <v>63</v>
       </c>
       <c r="G131" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H131" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I131" t="s">
         <v>70</v>
@@ -7488,16 +7509,16 @@
         <v>63</v>
       </c>
       <c r="G132" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H132" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I132" t="s">
         <v>66</v>
       </c>
       <c r="J132" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="K132" t="s">
         <v>68</v>
@@ -7514,16 +7535,16 @@
         <v>63</v>
       </c>
       <c r="G133" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H133" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I133" t="s">
         <v>70</v>
       </c>
       <c r="J133" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="K133" t="s">
         <v>68</v>
@@ -7540,7 +7561,7 @@
         <v>63</v>
       </c>
       <c r="G134" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H134" t="s">
         <v>227</v>
@@ -7566,7 +7587,7 @@
         <v>63</v>
       </c>
       <c r="G135" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H135" t="s">
         <v>227</v>
@@ -7592,7 +7613,7 @@
         <v>63</v>
       </c>
       <c r="G136" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H136" t="s">
         <v>230</v>
@@ -7618,7 +7639,7 @@
         <v>63</v>
       </c>
       <c r="G137" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H137" t="s">
         <v>230</v>
@@ -7644,7 +7665,7 @@
         <v>63</v>
       </c>
       <c r="G138" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H138" t="s">
         <v>233</v>
@@ -7670,7 +7691,7 @@
         <v>63</v>
       </c>
       <c r="G139" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H139" t="s">
         <v>233</v>
@@ -7696,16 +7717,16 @@
         <v>63</v>
       </c>
       <c r="G140" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H140" t="s">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="I140" t="s">
         <v>66</v>
       </c>
       <c r="J140" t="s">
-        <v>181</v>
+        <v>237</v>
       </c>
       <c r="K140" t="s">
         <v>68</v>
@@ -7722,16 +7743,16 @@
         <v>63</v>
       </c>
       <c r="G141" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H141" t="s">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="I141" t="s">
         <v>70</v>
       </c>
       <c r="J141" t="s">
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="K141" t="s">
         <v>68</v>
@@ -7748,16 +7769,16 @@
         <v>63</v>
       </c>
       <c r="G142" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H142" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="I142" t="s">
         <v>66</v>
       </c>
       <c r="J142" t="s">
-        <v>237</v>
+        <v>183</v>
       </c>
       <c r="K142" t="s">
         <v>68</v>
@@ -7774,16 +7795,16 @@
         <v>63</v>
       </c>
       <c r="G143" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H143" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="I143" t="s">
         <v>70</v>
       </c>
       <c r="J143" t="s">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="K143" t="s">
         <v>68</v>
@@ -7800,16 +7821,16 @@
         <v>63</v>
       </c>
       <c r="G144" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H144" t="s">
-        <v>94</v>
+        <v>239</v>
       </c>
       <c r="I144" t="s">
         <v>66</v>
       </c>
       <c r="J144" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K144" t="s">
         <v>68</v>
@@ -7826,16 +7847,16 @@
         <v>63</v>
       </c>
       <c r="G145" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H145" t="s">
-        <v>94</v>
+        <v>239</v>
       </c>
       <c r="I145" t="s">
         <v>70</v>
       </c>
       <c r="J145" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K145" t="s">
         <v>68</v>
@@ -7852,16 +7873,16 @@
         <v>63</v>
       </c>
       <c r="G146" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H146" t="s">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="I146" t="s">
         <v>66</v>
       </c>
       <c r="J146" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K146" t="s">
         <v>68</v>
@@ -7878,16 +7899,16 @@
         <v>63</v>
       </c>
       <c r="G147" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H147" t="s">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="I147" t="s">
         <v>70</v>
       </c>
       <c r="J147" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="K147" t="s">
         <v>68</v>
@@ -7904,10 +7925,10 @@
         <v>63</v>
       </c>
       <c r="G148" t="s">
-        <v>242</v>
+        <v>191</v>
       </c>
       <c r="H148" t="s">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="I148" t="s">
         <v>66</v>
@@ -7930,16 +7951,16 @@
         <v>63</v>
       </c>
       <c r="G149" t="s">
-        <v>242</v>
+        <v>191</v>
       </c>
       <c r="H149" t="s">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="I149" t="s">
         <v>70</v>
       </c>
       <c r="J149" t="s">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="K149" t="s">
         <v>68</v>
@@ -7956,7 +7977,7 @@
         <v>63</v>
       </c>
       <c r="G150" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H150" t="s">
         <v>246</v>
@@ -7982,7 +8003,7 @@
         <v>63</v>
       </c>
       <c r="G151" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H151" t="s">
         <v>246</v>
@@ -8008,7 +8029,7 @@
         <v>63</v>
       </c>
       <c r="G152" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H152" t="s">
         <v>249</v>
@@ -8034,7 +8055,7 @@
         <v>63</v>
       </c>
       <c r="G153" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H153" t="s">
         <v>249</v>
@@ -8060,7 +8081,7 @@
         <v>63</v>
       </c>
       <c r="G154" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H154" t="s">
         <v>252</v>
@@ -8086,7 +8107,7 @@
         <v>63</v>
       </c>
       <c r="G155" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H155" t="s">
         <v>252</v>
@@ -8112,7 +8133,7 @@
         <v>63</v>
       </c>
       <c r="G156" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H156" t="s">
         <v>255</v>
@@ -8138,7 +8159,7 @@
         <v>63</v>
       </c>
       <c r="G157" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H157" t="s">
         <v>255</v>
@@ -8164,7 +8185,7 @@
         <v>63</v>
       </c>
       <c r="G158" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H158" t="s">
         <v>258</v>
@@ -8190,7 +8211,7 @@
         <v>63</v>
       </c>
       <c r="G159" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H159" t="s">
         <v>258</v>
@@ -8216,7 +8237,7 @@
         <v>63</v>
       </c>
       <c r="G160" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H160" t="s">
         <v>261</v>
@@ -8242,7 +8263,7 @@
         <v>63</v>
       </c>
       <c r="G161" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H161" t="s">
         <v>261</v>
@@ -8268,7 +8289,7 @@
         <v>63</v>
       </c>
       <c r="G162" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H162" t="s">
         <v>264</v>
@@ -8294,7 +8315,7 @@
         <v>63</v>
       </c>
       <c r="G163" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H163" t="s">
         <v>264</v>
@@ -8320,7 +8341,7 @@
         <v>63</v>
       </c>
       <c r="G164" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H164" t="s">
         <v>267</v>
@@ -8346,7 +8367,7 @@
         <v>63</v>
       </c>
       <c r="G165" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H165" t="s">
         <v>267</v>
@@ -8372,7 +8393,7 @@
         <v>63</v>
       </c>
       <c r="G166" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H166" t="s">
         <v>270</v>
@@ -8381,7 +8402,7 @@
         <v>66</v>
       </c>
       <c r="J166" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="K166" t="s">
         <v>68</v>
@@ -8398,7 +8419,7 @@
         <v>63</v>
       </c>
       <c r="G167" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H167" t="s">
         <v>270</v>
@@ -8407,7 +8428,7 @@
         <v>70</v>
       </c>
       <c r="J167" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K167" t="s">
         <v>68</v>
@@ -8424,16 +8445,16 @@
         <v>63</v>
       </c>
       <c r="G168" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H168" t="s">
+        <v>273</v>
+      </c>
+      <c r="I168" t="s">
+        <v>66</v>
+      </c>
+      <c r="J168" t="s">
         <v>271</v>
-      </c>
-      <c r="I168" t="s">
-        <v>66</v>
-      </c>
-      <c r="J168" t="s">
-        <v>272</v>
       </c>
       <c r="K168" t="s">
         <v>68</v>
@@ -8450,16 +8471,16 @@
         <v>63</v>
       </c>
       <c r="G169" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H169" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I169" t="s">
         <v>70</v>
       </c>
       <c r="J169" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K169" t="s">
         <v>68</v>
@@ -8476,16 +8497,16 @@
         <v>63</v>
       </c>
       <c r="G170" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H170" t="s">
-        <v>94</v>
+        <v>274</v>
       </c>
       <c r="I170" t="s">
         <v>66</v>
       </c>
       <c r="J170" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K170" t="s">
         <v>68</v>
@@ -8502,16 +8523,16 @@
         <v>63</v>
       </c>
       <c r="G171" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H171" t="s">
-        <v>94</v>
+        <v>274</v>
       </c>
       <c r="I171" t="s">
         <v>70</v>
       </c>
       <c r="J171" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K171" t="s">
         <v>68</v>
@@ -8528,16 +8549,16 @@
         <v>63</v>
       </c>
       <c r="G172" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H172" t="s">
-        <v>276</v>
+        <v>94</v>
       </c>
       <c r="I172" t="s">
         <v>66</v>
       </c>
       <c r="J172" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K172" t="s">
         <v>68</v>
@@ -8554,16 +8575,16 @@
         <v>63</v>
       </c>
       <c r="G173" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H173" t="s">
-        <v>276</v>
+        <v>94</v>
       </c>
       <c r="I173" t="s">
         <v>70</v>
       </c>
       <c r="J173" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K173" t="s">
         <v>68</v>
@@ -8580,16 +8601,16 @@
         <v>63</v>
       </c>
       <c r="G174" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H174" t="s">
+        <v>279</v>
+      </c>
+      <c r="I174" t="s">
+        <v>66</v>
+      </c>
+      <c r="J174" t="s">
         <v>277</v>
-      </c>
-      <c r="I174" t="s">
-        <v>66</v>
-      </c>
-      <c r="J174" t="s">
-        <v>274</v>
       </c>
       <c r="K174" t="s">
         <v>68</v>
@@ -8606,16 +8627,16 @@
         <v>63</v>
       </c>
       <c r="G175" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H175" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I175" t="s">
         <v>70</v>
       </c>
       <c r="J175" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K175" t="s">
         <v>68</v>
@@ -8632,16 +8653,16 @@
         <v>63</v>
       </c>
       <c r="G176" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H176" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I176" t="s">
         <v>66</v>
       </c>
       <c r="J176" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K176" t="s">
         <v>68</v>
@@ -8658,16 +8679,16 @@
         <v>63</v>
       </c>
       <c r="G177" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H177" t="s">
+        <v>280</v>
+      </c>
+      <c r="I177" t="s">
+        <v>70</v>
+      </c>
+      <c r="J177" t="s">
         <v>278</v>
-      </c>
-      <c r="I177" t="s">
-        <v>70</v>
-      </c>
-      <c r="J177" t="s">
-        <v>280</v>
       </c>
       <c r="K177" t="s">
         <v>68</v>
@@ -8684,16 +8705,16 @@
         <v>63</v>
       </c>
       <c r="G178" t="s">
+        <v>245</v>
+      </c>
+      <c r="H178" t="s">
         <v>281</v>
       </c>
-      <c r="H178" t="s">
+      <c r="I178" t="s">
+        <v>66</v>
+      </c>
+      <c r="J178" t="s">
         <v>282</v>
-      </c>
-      <c r="I178" t="s">
-        <v>66</v>
-      </c>
-      <c r="J178" t="s">
-        <v>283</v>
       </c>
       <c r="K178" t="s">
         <v>68</v>
@@ -8710,10 +8731,10 @@
         <v>63</v>
       </c>
       <c r="G179" t="s">
+        <v>245</v>
+      </c>
+      <c r="H179" t="s">
         <v>281</v>
-      </c>
-      <c r="H179" t="s">
-        <v>282</v>
       </c>
       <c r="I179" t="s">
         <v>70</v>
@@ -8736,16 +8757,16 @@
         <v>63</v>
       </c>
       <c r="G180" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H180" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I180" t="s">
         <v>66</v>
       </c>
       <c r="J180" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K180" t="s">
         <v>68</v>
@@ -8762,16 +8783,16 @@
         <v>63</v>
       </c>
       <c r="G181" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H181" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I181" t="s">
         <v>70</v>
       </c>
       <c r="J181" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K181" t="s">
         <v>68</v>
@@ -8788,16 +8809,16 @@
         <v>63</v>
       </c>
       <c r="G182" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H182" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I182" t="s">
         <v>66</v>
       </c>
       <c r="J182" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K182" t="s">
         <v>68</v>
@@ -8814,16 +8835,16 @@
         <v>63</v>
       </c>
       <c r="G183" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H183" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I183" t="s">
         <v>70</v>
       </c>
       <c r="J183" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K183" t="s">
         <v>68</v>
@@ -8840,16 +8861,16 @@
         <v>63</v>
       </c>
       <c r="G184" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H184" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I184" t="s">
         <v>66</v>
       </c>
       <c r="J184" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K184" t="s">
         <v>68</v>
@@ -8866,10 +8887,10 @@
         <v>63</v>
       </c>
       <c r="G185" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H185" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I185" t="s">
         <v>70</v>
@@ -8892,7 +8913,7 @@
         <v>63</v>
       </c>
       <c r="G186" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H186" t="s">
         <v>291</v>
@@ -8918,7 +8939,7 @@
         <v>63</v>
       </c>
       <c r="G187" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H187" t="s">
         <v>291</v>
@@ -8944,7 +8965,7 @@
         <v>63</v>
       </c>
       <c r="G188" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H188" t="s">
         <v>294</v>
@@ -8970,7 +8991,7 @@
         <v>63</v>
       </c>
       <c r="G189" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H189" t="s">
         <v>294</v>
@@ -8979,7 +9000,7 @@
         <v>70</v>
       </c>
       <c r="J189" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K189" t="s">
         <v>68</v>
@@ -8996,16 +9017,16 @@
         <v>63</v>
       </c>
       <c r="G190" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H190" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I190" t="s">
         <v>66</v>
       </c>
       <c r="J190" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K190" t="s">
         <v>68</v>
@@ -9022,10 +9043,10 @@
         <v>63</v>
       </c>
       <c r="G191" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H191" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I191" t="s">
         <v>70</v>
@@ -9048,7 +9069,7 @@
         <v>63</v>
       </c>
       <c r="G192" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H192" t="s">
         <v>299</v>
@@ -9057,7 +9078,7 @@
         <v>66</v>
       </c>
       <c r="J192" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="K192" t="s">
         <v>68</v>
@@ -9074,7 +9095,7 @@
         <v>63</v>
       </c>
       <c r="G193" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H193" t="s">
         <v>299</v>
@@ -9083,7 +9104,7 @@
         <v>70</v>
       </c>
       <c r="J193" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="K193" t="s">
         <v>68</v>
@@ -9100,16 +9121,16 @@
         <v>63</v>
       </c>
       <c r="G194" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H194" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I194" t="s">
         <v>66</v>
       </c>
       <c r="J194" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="K194" t="s">
         <v>68</v>
@@ -9126,16 +9147,16 @@
         <v>63</v>
       </c>
       <c r="G195" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H195" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I195" t="s">
         <v>70</v>
       </c>
       <c r="J195" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="K195" t="s">
         <v>68</v>
@@ -9152,7 +9173,7 @@
         <v>63</v>
       </c>
       <c r="G196" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H196" t="s">
         <v>303</v>
@@ -9167,7 +9188,7 @@
         <v>68</v>
       </c>
       <c r="L196" t="s">
-        <v>69</v>
+        <v>189</v>
       </c>
     </row>
     <row r="197">
@@ -9178,7 +9199,7 @@
         <v>63</v>
       </c>
       <c r="G197" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H197" t="s">
         <v>303</v>
@@ -9193,7 +9214,7 @@
         <v>68</v>
       </c>
       <c r="L197" t="s">
-        <v>69</v>
+        <v>189</v>
       </c>
     </row>
     <row r="198">
@@ -9204,7 +9225,7 @@
         <v>63</v>
       </c>
       <c r="G198" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H198" t="s">
         <v>306</v>
@@ -9230,7 +9251,7 @@
         <v>63</v>
       </c>
       <c r="G199" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H199" t="s">
         <v>306</v>
@@ -9256,7 +9277,7 @@
         <v>63</v>
       </c>
       <c r="G200" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H200" t="s">
         <v>309</v>
@@ -9282,7 +9303,7 @@
         <v>63</v>
       </c>
       <c r="G201" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H201" t="s">
         <v>309</v>
@@ -9308,7 +9329,7 @@
         <v>63</v>
       </c>
       <c r="G202" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H202" t="s">
         <v>312</v>
@@ -9323,7 +9344,7 @@
         <v>68</v>
       </c>
       <c r="L202" t="s">
-        <v>69</v>
+        <v>314</v>
       </c>
     </row>
     <row r="203">
@@ -9334,7 +9355,7 @@
         <v>63</v>
       </c>
       <c r="G203" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H203" t="s">
         <v>312</v>
@@ -9343,13 +9364,13 @@
         <v>70</v>
       </c>
       <c r="J203" t="s">
+        <v>315</v>
+      </c>
+      <c r="K203" t="s">
+        <v>68</v>
+      </c>
+      <c r="L203" t="s">
         <v>314</v>
-      </c>
-      <c r="K203" t="s">
-        <v>68</v>
-      </c>
-      <c r="L203" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="204">
@@ -9360,16 +9381,16 @@
         <v>63</v>
       </c>
       <c r="G204" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H204" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I204" t="s">
         <v>66</v>
       </c>
       <c r="J204" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K204" t="s">
         <v>68</v>
@@ -9386,16 +9407,16 @@
         <v>63</v>
       </c>
       <c r="G205" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H205" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I205" t="s">
         <v>70</v>
       </c>
       <c r="J205" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K205" t="s">
         <v>68</v>
@@ -9412,16 +9433,16 @@
         <v>63</v>
       </c>
       <c r="G206" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H206" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I206" t="s">
         <v>66</v>
       </c>
       <c r="J206" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K206" t="s">
         <v>68</v>
@@ -9438,16 +9459,16 @@
         <v>63</v>
       </c>
       <c r="G207" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H207" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I207" t="s">
         <v>70</v>
       </c>
       <c r="J207" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K207" t="s">
         <v>68</v>
@@ -9464,16 +9485,16 @@
         <v>63</v>
       </c>
       <c r="G208" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H208" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I208" t="s">
         <v>66</v>
       </c>
       <c r="J208" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K208" t="s">
         <v>68</v>
@@ -9490,16 +9511,16 @@
         <v>63</v>
       </c>
       <c r="G209" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H209" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I209" t="s">
         <v>70</v>
       </c>
       <c r="J209" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K209" t="s">
         <v>68</v>
@@ -9516,16 +9537,16 @@
         <v>63</v>
       </c>
       <c r="G210" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H210" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I210" t="s">
         <v>66</v>
       </c>
       <c r="J210" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K210" t="s">
         <v>68</v>
@@ -9542,16 +9563,16 @@
         <v>63</v>
       </c>
       <c r="G211" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H211" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I211" t="s">
         <v>70</v>
       </c>
       <c r="J211" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K211" t="s">
         <v>68</v>
@@ -9568,16 +9589,16 @@
         <v>63</v>
       </c>
       <c r="G212" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H212" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I212" t="s">
         <v>66</v>
       </c>
       <c r="J212" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K212" t="s">
         <v>68</v>
@@ -9594,16 +9615,16 @@
         <v>63</v>
       </c>
       <c r="G213" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H213" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I213" t="s">
         <v>70</v>
       </c>
       <c r="J213" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K213" t="s">
         <v>68</v>
@@ -9620,16 +9641,16 @@
         <v>63</v>
       </c>
       <c r="G214" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H214" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I214" t="s">
         <v>66</v>
       </c>
       <c r="J214" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K214" t="s">
         <v>68</v>
@@ -9646,16 +9667,16 @@
         <v>63</v>
       </c>
       <c r="G215" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H215" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I215" t="s">
         <v>70</v>
       </c>
       <c r="J215" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K215" t="s">
         <v>68</v>
@@ -9672,16 +9693,16 @@
         <v>63</v>
       </c>
       <c r="G216" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H216" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I216" t="s">
         <v>66</v>
       </c>
       <c r="J216" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K216" t="s">
         <v>68</v>
@@ -9698,10 +9719,10 @@
         <v>63</v>
       </c>
       <c r="G217" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H217" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I217" t="s">
         <v>70</v>
@@ -9724,7 +9745,7 @@
         <v>63</v>
       </c>
       <c r="G218" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H218" t="s">
         <v>335</v>
@@ -9750,7 +9771,7 @@
         <v>63</v>
       </c>
       <c r="G219" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H219" t="s">
         <v>335</v>
@@ -9776,7 +9797,7 @@
         <v>63</v>
       </c>
       <c r="G220" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H220" t="s">
         <v>338</v>
@@ -9802,7 +9823,7 @@
         <v>63</v>
       </c>
       <c r="G221" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H221" t="s">
         <v>338</v>
@@ -9828,7 +9849,7 @@
         <v>63</v>
       </c>
       <c r="G222" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H222" t="s">
         <v>341</v>
@@ -9854,7 +9875,7 @@
         <v>63</v>
       </c>
       <c r="G223" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H223" t="s">
         <v>341</v>
@@ -9880,7 +9901,7 @@
         <v>63</v>
       </c>
       <c r="G224" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H224" t="s">
         <v>344</v>
@@ -9906,7 +9927,7 @@
         <v>63</v>
       </c>
       <c r="G225" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H225" t="s">
         <v>344</v>
@@ -9915,7 +9936,7 @@
         <v>70</v>
       </c>
       <c r="J225" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K225" t="s">
         <v>68</v>
@@ -9932,16 +9953,16 @@
         <v>63</v>
       </c>
       <c r="G226" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H226" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I226" t="s">
         <v>66</v>
       </c>
       <c r="J226" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K226" t="s">
         <v>68</v>
@@ -9958,16 +9979,16 @@
         <v>63</v>
       </c>
       <c r="G227" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H227" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I227" t="s">
         <v>70</v>
       </c>
       <c r="J227" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K227" t="s">
         <v>68</v>
@@ -9984,16 +10005,16 @@
         <v>63</v>
       </c>
       <c r="G228" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H228" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I228" t="s">
         <v>66</v>
       </c>
       <c r="J228" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K228" t="s">
         <v>68</v>
@@ -10010,10 +10031,10 @@
         <v>63</v>
       </c>
       <c r="G229" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H229" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I229" t="s">
         <v>70</v>
@@ -10036,16 +10057,16 @@
         <v>63</v>
       </c>
       <c r="G230" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H230" t="s">
-        <v>94</v>
+        <v>352</v>
       </c>
       <c r="I230" t="s">
         <v>66</v>
       </c>
       <c r="J230" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K230" t="s">
         <v>68</v>
@@ -10062,16 +10083,16 @@
         <v>63</v>
       </c>
       <c r="G231" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H231" t="s">
-        <v>94</v>
+        <v>352</v>
       </c>
       <c r="I231" t="s">
         <v>70</v>
       </c>
       <c r="J231" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K231" t="s">
         <v>68</v>
@@ -10088,16 +10109,16 @@
         <v>63</v>
       </c>
       <c r="G232" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H232" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I232" t="s">
         <v>66</v>
       </c>
       <c r="J232" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K232" t="s">
         <v>68</v>
@@ -10114,16 +10135,16 @@
         <v>63</v>
       </c>
       <c r="G233" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H233" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I233" t="s">
         <v>70</v>
       </c>
       <c r="J233" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K233" t="s">
         <v>68</v>
@@ -10140,10 +10161,10 @@
         <v>63</v>
       </c>
       <c r="G234" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H234" t="s">
-        <v>357</v>
+        <v>94</v>
       </c>
       <c r="I234" t="s">
         <v>66</v>
@@ -10166,10 +10187,10 @@
         <v>63</v>
       </c>
       <c r="G235" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H235" t="s">
-        <v>357</v>
+        <v>94</v>
       </c>
       <c r="I235" t="s">
         <v>70</v>
@@ -10192,7 +10213,7 @@
         <v>63</v>
       </c>
       <c r="G236" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H236" t="s">
         <v>360</v>
@@ -10201,13 +10222,13 @@
         <v>66</v>
       </c>
       <c r="J236" t="s">
-        <v>67</v>
+        <v>361</v>
       </c>
       <c r="K236" t="s">
         <v>68</v>
       </c>
       <c r="L236" t="s">
-        <v>69</v>
+        <v>314</v>
       </c>
     </row>
     <row r="237">
@@ -10218,7 +10239,7 @@
         <v>63</v>
       </c>
       <c r="G237" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H237" t="s">
         <v>360</v>
@@ -10227,13 +10248,13 @@
         <v>70</v>
       </c>
       <c r="J237" t="s">
-        <v>71</v>
+        <v>362</v>
       </c>
       <c r="K237" t="s">
         <v>68</v>
       </c>
       <c r="L237" t="s">
-        <v>69</v>
+        <v>314</v>
       </c>
     </row>
     <row r="238">
@@ -10244,22 +10265,22 @@
         <v>63</v>
       </c>
       <c r="G238" t="s">
-        <v>361</v>
+        <v>284</v>
       </c>
       <c r="H238" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I238" t="s">
         <v>66</v>
       </c>
       <c r="J238" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K238" t="s">
         <v>68</v>
       </c>
       <c r="L238" t="s">
-        <v>69</v>
+        <v>314</v>
       </c>
     </row>
     <row r="239">
@@ -10270,22 +10291,22 @@
         <v>63</v>
       </c>
       <c r="G239" t="s">
-        <v>361</v>
+        <v>284</v>
       </c>
       <c r="H239" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I239" t="s">
         <v>70</v>
       </c>
       <c r="J239" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K239" t="s">
         <v>68</v>
       </c>
       <c r="L239" t="s">
-        <v>69</v>
+        <v>314</v>
       </c>
     </row>
     <row r="240">
@@ -10296,16 +10317,16 @@
         <v>63</v>
       </c>
       <c r="G240" t="s">
-        <v>361</v>
+        <v>284</v>
       </c>
       <c r="H240" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I240" t="s">
         <v>66</v>
       </c>
       <c r="J240" t="s">
-        <v>366</v>
+        <v>67</v>
       </c>
       <c r="K240" t="s">
         <v>68</v>
@@ -10322,16 +10343,16 @@
         <v>63</v>
       </c>
       <c r="G241" t="s">
-        <v>361</v>
+        <v>284</v>
       </c>
       <c r="H241" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I241" t="s">
         <v>70</v>
       </c>
       <c r="J241" t="s">
-        <v>367</v>
+        <v>71</v>
       </c>
       <c r="K241" t="s">
         <v>68</v>
@@ -10348,7 +10369,7 @@
         <v>63</v>
       </c>
       <c r="G242" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H242" t="s">
         <v>368</v>
@@ -10374,7 +10395,7 @@
         <v>63</v>
       </c>
       <c r="G243" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H243" t="s">
         <v>368</v>
@@ -10400,7 +10421,7 @@
         <v>63</v>
       </c>
       <c r="G244" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H244" t="s">
         <v>371</v>
@@ -10415,7 +10436,7 @@
         <v>68</v>
       </c>
       <c r="L244" t="s">
-        <v>69</v>
+        <v>314</v>
       </c>
     </row>
     <row r="245">
@@ -10426,7 +10447,7 @@
         <v>63</v>
       </c>
       <c r="G245" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H245" t="s">
         <v>371</v>
@@ -10435,13 +10456,13 @@
         <v>70</v>
       </c>
       <c r="J245" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K245" t="s">
         <v>68</v>
       </c>
       <c r="L245" t="s">
-        <v>69</v>
+        <v>314</v>
       </c>
     </row>
     <row r="246">
@@ -10452,16 +10473,16 @@
         <v>63</v>
       </c>
       <c r="G246" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H246" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I246" t="s">
         <v>66</v>
       </c>
       <c r="J246" t="s">
-        <v>250</v>
+        <v>375</v>
       </c>
       <c r="K246" t="s">
         <v>68</v>
@@ -10478,16 +10499,16 @@
         <v>63</v>
       </c>
       <c r="G247" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H247" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I247" t="s">
         <v>70</v>
       </c>
       <c r="J247" t="s">
-        <v>251</v>
+        <v>376</v>
       </c>
       <c r="K247" t="s">
         <v>68</v>
@@ -10504,16 +10525,16 @@
         <v>63</v>
       </c>
       <c r="G248" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H248" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="I248" t="s">
         <v>66</v>
       </c>
       <c r="J248" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="K248" t="s">
         <v>68</v>
@@ -10530,16 +10551,16 @@
         <v>63</v>
       </c>
       <c r="G249" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H249" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="I249" t="s">
         <v>70</v>
       </c>
       <c r="J249" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K249" t="s">
         <v>68</v>
@@ -10556,16 +10577,16 @@
         <v>63</v>
       </c>
       <c r="G250" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H250" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="I250" t="s">
         <v>66</v>
       </c>
       <c r="J250" t="s">
-        <v>378</v>
+        <v>253</v>
       </c>
       <c r="K250" t="s">
         <v>68</v>
@@ -10582,16 +10603,16 @@
         <v>63</v>
       </c>
       <c r="G251" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H251" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="I251" t="s">
         <v>70</v>
       </c>
       <c r="J251" t="s">
-        <v>379</v>
+        <v>254</v>
       </c>
       <c r="K251" t="s">
         <v>68</v>
@@ -10608,7 +10629,7 @@
         <v>63</v>
       </c>
       <c r="G252" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H252" t="s">
         <v>380</v>
@@ -10634,7 +10655,7 @@
         <v>63</v>
       </c>
       <c r="G253" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H253" t="s">
         <v>380</v>
@@ -10660,7 +10681,7 @@
         <v>63</v>
       </c>
       <c r="G254" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H254" t="s">
         <v>383</v>
@@ -10686,7 +10707,7 @@
         <v>63</v>
       </c>
       <c r="G255" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H255" t="s">
         <v>383</v>
@@ -10712,7 +10733,7 @@
         <v>63</v>
       </c>
       <c r="G256" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H256" t="s">
         <v>386</v>
@@ -10738,7 +10759,7 @@
         <v>63</v>
       </c>
       <c r="G257" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H257" t="s">
         <v>386</v>
@@ -10764,7 +10785,7 @@
         <v>63</v>
       </c>
       <c r="G258" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H258" t="s">
         <v>389</v>
@@ -10790,7 +10811,7 @@
         <v>63</v>
       </c>
       <c r="G259" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H259" t="s">
         <v>389</v>
@@ -10816,7 +10837,7 @@
         <v>63</v>
       </c>
       <c r="G260" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H260" t="s">
         <v>392</v>
@@ -10831,7 +10852,7 @@
         <v>68</v>
       </c>
       <c r="L260" t="s">
-        <v>394</v>
+        <v>69</v>
       </c>
     </row>
     <row r="261">
@@ -10842,7 +10863,7 @@
         <v>63</v>
       </c>
       <c r="G261" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H261" t="s">
         <v>392</v>
@@ -10851,13 +10872,13 @@
         <v>70</v>
       </c>
       <c r="J261" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K261" t="s">
         <v>68</v>
       </c>
       <c r="L261" t="s">
-        <v>394</v>
+        <v>69</v>
       </c>
     </row>
     <row r="262">
@@ -10868,16 +10889,16 @@
         <v>63</v>
       </c>
       <c r="G262" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H262" t="s">
+        <v>395</v>
+      </c>
+      <c r="I262" t="s">
+        <v>66</v>
+      </c>
+      <c r="J262" t="s">
         <v>396</v>
-      </c>
-      <c r="I262" t="s">
-        <v>66</v>
-      </c>
-      <c r="J262" t="s">
-        <v>397</v>
       </c>
       <c r="K262" t="s">
         <v>68</v>
@@ -10894,16 +10915,16 @@
         <v>63</v>
       </c>
       <c r="G263" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H263" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I263" t="s">
         <v>70</v>
       </c>
       <c r="J263" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K263" t="s">
         <v>68</v>
@@ -10920,22 +10941,22 @@
         <v>63</v>
       </c>
       <c r="G264" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H264" t="s">
+        <v>398</v>
+      </c>
+      <c r="I264" t="s">
+        <v>66</v>
+      </c>
+      <c r="J264" t="s">
         <v>399</v>
       </c>
-      <c r="I264" t="s">
-        <v>66</v>
-      </c>
-      <c r="J264" t="s">
+      <c r="K264" t="s">
+        <v>68</v>
+      </c>
+      <c r="L264" t="s">
         <v>400</v>
-      </c>
-      <c r="K264" t="s">
-        <v>68</v>
-      </c>
-      <c r="L264" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="265">
@@ -10946,10 +10967,10 @@
         <v>63</v>
       </c>
       <c r="G265" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H265" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I265" t="s">
         <v>70</v>
@@ -10961,7 +10982,7 @@
         <v>68</v>
       </c>
       <c r="L265" t="s">
-        <v>69</v>
+        <v>400</v>
       </c>
     </row>
     <row r="266">
@@ -10972,7 +10993,7 @@
         <v>63</v>
       </c>
       <c r="G266" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H266" t="s">
         <v>402</v>
@@ -10998,7 +11019,7 @@
         <v>63</v>
       </c>
       <c r="G267" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H267" t="s">
         <v>402</v>
@@ -11007,7 +11028,7 @@
         <v>70</v>
       </c>
       <c r="J267" t="s">
-        <v>93</v>
+        <v>404</v>
       </c>
       <c r="K267" t="s">
         <v>68</v>
@@ -11024,16 +11045,16 @@
         <v>63</v>
       </c>
       <c r="G268" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H268" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I268" t="s">
         <v>66</v>
       </c>
       <c r="J268" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="K268" t="s">
         <v>68</v>
@@ -11050,16 +11071,16 @@
         <v>63</v>
       </c>
       <c r="G269" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H269" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I269" t="s">
         <v>70</v>
       </c>
       <c r="J269" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="K269" t="s">
         <v>68</v>
@@ -11076,16 +11097,16 @@
         <v>63</v>
       </c>
       <c r="G270" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H270" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="I270" t="s">
         <v>66</v>
       </c>
       <c r="J270" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="K270" t="s">
         <v>68</v>
@@ -11102,16 +11123,16 @@
         <v>63</v>
       </c>
       <c r="G271" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H271" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="I271" t="s">
         <v>70</v>
       </c>
       <c r="J271" t="s">
-        <v>407</v>
+        <v>93</v>
       </c>
       <c r="K271" t="s">
         <v>68</v>
@@ -11128,22 +11149,22 @@
         <v>63</v>
       </c>
       <c r="G272" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H272" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="I272" t="s">
         <v>66</v>
       </c>
       <c r="J272" t="s">
-        <v>409</v>
+        <v>372</v>
       </c>
       <c r="K272" t="s">
         <v>68</v>
       </c>
       <c r="L272" t="s">
-        <v>69</v>
+        <v>314</v>
       </c>
     </row>
     <row r="273">
@@ -11154,22 +11175,22 @@
         <v>63</v>
       </c>
       <c r="G273" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H273" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="I273" t="s">
         <v>70</v>
       </c>
       <c r="J273" t="s">
-        <v>410</v>
+        <v>373</v>
       </c>
       <c r="K273" t="s">
         <v>68</v>
       </c>
       <c r="L273" t="s">
-        <v>69</v>
+        <v>314</v>
       </c>
     </row>
     <row r="274">
@@ -11180,7 +11201,7 @@
         <v>63</v>
       </c>
       <c r="G274" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H274" t="s">
         <v>411</v>
@@ -11195,7 +11216,7 @@
         <v>68</v>
       </c>
       <c r="L274" t="s">
-        <v>69</v>
+        <v>413</v>
       </c>
     </row>
     <row r="275">
@@ -11206,7 +11227,7 @@
         <v>63</v>
       </c>
       <c r="G275" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H275" t="s">
         <v>411</v>
@@ -11215,13 +11236,13 @@
         <v>70</v>
       </c>
       <c r="J275" t="s">
+        <v>414</v>
+      </c>
+      <c r="K275" t="s">
+        <v>68</v>
+      </c>
+      <c r="L275" t="s">
         <v>413</v>
-      </c>
-      <c r="K275" t="s">
-        <v>68</v>
-      </c>
-      <c r="L275" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="276">
@@ -11232,16 +11253,16 @@
         <v>63</v>
       </c>
       <c r="G276" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H276" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I276" t="s">
         <v>66</v>
       </c>
       <c r="J276" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K276" t="s">
         <v>68</v>
@@ -11258,16 +11279,16 @@
         <v>63</v>
       </c>
       <c r="G277" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H277" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I277" t="s">
         <v>70</v>
       </c>
       <c r="J277" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K277" t="s">
         <v>68</v>
@@ -11284,16 +11305,16 @@
         <v>63</v>
       </c>
       <c r="G278" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H278" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I278" t="s">
         <v>66</v>
       </c>
       <c r="J278" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K278" t="s">
         <v>68</v>
@@ -11310,16 +11331,16 @@
         <v>63</v>
       </c>
       <c r="G279" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H279" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I279" t="s">
         <v>70</v>
       </c>
       <c r="J279" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K279" t="s">
         <v>68</v>
@@ -11336,16 +11357,16 @@
         <v>63</v>
       </c>
       <c r="G280" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H280" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I280" t="s">
         <v>66</v>
       </c>
       <c r="J280" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K280" t="s">
         <v>68</v>
@@ -11362,16 +11383,16 @@
         <v>63</v>
       </c>
       <c r="G281" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H281" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I281" t="s">
         <v>70</v>
       </c>
       <c r="J281" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K281" t="s">
         <v>68</v>
@@ -11388,16 +11409,16 @@
         <v>63</v>
       </c>
       <c r="G282" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H282" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I282" t="s">
         <v>66</v>
       </c>
       <c r="J282" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K282" t="s">
         <v>68</v>
@@ -11414,16 +11435,16 @@
         <v>63</v>
       </c>
       <c r="G283" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H283" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I283" t="s">
         <v>70</v>
       </c>
       <c r="J283" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K283" t="s">
         <v>68</v>
@@ -11440,16 +11461,16 @@
         <v>63</v>
       </c>
       <c r="G284" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H284" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I284" t="s">
         <v>66</v>
       </c>
       <c r="J284" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K284" t="s">
         <v>68</v>
@@ -11466,16 +11487,16 @@
         <v>63</v>
       </c>
       <c r="G285" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H285" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I285" t="s">
         <v>70</v>
       </c>
       <c r="J285" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K285" t="s">
         <v>68</v>
@@ -11492,16 +11513,16 @@
         <v>63</v>
       </c>
       <c r="G286" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H286" t="s">
-        <v>233</v>
+        <v>430</v>
       </c>
       <c r="I286" t="s">
         <v>66</v>
       </c>
       <c r="J286" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K286" t="s">
         <v>68</v>
@@ -11518,16 +11539,16 @@
         <v>63</v>
       </c>
       <c r="G287" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H287" t="s">
-        <v>233</v>
+        <v>430</v>
       </c>
       <c r="I287" t="s">
         <v>70</v>
       </c>
       <c r="J287" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="K287" t="s">
         <v>68</v>
@@ -11544,16 +11565,16 @@
         <v>63</v>
       </c>
       <c r="G288" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H288" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="I288" t="s">
         <v>66</v>
       </c>
       <c r="J288" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K288" t="s">
         <v>68</v>
@@ -11570,16 +11591,16 @@
         <v>63</v>
       </c>
       <c r="G289" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H289" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="I289" t="s">
         <v>70</v>
       </c>
       <c r="J289" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K289" t="s">
         <v>68</v>
@@ -11596,16 +11617,16 @@
         <v>63</v>
       </c>
       <c r="G290" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H290" t="s">
-        <v>434</v>
+        <v>236</v>
       </c>
       <c r="I290" t="s">
         <v>66</v>
       </c>
       <c r="J290" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K290" t="s">
         <v>68</v>
@@ -11622,16 +11643,16 @@
         <v>63</v>
       </c>
       <c r="G291" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H291" t="s">
-        <v>434</v>
+        <v>236</v>
       </c>
       <c r="I291" t="s">
         <v>70</v>
       </c>
       <c r="J291" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K291" t="s">
         <v>68</v>
@@ -11648,16 +11669,16 @@
         <v>63</v>
       </c>
       <c r="G292" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H292" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I292" t="s">
         <v>66</v>
       </c>
       <c r="J292" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K292" t="s">
         <v>68</v>
@@ -11674,16 +11695,16 @@
         <v>63</v>
       </c>
       <c r="G293" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H293" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I293" t="s">
         <v>70</v>
       </c>
       <c r="J293" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K293" t="s">
         <v>68</v>
@@ -11700,16 +11721,16 @@
         <v>63</v>
       </c>
       <c r="G294" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H294" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I294" t="s">
         <v>66</v>
       </c>
       <c r="J294" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K294" t="s">
         <v>68</v>
@@ -11726,16 +11747,16 @@
         <v>63</v>
       </c>
       <c r="G295" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H295" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I295" t="s">
         <v>70</v>
       </c>
       <c r="J295" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K295" t="s">
         <v>68</v>
@@ -11752,16 +11773,16 @@
         <v>63</v>
       </c>
       <c r="G296" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H296" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I296" t="s">
         <v>66</v>
       </c>
       <c r="J296" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K296" t="s">
         <v>68</v>
@@ -11778,16 +11799,16 @@
         <v>63</v>
       </c>
       <c r="G297" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H297" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I297" t="s">
         <v>70</v>
       </c>
       <c r="J297" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K297" t="s">
         <v>68</v>
@@ -11804,7 +11825,7 @@
         <v>63</v>
       </c>
       <c r="G298" t="s">
-        <v>446</v>
+        <v>367</v>
       </c>
       <c r="H298" t="s">
         <v>447</v>
@@ -11830,7 +11851,7 @@
         <v>63</v>
       </c>
       <c r="G299" t="s">
-        <v>446</v>
+        <v>367</v>
       </c>
       <c r="H299" t="s">
         <v>447</v>
@@ -11845,6 +11866,110 @@
         <v>68</v>
       </c>
       <c r="L299" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="E300" t="s">
+        <v>62</v>
+      </c>
+      <c r="F300" t="s">
+        <v>63</v>
+      </c>
+      <c r="G300" t="s">
+        <v>367</v>
+      </c>
+      <c r="H300" t="s">
+        <v>450</v>
+      </c>
+      <c r="I300" t="s">
+        <v>66</v>
+      </c>
+      <c r="J300" t="s">
+        <v>451</v>
+      </c>
+      <c r="K300" t="s">
+        <v>68</v>
+      </c>
+      <c r="L300" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="E301" t="s">
+        <v>62</v>
+      </c>
+      <c r="F301" t="s">
+        <v>63</v>
+      </c>
+      <c r="G301" t="s">
+        <v>367</v>
+      </c>
+      <c r="H301" t="s">
+        <v>450</v>
+      </c>
+      <c r="I301" t="s">
+        <v>70</v>
+      </c>
+      <c r="J301" t="s">
+        <v>452</v>
+      </c>
+      <c r="K301" t="s">
+        <v>68</v>
+      </c>
+      <c r="L301" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="E302" t="s">
+        <v>62</v>
+      </c>
+      <c r="F302" t="s">
+        <v>63</v>
+      </c>
+      <c r="G302" t="s">
+        <v>453</v>
+      </c>
+      <c r="H302" t="s">
+        <v>454</v>
+      </c>
+      <c r="I302" t="s">
+        <v>66</v>
+      </c>
+      <c r="J302" t="s">
+        <v>455</v>
+      </c>
+      <c r="K302" t="s">
+        <v>68</v>
+      </c>
+      <c r="L302" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="E303" t="s">
+        <v>62</v>
+      </c>
+      <c r="F303" t="s">
+        <v>63</v>
+      </c>
+      <c r="G303" t="s">
+        <v>453</v>
+      </c>
+      <c r="H303" t="s">
+        <v>454</v>
+      </c>
+      <c r="I303" t="s">
+        <v>70</v>
+      </c>
+      <c r="J303" t="s">
+        <v>456</v>
+      </c>
+      <c r="K303" t="s">
+        <v>68</v>
+      </c>
+      <c r="L303" t="s">
         <v>69</v>
       </c>
     </row>
